--- a/00_management/WBSガントチャート_バナナ11.xlsx
+++ b/00_management/WBSガントチャート_バナナ11.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22907"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="154" documentId="11_06AD8BA54B8FBE2912825DFF753FE6726EDB0332" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{32EC3B4E-2022-479B-8CBF-E842312B5481}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="11_06AD8BA54B8FBE2912825DFF753FE6726EDB0332" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6D5201D1-8B7D-42D4-93CC-CD4A0B1108D6}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="8475" windowHeight="4710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,50 +11,50 @@
     <sheet name="反復1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_06B4DFBD_5C79_4F68_BC65_4B644EFEC328_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_13300026_52A2_4B1C_AF85_0E595E74FA6A_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$40</definedName>
-    <definedName name="Z_13C6CEA1_A12C_4A33_89F7_C42E7D2D6F4C_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_1E55FDE8_1C28_486A_8B3E_42FD0F6C2C5B_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_21FBC5F9_AF3B_4473_989A_86C5A84F6064_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_2A20DDA5_C3AD_45D2_BBAE_7EF4CAD0D0A5_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_2BF0F97D_4AD0_498E_8187_CCDEB4673F6D_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_343C42DD_9251_44B2_B0A9_CFBACE255501_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_350595A1_4547_4664_AC00_794421130F85_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_3CA9D375_79FE_4C19_8F1E_68AB9CB3823D_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_408C9ACA_7488_4C10_BEC8_7E0F9F73D3C5_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_433F3EDA_51A7_4B49_958B_0F012875F8AF_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_49C0C027_3D46_416E_A323_D42EDEBD532E_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_4A2E4620_325F_4662_9CE6_35123314BFF4_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_51ABB13D_24EE_492B_9521_A374D8294F91_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_56E77848_89DE_4B72_90E9_E70847C5962A_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_5E0394B4_808B_4DAA_BA0F_DD6C2B48C4D4_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_60BF0A44_7051_4FB3_B37F_E5E315AEAC61_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_65B35576_6CD8_4479_932B_8D8438F861BA_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_6A99DAE4_A408_4B3C_9280_F3C47F95A0B1_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_6AF7E15C_8C49_48EA_9BDC_7A0EEE79AE24_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_73FF8A18_079E_4A14_99B3_579F6590DC13_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_7AE0FA4E_81C9_45EC_B2DB_C6247E14F5E0_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_8A4B12B4_91D3_4448_8425_504FF29E5A65_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_8E7AE198_3EE8_4BDE_ADE2_A63493790568_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_8FA1161B_E5C7_4B98_A276_09F3AC74935B_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_945DB674_08BC_4253_A681_8916477CFC31_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_AF8318F2_2F54_4A3D_B99D_64D1544042E4_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_C20D0F0B_6490_48F9_9B43_65E5CF186637_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_C2BF16E1_7AFA_43D9_AD3E_7077A0E61F43_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_C44183A6_D8EF_40F3_8BE1_8B99DF4211BA_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_C4CDCC8E_83D2_43EC_AE5F_18F8961A982A_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_C8D5D480_2A49_40BE_B7A6_454EA23640FF_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_D1EAD80E_E4BF_4EBC_BAEB_CAB23319AEE9_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_D5EBC936_A13E_4C94_82B6_E58FEDF178A0_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_DDCCCC0A_A081_4F8C_9525_39840C27F342_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_DF660335_9F5E_4A1D_B503_E1BBFDACAE7F_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_E065FE35_0834_4DD0_B998_91253A3BB47D_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_E7CD2CEA_4573_49C3_BCAB_C3B229B6682B_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_EDE81CA1_484F_45F9_B8CA_0958EC6CFEE2_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
-    <definedName name="Z_F55870F9_E82A_4267_AED3_94CF07AEF80F_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_06B4DFBD_5C79_4F68_BC65_4B644EFEC328_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_13300026_52A2_4B1C_AF85_0E595E74FA6A_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$42</definedName>
+    <definedName name="Z_13C6CEA1_A12C_4A33_89F7_C42E7D2D6F4C_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_1E55FDE8_1C28_486A_8B3E_42FD0F6C2C5B_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_21FBC5F9_AF3B_4473_989A_86C5A84F6064_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_2A20DDA5_C3AD_45D2_BBAE_7EF4CAD0D0A5_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_2BF0F97D_4AD0_498E_8187_CCDEB4673F6D_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_343C42DD_9251_44B2_B0A9_CFBACE255501_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_350595A1_4547_4664_AC00_794421130F85_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_3CA9D375_79FE_4C19_8F1E_68AB9CB3823D_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_408C9ACA_7488_4C10_BEC8_7E0F9F73D3C5_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_433F3EDA_51A7_4B49_958B_0F012875F8AF_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_49C0C027_3D46_416E_A323_D42EDEBD532E_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_4A2E4620_325F_4662_9CE6_35123314BFF4_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_51ABB13D_24EE_492B_9521_A374D8294F91_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_56E77848_89DE_4B72_90E9_E70847C5962A_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_5E0394B4_808B_4DAA_BA0F_DD6C2B48C4D4_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_60BF0A44_7051_4FB3_B37F_E5E315AEAC61_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_65B35576_6CD8_4479_932B_8D8438F861BA_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_6A99DAE4_A408_4B3C_9280_F3C47F95A0B1_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_6AF7E15C_8C49_48EA_9BDC_7A0EEE79AE24_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_73FF8A18_079E_4A14_99B3_579F6590DC13_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_7AE0FA4E_81C9_45EC_B2DB_C6247E14F5E0_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_8A4B12B4_91D3_4448_8425_504FF29E5A65_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_8E7AE198_3EE8_4BDE_ADE2_A63493790568_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_8FA1161B_E5C7_4B98_A276_09F3AC74935B_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_945DB674_08BC_4253_A681_8916477CFC31_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_AF8318F2_2F54_4A3D_B99D_64D1544042E4_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_C20D0F0B_6490_48F9_9B43_65E5CF186637_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_C2BF16E1_7AFA_43D9_AD3E_7077A0E61F43_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_C44183A6_D8EF_40F3_8BE1_8B99DF4211BA_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_C4CDCC8E_83D2_43EC_AE5F_18F8961A982A_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_C8D5D480_2A49_40BE_B7A6_454EA23640FF_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_D1EAD80E_E4BF_4EBC_BAEB_CAB23319AEE9_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_D5EBC936_A13E_4C94_82B6_E58FEDF178A0_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_DDCCCC0A_A081_4F8C_9525_39840C27F342_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_DF660335_9F5E_4A1D_B503_E1BBFDACAE7F_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_E065FE35_0834_4DD0_B998_91253A3BB47D_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_E7CD2CEA_4573_49C3_BCAB_C3B229B6682B_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_EDE81CA1_484F_45F9_B8CA_0958EC6CFEE2_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
+    <definedName name="Z_F55870F9_E82A_4267_AED3_94CF07AEF80F_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="68">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -275,6 +275,9 @@
     <t>新規作成</t>
   </si>
   <si>
+    <t>完了</t>
+  </si>
+  <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -302,6 +305,9 @@
   <si>
     <t>レビュー</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー参加</t>
   </si>
   <si>
     <t>レビュー指摘修正</t>
@@ -351,11 +357,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>着手</t>
+  </si>
+  <si>
     <t>ユースケース図</t>
     <rPh sb="6" eb="7">
       <t>ズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酒井</t>
   </si>
   <si>
     <t>ユースケース記述</t>
@@ -365,11 +377,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>堀内、矢崎</t>
+  </si>
+  <si>
     <t>システムテスト仕様書</t>
     <rPh sb="7" eb="10">
       <t>シヨウショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大黒、小森谷</t>
   </si>
   <si>
     <t>レビュー指摘修正＆内部レビュー</t>
@@ -408,6 +426,9 @@
       <t>ズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小森谷</t>
   </si>
   <si>
     <t>D.設計</t>
@@ -459,6 +480,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>未定</t>
+  </si>
+  <si>
     <t>G.振り返り</t>
     <rPh sb="2" eb="3">
       <t>フ</t>
@@ -489,31 +513,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>着手</t>
+    <t>a</t>
   </si>
   <si>
-    <t>レビュー参加</t>
+    <t>b</t>
   </si>
   <si>
-    <t>完了</t>
+    <t>c</t>
   </si>
   <si>
-    <t>酒井</t>
+    <t>d</t>
   </si>
   <si>
-    <t>堀内、矢崎</t>
+    <t>非機能要求一覧</t>
   </si>
   <si>
-    <t>大黒、小森谷</t>
-  </si>
-  <si>
-    <t>小森谷</t>
-  </si>
-  <si>
-    <t>未定</t>
-  </si>
-  <si>
-    <t>ｃ</t>
+    <t>矢﨑</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1481,55 +1496,199 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1538,155 +1697,67 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2287,13 +2358,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S112"/>
+  <dimension ref="A1:S115"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11:E12"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2312,120 +2383,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="80" t="s">
+      <c r="A1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="K1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="105">
+      <c r="L1" s="78">
         <v>43984</v>
       </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="105">
+      <c r="M1" s="79"/>
+      <c r="N1" s="78">
         <v>43985</v>
       </c>
-      <c r="O1" s="106"/>
-      <c r="P1" s="105">
+      <c r="O1" s="79"/>
+      <c r="P1" s="78">
         <v>43986</v>
       </c>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="105">
+      <c r="Q1" s="79"/>
+      <c r="R1" s="78">
         <v>43987</v>
       </c>
-      <c r="S1" s="106"/>
+      <c r="S1" s="79"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="109" t="s">
+      <c r="A2" s="102"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="108"/>
-      <c r="N2" s="107" t="s">
+      <c r="M2" s="81"/>
+      <c r="N2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="107"/>
-      <c r="P2" s="110" t="s">
+      <c r="O2" s="80"/>
+      <c r="P2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="107" t="s">
+      <c r="Q2" s="81"/>
+      <c r="R2" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="108"/>
+      <c r="S2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="113" t="s">
+      <c r="A3" s="102"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="112"/>
-      <c r="N3" s="111" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="112"/>
-      <c r="P3" s="111" t="s">
+      <c r="O3" s="85"/>
+      <c r="P3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="114" t="s">
+      <c r="Q3" s="85"/>
+      <c r="R3" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="114"/>
+      <c r="S3" s="87"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="117"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2452,117 +2523,117 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="118"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="94"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="45">
-        <f t="shared" ref="K5:S5" si="0">SUM(K7,K23,K41,K57,K75,K83,K95)</f>
+        <f>SUM(K7,K23,K43,K59,K77,K85,K97)</f>
         <v>103</v>
       </c>
       <c r="L5" s="27">
-        <f t="shared" si="0"/>
+        <f>SUM(L7,L23,L43,L59,L77,L85,L97)</f>
         <v>14</v>
       </c>
       <c r="M5" s="27">
-        <f t="shared" si="0"/>
+        <f>SUM(M7,M23,M43,M59,M77,M85,M97)</f>
         <v>17</v>
       </c>
       <c r="N5" s="27">
-        <f t="shared" si="0"/>
+        <f>SUM(N7,N23,N43,N59,N77,N85,N97)</f>
         <v>11</v>
       </c>
       <c r="O5" s="27">
-        <f t="shared" si="0"/>
+        <f>SUM(O7,O23,O43,O59,O77,O85,O97)</f>
         <v>16.5</v>
       </c>
       <c r="P5" s="27">
-        <f t="shared" si="0"/>
+        <f>SUM(P7,P23,P43,P59,P77,P85,P97)</f>
         <v>13</v>
       </c>
       <c r="Q5" s="27">
-        <f t="shared" si="0"/>
+        <f>SUM(Q7,Q23,Q43,Q59,Q77,Q85,Q97)</f>
         <v>15</v>
       </c>
       <c r="R5" s="27">
-        <f t="shared" si="0"/>
+        <f>SUM(R7,R23,R43,R59,R77,R85,R97)</f>
         <v>12.5</v>
       </c>
       <c r="S5" s="27">
-        <f t="shared" si="0"/>
+        <f>SUM(S7,S23,S43,S59,S77,S85,S97)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="92"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="119"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="47">
-        <f t="shared" ref="K6:S6" si="1">SUM(L8,L24,L42,L58,L76,L84)</f>
-        <v>2</v>
+        <f>SUM(L8,L24,L44,L60,L78,L86)</f>
+        <v>8.5</v>
       </c>
       <c r="L6" s="47">
-        <f t="shared" si="1"/>
+        <f>SUM(M8,M24,M44,M60,M78,M86)</f>
         <v>4</v>
       </c>
       <c r="M6" s="47">
-        <f t="shared" si="1"/>
+        <f>SUM(N8,N24,N44,N60,N78,N86)</f>
         <v>0</v>
       </c>
       <c r="N6" s="47">
-        <f t="shared" si="1"/>
+        <f>SUM(O8,O24,O44,O60,O78,O86)</f>
         <v>0</v>
       </c>
       <c r="O6" s="47">
-        <f t="shared" si="1"/>
+        <f>SUM(P8,P24,P44,P60,P78,P86)</f>
         <v>0</v>
       </c>
       <c r="P6" s="47">
-        <f t="shared" si="1"/>
+        <f>SUM(Q8,Q24,Q44,Q60,Q78,Q86)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="47">
-        <f t="shared" si="1"/>
+        <f>SUM(R8,R24,R44,R60,R78,R86)</f>
         <v>0</v>
       </c>
       <c r="R6" s="47">
-        <f t="shared" si="1"/>
+        <f>SUM(S8,S24,S44,S60,S78,S86)</f>
         <v>0</v>
       </c>
       <c r="S6" s="47">
-        <f t="shared" si="1"/>
+        <f>SUM(T8,T24,T44,T60,T78,T86)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="100"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="113"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2573,35 +2644,35 @@
         <v>14</v>
       </c>
       <c r="L7" s="40">
-        <f t="shared" ref="L7:S7" si="2">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=1)*L$9:L$22)</f>
+        <f t="shared" ref="L7:S7" si="0">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=1)*L$9:L$22)</f>
         <v>14</v>
       </c>
       <c r="M7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2610,9 +2681,9 @@
       <c r="B8" s="76"/>
       <c r="C8" s="76"/>
       <c r="D8" s="77"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="101"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="114"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2620,67 +2691,65 @@
       <c r="J8" s="7"/>
       <c r="K8" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$9:K$22),2)=0)*K$9:K$22)</f>
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="L8" s="38">
-        <f t="shared" ref="L8:S8" si="3">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
-        <v>2</v>
+        <f t="shared" ref="L8:S8" si="1">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
+        <v>8.5</v>
       </c>
       <c r="M8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1">
-      <c r="A9" s="55">
+      <c r="A9" s="65">
         <v>1</v>
       </c>
       <c r="B9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="68" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="53"/>
+      <c r="F9" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="68"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
-      <c r="K9" s="22">
-        <v>4</v>
-      </c>
-      <c r="L9" s="30">
-        <v>4</v>
-      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="30"/>
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
       <c r="O9" s="31"/>
@@ -2690,13 +2759,13 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1">
-      <c r="A10" s="56"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="54"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="69"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v>実績</v>
@@ -2714,26 +2783,26 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="65"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="8">
         <v>0.5</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J11" s="8">
         <v>5</v>
@@ -2753,18 +2822,18 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1">
-      <c r="A12" s="56"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="58"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="52">
         <v>0.5</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J12" s="52">
         <v>5</v>
@@ -2784,27 +2853,27 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="57" t="s">
-        <v>27</v>
+      <c r="A13" s="65"/>
+      <c r="B13" s="67" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="65"/>
+      <c r="F13" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="55"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J13" s="8">
         <v>5</v>
@@ -2825,19 +2894,19 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="58"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="56"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I14" s="52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J14" s="52">
         <v>5</v>
@@ -2846,7 +2915,9 @@
         <f>SUM(L14:S14)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="41"/>
+      <c r="L14" s="41">
+        <v>2</v>
+      </c>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
@@ -2856,19 +2927,21 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1">
-      <c r="A15" s="55">
+      <c r="A15" s="65">
         <v>2</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="53"/>
+        <v>30</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="68"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v>予定</v>
@@ -2886,13 +2959,13 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="54"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="69"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v>実績</v>
@@ -2910,31 +2983,33 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1">
-      <c r="A17" s="55"/>
-      <c r="B17" s="57" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="65"/>
+      <c r="G17" s="55"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J17" s="8">
         <v>5</v>
       </c>
       <c r="K17" s="9">
-        <f t="shared" ref="K17:K22" si="4">SUM(L17:S17)</f>
+        <f t="shared" ref="K17:K22" si="2">SUM(L17:S17)</f>
         <v>2.5</v>
       </c>
       <c r="L17" s="30">
@@ -2950,24 +3025,30 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1">
-      <c r="A18" s="56"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="58"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
+      <c r="I18" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="52">
+        <v>5</v>
+      </c>
       <c r="K18" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="41"/>
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="L18" s="41">
+        <v>2.5</v>
+      </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
@@ -2977,31 +3058,33 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1">
-      <c r="A19" s="55"/>
-      <c r="B19" s="57" t="s">
-        <v>27</v>
+      <c r="A19" s="65"/>
+      <c r="B19" s="67" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="65"/>
+      <c r="F19" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="55"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J19" s="8">
         <v>1</v>
       </c>
       <c r="K19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="L19" s="33">
@@ -3016,24 +3099,30 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="58"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
+      <c r="I20" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="52">
+        <v>1</v>
+      </c>
       <c r="K20" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="41"/>
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L20" s="41">
+        <v>3</v>
+      </c>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
       <c r="O20" s="32"/>
@@ -3043,25 +3132,27 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1">
-      <c r="A21" s="55"/>
-      <c r="B21" s="57" t="s">
-        <v>32</v>
+      <c r="A21" s="65"/>
+      <c r="B21" s="67" t="s">
+        <v>34</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="63"/>
-      <c r="G21" s="65"/>
+      <c r="F21" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="55"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J21" s="8">
         <v>1</v>
@@ -3081,24 +3172,30 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1">
-      <c r="A22" s="56"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="58"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
+      <c r="I22" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="52">
+        <v>1</v>
+      </c>
       <c r="K22" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="41"/>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="41">
+        <v>1</v>
+      </c>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
@@ -3109,55 +3206,55 @@
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1">
       <c r="A23" s="72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="73"/>
       <c r="C23" s="73"/>
       <c r="D23" s="74"/>
-      <c r="E23" s="78" t="s">
+      <c r="E23" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="78"/>
-      <c r="G23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="118"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="21">
-        <f t="shared" ref="K23:S23" si="5">SUMPRODUCT((MOD(ROW(K$25:K$40),2)=1)*K$25:K$40)</f>
+        <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
         <v>9.5</v>
       </c>
       <c r="L23" s="34">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT((MOD(ROW(L$25:L$42),2)=1)*L$25:L$42)</f>
         <v>0</v>
       </c>
       <c r="M23" s="35">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT((MOD(ROW(M$25:M$42),2)=1)*M$25:M$42)</f>
         <v>9.5</v>
       </c>
       <c r="N23" s="35">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT((MOD(ROW(N$25:N$42),2)=1)*N$25:N$42)</f>
         <v>0</v>
       </c>
       <c r="O23" s="35">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT((MOD(ROW(O$25:O$42),2)=1)*O$25:O$42)</f>
         <v>0</v>
       </c>
       <c r="P23" s="35">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT((MOD(ROW(P$25:P$42),2)=1)*P$25:P$42)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="35">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT((MOD(ROW(Q$25:Q$42),2)=1)*Q$25:Q$42)</f>
         <v>0</v>
       </c>
       <c r="R23" s="35">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT((MOD(ROW(R$25:R$42),2)=1)*R$25:R$42)</f>
         <v>0</v>
       </c>
       <c r="S23" s="35">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT((MOD(ROW(S$25:S$42),2)=1)*S$25:S$42)</f>
         <v>0</v>
       </c>
     </row>
@@ -3166,65 +3263,67 @@
       <c r="B24" s="76"/>
       <c r="C24" s="76"/>
       <c r="D24" s="77"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="119"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="15">
-        <f t="shared" ref="K24:S24" si="6">SUMPRODUCT((MOD(ROW(K$25:K$40),2)=0)*K$25:K$40)</f>
+        <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
         <v>4</v>
       </c>
       <c r="L24" s="42">
-        <f t="shared" si="6"/>
+        <f>SUMPRODUCT((MOD(ROW(L$25:L$42),2)=0)*L$25:L$42)</f>
         <v>0</v>
       </c>
       <c r="M24" s="36">
-        <f t="shared" si="6"/>
+        <f>SUMPRODUCT((MOD(ROW(M$25:M$42),2)=0)*M$25:M$42)</f>
         <v>4</v>
       </c>
       <c r="N24" s="36">
-        <f t="shared" si="6"/>
+        <f>SUMPRODUCT((MOD(ROW(N$25:N$42),2)=0)*N$25:N$42)</f>
         <v>0</v>
       </c>
       <c r="O24" s="36">
-        <f t="shared" si="6"/>
+        <f>SUMPRODUCT((MOD(ROW(O$25:O$42),2)=0)*O$25:O$42)</f>
         <v>0</v>
       </c>
       <c r="P24" s="36">
-        <f t="shared" si="6"/>
+        <f>SUMPRODUCT((MOD(ROW(P$25:P$42),2)=0)*P$25:P$42)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="36">
-        <f t="shared" si="6"/>
+        <f>SUMPRODUCT((MOD(ROW(Q$25:Q$42),2)=0)*Q$25:Q$42)</f>
         <v>0</v>
       </c>
       <c r="R24" s="37">
-        <f t="shared" si="6"/>
+        <f>SUMPRODUCT((MOD(ROW(R$25:R$42),2)=0)*R$25:R$42)</f>
         <v>0</v>
       </c>
       <c r="S24" s="36">
-        <f t="shared" si="6"/>
+        <f>SUMPRODUCT((MOD(ROW(S$25:S$42),2)=0)*S$25:S$42)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1">
-      <c r="A25" s="55">
+      <c r="A25" s="65">
         <v>1</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="53"/>
+      <c r="F25" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="68"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v>予定</v>
@@ -3242,13 +3341,13 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="54"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="69"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v>実績</v>
@@ -3266,102 +3365,108 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="57" t="s">
+      <c r="A27" s="127"/>
+      <c r="B27" s="129" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="63" t="s">
+      <c r="G27" s="133"/>
+      <c r="H27" s="120">
+        <f>IF(E27="","","予定")</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="120" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="120">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="L27" s="121"/>
+      <c r="M27" s="122">
+        <v>1</v>
+      </c>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="122"/>
+    </row>
+    <row r="28" spans="1:19" ht="12" customHeight="1">
+      <c r="A28" s="128"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="123">
+        <f>IF(E27="","","実績")</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="123" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="123">
+        <v>1</v>
+      </c>
+      <c r="K28" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="L28" s="124"/>
+      <c r="M28" s="125">
+        <v>2</v>
+      </c>
+      <c r="N28" s="126"/>
+      <c r="O28" s="126"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="126"/>
+      <c r="S28" s="126"/>
+    </row>
+    <row r="29" spans="1:19" ht="12" customHeight="1">
+      <c r="A29" s="65"/>
+      <c r="B29" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="61"/>
+      <c r="E29" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="8" t="str">
-        <f>IF(E27="","","予定")</f>
-        <v>予定</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="8">
-        <v>1</v>
-      </c>
-      <c r="K27" s="9">
-        <f>SUM(M27:S27)</f>
-        <v>1</v>
-      </c>
-      <c r="M27" s="30">
-        <v>1</v>
-      </c>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-    </row>
-    <row r="28" spans="1:19" ht="12" customHeight="1">
-      <c r="A28" s="56"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="52" t="str">
-        <f>IF(E27="","","実績")</f>
-        <v>実績</v>
-      </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="10">
-        <f t="shared" ref="K28:K32" si="7">SUM(L28:S28)</f>
-        <v>2</v>
-      </c>
-      <c r="L28" s="48"/>
-      <c r="M28" s="49">
-        <v>2</v>
-      </c>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-    </row>
-    <row r="29" spans="1:19" ht="12" customHeight="1">
-      <c r="A29" s="55"/>
-      <c r="B29" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="65"/>
+      <c r="F29" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="55"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="J29" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" s="9">
-        <f t="shared" si="7"/>
+        <f>SUM(M29:S29)</f>
         <v>1</v>
       </c>
-      <c r="L29" s="30"/>
-      <c r="M29" s="31">
+      <c r="M29" s="30">
         <v>1</v>
       </c>
       <c r="N29" s="31"/>
@@ -3372,26 +3477,30 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1">
-      <c r="A30" s="56"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="58"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
+      <c r="I30" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="52">
+        <v>2</v>
+      </c>
       <c r="K30" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K30:K34" si="3">SUM(L30:S30)</f>
         <v>2</v>
       </c>
       <c r="L30" s="48"/>
       <c r="M30" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30" s="32"/>
       <c r="O30" s="32"/>
@@ -3401,36 +3510,38 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1">
-      <c r="A31" s="55"/>
-      <c r="B31" s="57" t="s">
-        <v>62</v>
+      <c r="A31" s="65"/>
+      <c r="B31" s="67" t="s">
+        <v>64</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="61"/>
+      <c r="E31" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="65"/>
+      <c r="F31" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="55"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J31" s="8">
         <v>2</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L31" s="30"/>
       <c r="M31" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31" s="31"/>
       <c r="O31" s="31"/>
@@ -3440,25 +3551,30 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1">
-      <c r="A32" s="56"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="58"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="56"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
+      <c r="I32" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="52">
+        <v>1</v>
+      </c>
       <c r="K32" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="41"/>
-      <c r="M32" s="32"/>
+        <v>0.5</v>
+      </c>
+      <c r="L32" s="48"/>
+      <c r="M32" s="49">
+        <v>2</v>
+      </c>
       <c r="N32" s="32"/>
       <c r="O32" s="32"/>
       <c r="P32" s="32"/>
@@ -3467,28 +3583,39 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1">
-      <c r="A33" s="55">
-        <v>2</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="68"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="23" t="str">
+      <c r="A33" s="65"/>
+      <c r="B33" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="61"/>
+      <c r="E33" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="55"/>
+      <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="31"/>
+      <c r="I33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="8">
+        <v>2</v>
+      </c>
+      <c r="K33" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L33" s="30"/>
+      <c r="M33" s="31">
+        <v>2</v>
+      </c>
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
       <c r="P33" s="31"/>
@@ -3497,22 +3624,31 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1">
-      <c r="A34" s="56"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="24" t="str">
+      <c r="A34" s="66"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="26"/>
+      <c r="I34" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="120">
+        <v>2</v>
+      </c>
+      <c r="K34" s="10">
+        <f>SUM(L34:S34)</f>
+        <v>0</v>
+      </c>
       <c r="L34" s="41"/>
-      <c r="M34" s="32"/>
+      <c r="M34" s="32">
+        <v>2</v>
+      </c>
       <c r="N34" s="32"/>
       <c r="O34" s="32"/>
       <c r="P34" s="32"/>
@@ -3521,37 +3657,30 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1">
-      <c r="A35" s="55"/>
-      <c r="B35" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="63"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="8" t="str">
+      <c r="A35" s="65">
+        <v>2</v>
+      </c>
+      <c r="B35" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="60"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="68"/>
+      <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I35" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35" s="52">
-        <v>5</v>
-      </c>
-      <c r="K35" s="9">
-        <f>SUM(L35:S35)</f>
-        <v>2.5</v>
-      </c>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="25"/>
       <c r="L35" s="33"/>
-      <c r="M35" s="31">
-        <v>2.5</v>
-      </c>
+      <c r="M35" s="31"/>
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
       <c r="P35" s="31"/>
@@ -3560,26 +3689,23 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1">
-      <c r="A36" s="56"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="52" t="str">
+      <c r="A36" s="66"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="10">
-        <f>SUM(L36:S36)</f>
-        <v>0</v>
-      </c>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="26"/>
       <c r="L36" s="41"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="50"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
       <c r="O36" s="32"/>
       <c r="P36" s="32"/>
       <c r="Q36" s="32"/>
@@ -3587,36 +3713,38 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1">
-      <c r="A37" s="55"/>
-      <c r="B37" s="57" t="s">
-        <v>27</v>
+      <c r="A37" s="65"/>
+      <c r="B37" s="67" t="s">
+        <v>25</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="63"/>
-      <c r="G37" s="65"/>
+        <v>30</v>
+      </c>
+      <c r="D37" s="61"/>
+      <c r="E37" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="55"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" s="8">
+      <c r="I37" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="52">
         <v>5</v>
       </c>
       <c r="K37" s="9">
         <f>SUM(L37:S37)</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L37" s="33"/>
       <c r="M37" s="31">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N37" s="31"/>
       <c r="O37" s="31"/>
@@ -3626,26 +3754,28 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1">
-      <c r="A38" s="56"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="58"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="56"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I38" s="52"/>
+      <c r="I38" s="123" t="s">
+        <v>27</v>
+      </c>
       <c r="J38" s="52"/>
       <c r="K38" s="10">
-        <f>SUM(L38:M38)</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="48"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="32"/>
+        <f>SUM(L38:S38)</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="41"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="50"/>
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
       <c r="Q38" s="32"/>
@@ -3653,36 +3783,38 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1">
-      <c r="A39" s="55"/>
-      <c r="B39" s="57" t="s">
-        <v>32</v>
+      <c r="A39" s="65"/>
+      <c r="B39" s="67" t="s">
+        <v>28</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="63"/>
-      <c r="G39" s="65"/>
+        <v>45</v>
+      </c>
+      <c r="D39" s="61"/>
+      <c r="E39" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="55"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J39" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K39" s="9">
         <f>SUM(L39:S39)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" s="33"/>
       <c r="M39" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" s="31"/>
       <c r="O39" s="31"/>
@@ -3692,18 +3824,20 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1">
-      <c r="A40" s="56"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="58"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="56"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I40" s="52"/>
+      <c r="I40" s="123" t="s">
+        <v>27</v>
+      </c>
       <c r="J40" s="52"/>
       <c r="K40" s="10">
         <f>SUM(L40:M40)</f>
@@ -3719,194 +3853,200 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1">
-      <c r="A41" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="20" t="s">
+      <c r="A41" s="65"/>
+      <c r="B41" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="61"/>
+      <c r="E41" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="55"/>
+      <c r="H41" s="8" t="str">
+        <f>IF(E41="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="8">
+        <v>1</v>
+      </c>
+      <c r="K41" s="9">
+        <f>SUM(L41:S41)</f>
+        <v>1</v>
+      </c>
+      <c r="L41" s="33"/>
+      <c r="M41" s="31">
+        <v>1</v>
+      </c>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+    </row>
+    <row r="42" spans="1:19" ht="12" customHeight="1">
+      <c r="A42" s="66"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="52" t="str">
+        <f>IF(E41="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I42" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="52"/>
+      <c r="K42" s="10">
+        <f>SUM(L42:M42)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="48"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+    </row>
+    <row r="43" spans="1:19" ht="12" customHeight="1">
+      <c r="A43" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="21">
-        <f>SUMPRODUCT((MOD(ROW(K$43:K$56),2)=1)*K$43:K$56)</f>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="21">
+        <f>SUMPRODUCT((MOD(ROW(K$45:K$58),2)=1)*K$45:K$58)</f>
         <v>20</v>
       </c>
-      <c r="L41" s="35">
-        <f t="shared" ref="L41:M41" si="8">SUMPRODUCT((MOD(ROW(L$43:L$56),2)=1)*L$43:L$56)</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="35">
-        <f t="shared" si="8"/>
+      <c r="L43" s="35">
+        <f t="shared" ref="L43:M43" si="4">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=1)*L$45:L$58)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="35">
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
-      <c r="N41" s="35">
-        <f>SUMPRODUCT((MOD(ROW(N$43:N$56),2)=1)*N$43:N$56)</f>
+      <c r="N43" s="35">
+        <f>SUMPRODUCT((MOD(ROW(N$45:N$58),2)=1)*N$45:N$58)</f>
         <v>8.5</v>
       </c>
-      <c r="O41" s="35">
-        <f t="shared" ref="O41:S41" si="9">SUMPRODUCT((MOD(ROW(O$43:O$56),2)=1)*O$43:O$56)</f>
-        <v>0</v>
-      </c>
-      <c r="P41" s="35">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="35">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="35">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="35">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="12" customHeight="1">
-      <c r="A42" s="75"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="7" t="s">
+      <c r="O43" s="35">
+        <f t="shared" ref="O43:S43" si="5">SUMPRODUCT((MOD(ROW(O$45:O$58),2)=1)*O$45:O$58)</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="12" customHeight="1">
+      <c r="A44" s="75"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="15">
-        <f>SUMPRODUCT((MOD(ROW(K$43:K$56),2)=0)*K$43:K$56)</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="36">
-        <f t="shared" ref="L42:S42" si="10">SUMPRODUCT((MOD(ROW(L$43:L$56),2)=0)*L$43:L$56)</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="36">
-        <f>SUMPRODUCT((MOD(ROW(M$43:M$56),2)=0)*M$43:M$56)</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="36">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="36">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="36">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="36">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="36">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S42" s="36">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="12" customHeight="1">
-      <c r="A43" s="55">
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="15">
+        <f>SUMPRODUCT((MOD(ROW(K$45:K$58),2)=0)*K$45:K$58)</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="36">
+        <f t="shared" ref="L44:S44" si="6">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=0)*L$45:L$58)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="36">
+        <f>SUMPRODUCT((MOD(ROW(M$45:M$58),2)=0)*M$45:M$58)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="12" customHeight="1">
+      <c r="A45" s="65">
         <v>1</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B45" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="68" t="s">
+      <c r="C45" s="60"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="68"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="23" t="str">
-        <f>IF(E43="","","予定")</f>
-        <v>予定</v>
-      </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-    </row>
-    <row r="44" spans="1:19" ht="12" customHeight="1">
-      <c r="A44" s="56"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="24" t="str">
-        <f>IF(E43="","","実績")</f>
-        <v>実績</v>
-      </c>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-    </row>
-    <row r="45" spans="1:19" ht="12" customHeight="1">
-      <c r="A45" s="55"/>
-      <c r="B45" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="60"/>
-      <c r="E45" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="63"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="8" t="str">
+      <c r="F45" s="57"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I45" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="8">
-        <v>5</v>
-      </c>
-      <c r="K45" s="9">
-        <f>SUM(L45:S45)</f>
-        <v>5</v>
-      </c>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="25"/>
       <c r="L45" s="33"/>
-      <c r="M45" s="31">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
+      <c r="M45" s="31"/>
       <c r="N45" s="31"/>
       <c r="O45" s="31"/>
       <c r="P45" s="31"/>
@@ -3915,23 +4055,20 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1">
-      <c r="A46" s="56"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="52" t="str">
+      <c r="A46" s="66"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="10">
-        <f>SUM(L46:S46)</f>
-        <v>0</v>
-      </c>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="26"/>
       <c r="L46" s="41"/>
       <c r="M46" s="32"/>
       <c r="N46" s="32"/>
@@ -3942,42 +4079,39 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1">
-      <c r="A47" s="55"/>
-      <c r="B47" s="57" t="s">
-        <v>27</v>
+      <c r="A47" s="65"/>
+      <c r="B47" s="67" t="s">
+        <v>25</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="61"/>
+      <c r="E47" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="63"/>
-      <c r="G47" s="65"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="55"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J47" s="8">
         <v>5</v>
       </c>
       <c r="K47" s="9">
         <f>SUM(L47:S47)</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="L47" s="33"/>
       <c r="M47" s="31">
-        <f>0.5*5</f>
-        <v>2.5</v>
-      </c>
-      <c r="N47" s="31">
         <f>1*5</f>
         <v>5</v>
       </c>
+      <c r="N47" s="31"/>
       <c r="O47" s="31"/>
       <c r="P47" s="31"/>
       <c r="Q47" s="31"/>
@@ -3985,13 +4119,13 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1">
-      <c r="A48" s="56"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="58"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="56"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4012,29 +4146,42 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1">
-      <c r="A49" s="55">
-        <v>2</v>
-      </c>
-      <c r="B49" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="68"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="23" t="str">
+      <c r="A49" s="65"/>
+      <c r="B49" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="61"/>
+      <c r="E49" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="53"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="25"/>
+      <c r="I49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="8">
+        <v>5</v>
+      </c>
+      <c r="K49" s="9">
+        <f>SUM(L49:S49)</f>
+        <v>7.5</v>
+      </c>
       <c r="L49" s="33"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
+      <c r="M49" s="31">
+        <f>0.5*5</f>
+        <v>2.5</v>
+      </c>
+      <c r="N49" s="31">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
       <c r="O49" s="31"/>
       <c r="P49" s="31"/>
       <c r="Q49" s="31"/>
@@ -4042,20 +4189,23 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1">
-      <c r="A50" s="56"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="24" t="str">
+      <c r="A50" s="66"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="26"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="10">
+        <f>SUM(L50:S50)</f>
+        <v>0</v>
+      </c>
       <c r="L50" s="41"/>
       <c r="M50" s="32"/>
       <c r="N50" s="32"/>
@@ -4066,32 +4216,26 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1">
-      <c r="A51" s="55"/>
-      <c r="B51" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" s="63"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="8" t="str">
+      <c r="A51" s="65">
+        <v>2</v>
+      </c>
+      <c r="B51" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="60"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="57"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I51" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J51" s="8">
-        <v>5</v>
-      </c>
-      <c r="K51" s="9">
-        <v>2.5</v>
-      </c>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="25"/>
       <c r="L51" s="33"/>
       <c r="M51" s="31"/>
       <c r="N51" s="31"/>
@@ -4102,23 +4246,20 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1">
-      <c r="A52" s="56"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="52" t="str">
+      <c r="A52" s="66"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="10">
-        <f t="shared" ref="K52:K56" si="11">SUM(L52:S52)</f>
-        <v>0</v>
-      </c>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="26"/>
       <c r="L52" s="41"/>
       <c r="M52" s="32"/>
       <c r="N52" s="32"/>
@@ -4129,39 +4270,35 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1">
-      <c r="A53" s="55"/>
-      <c r="B53" s="57" t="s">
-        <v>27</v>
+      <c r="A53" s="65"/>
+      <c r="B53" s="67" t="s">
+        <v>25</v>
       </c>
       <c r="C53" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" s="63"/>
-      <c r="G53" s="65"/>
+        <v>30</v>
+      </c>
+      <c r="D53" s="61"/>
+      <c r="E53" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="53"/>
+      <c r="G53" s="55"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J53" s="8">
         <v>5</v>
       </c>
       <c r="K53" s="9">
-        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="L53" s="33"/>
       <c r="M53" s="31"/>
-      <c r="N53" s="31">
-        <f>0.5*5</f>
-        <v>2.5</v>
-      </c>
+      <c r="N53" s="31"/>
       <c r="O53" s="31"/>
       <c r="P53" s="31"/>
       <c r="Q53" s="31"/>
@@ -4169,13 +4306,13 @@
       <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1">
-      <c r="A54" s="56"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="58"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="56"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4183,7 +4320,7 @@
       <c r="I54" s="52"/>
       <c r="J54" s="52"/>
       <c r="K54" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="K54:K58" si="7">SUM(L54:S54)</f>
         <v>0</v>
       </c>
       <c r="L54" s="41"/>
@@ -4196,36 +4333,38 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1">
-      <c r="A55" s="55"/>
-      <c r="B55" s="57" t="s">
-        <v>32</v>
+      <c r="A55" s="65"/>
+      <c r="B55" s="67" t="s">
+        <v>28</v>
       </c>
       <c r="C55" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="61"/>
+      <c r="E55" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="63"/>
-      <c r="G55" s="65"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="55"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J55" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K55" s="9">
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="L55" s="33"/>
       <c r="M55" s="31"/>
       <c r="N55" s="31">
-        <v>1</v>
+        <f>0.5*5</f>
+        <v>2.5</v>
       </c>
       <c r="O55" s="31"/>
       <c r="P55" s="31"/>
@@ -4234,13 +4373,13 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1">
-      <c r="A56" s="56"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="58"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="56"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4248,233 +4387,228 @@
       <c r="I56" s="52"/>
       <c r="J56" s="52"/>
       <c r="K56" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="43"/>
-      <c r="M56" s="44"/>
-      <c r="N56" s="44"/>
-      <c r="O56" s="44"/>
-      <c r="P56" s="44"/>
-      <c r="Q56" s="44"/>
-      <c r="R56" s="44"/>
-      <c r="S56" s="44"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="41"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1">
-      <c r="A57" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="20" t="s">
+      <c r="A57" s="65"/>
+      <c r="B57" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="61"/>
+      <c r="E57" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="53"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="8" t="str">
+        <f>IF(E57="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J57" s="8">
+        <v>1</v>
+      </c>
+      <c r="K57" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="L57" s="33"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31">
+        <v>1</v>
+      </c>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+    </row>
+    <row r="58" spans="1:19" ht="12" customHeight="1">
+      <c r="A58" s="66"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="52" t="str">
+        <f>IF(E57="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="43"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="44"/>
+    </row>
+    <row r="59" spans="1:19" ht="12" customHeight="1">
+      <c r="A59" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="73"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="118"/>
+      <c r="H59" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="21">
-        <f>SUMPRODUCT((MOD(ROW(K$59:K$74),2)=1)*K$59:K$74)</f>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="21">
+        <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=1)*K$61:K$76)</f>
         <v>27</v>
       </c>
-      <c r="L57" s="35">
-        <f t="shared" ref="L57:N57" si="12">SUMPRODUCT((MOD(ROW(L$59:L$74),2)=1)*L$59:L$74)</f>
-        <v>0</v>
-      </c>
-      <c r="M57" s="35">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="35">
-        <f t="shared" si="12"/>
+      <c r="L59" s="35">
+        <f t="shared" ref="L59:N59" si="8">SUMPRODUCT((MOD(ROW(L$61:L$76),2)=1)*L$61:L$76)</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="35">
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
-      <c r="O57" s="35">
-        <f>SUMPRODUCT((MOD(ROW(O$59:O$74),2)=1)*O$59:O$74)</f>
+      <c r="O59" s="35">
+        <f>SUMPRODUCT((MOD(ROW(O$61:O$76),2)=1)*O$61:O$76)</f>
         <v>16.5</v>
       </c>
-      <c r="P57" s="35">
-        <f t="shared" ref="P57:S57" si="13">SUMPRODUCT((MOD(ROW(P$59:P$74),2)=1)*P$59:P$74)</f>
+      <c r="P59" s="35">
+        <f t="shared" ref="P59:S59" si="9">SUMPRODUCT((MOD(ROW(P$61:P$76),2)=1)*P$61:P$76)</f>
         <v>8</v>
       </c>
-      <c r="Q57" s="35">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="R57" s="35">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="S57" s="35">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="12" customHeight="1">
-      <c r="A58" s="75"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="7" t="s">
+      <c r="Q59" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="12" customHeight="1">
+      <c r="A60" s="75"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="119"/>
+      <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="15">
-        <f>SUMPRODUCT((MOD(ROW(K$59:K$74),2)=0)*K$59:K$74)</f>
-        <v>0</v>
-      </c>
-      <c r="L58" s="36">
-        <f>SUMPRODUCT((MOD(ROW(L$59:L$74),2)=0)*L$59:L$74)</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="36">
-        <f t="shared" ref="M58:S58" si="14">SUMPRODUCT((MOD(ROW(M$59:M$74),2)=0)*M$59:M$74)</f>
-        <v>0</v>
-      </c>
-      <c r="N58" s="36">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="36">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P58" s="36">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="36">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R58" s="36">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S58" s="36">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="12" customHeight="1">
-      <c r="A59" s="55">
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="15">
+        <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
+        <v>0</v>
+      </c>
+      <c r="L60" s="36">
+        <f>SUMPRODUCT((MOD(ROW(L$61:L$76),2)=0)*L$61:L$76)</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="36">
+        <f t="shared" ref="M60:S60" si="10">SUMPRODUCT((MOD(ROW(M$61:M$76),2)=0)*M$61:M$76)</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="12" customHeight="1">
+      <c r="A61" s="65">
         <v>1</v>
       </c>
-      <c r="B59" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="C59" s="66"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="23" t="str">
-        <f>IF(E59="","","予定")</f>
+      <c r="B61" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="60"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="23" t="str">
+        <f>IF(E61="","","予定")</f>
         <v/>
       </c>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-    </row>
-    <row r="60" spans="1:19" ht="12" customHeight="1">
-      <c r="A60" s="56"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="24" t="str">
-        <f>IF(E59="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="32"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="32"/>
-    </row>
-    <row r="61" spans="1:19" ht="12" customHeight="1">
-      <c r="A61" s="55"/>
-      <c r="B61" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" s="60"/>
-      <c r="E61" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F61" s="63"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="8" t="str">
-        <f>IF(E61="","","予定")</f>
-        <v>予定</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J61" s="8">
-        <v>5</v>
-      </c>
-      <c r="K61" s="9">
-        <f t="shared" ref="K61:K66" si="15">SUM(L61:S61)</f>
-        <v>7.5</v>
-      </c>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="25"/>
       <c r="L61" s="33"/>
       <c r="M61" s="31"/>
-      <c r="N61" s="31">
-        <f>0.5*5</f>
-        <v>2.5</v>
-      </c>
-      <c r="O61" s="31">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
       <c r="P61" s="31"/>
       <c r="Q61" s="31"/>
       <c r="R61" s="31"/>
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1">
-      <c r="A62" s="56"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="52" t="str">
+      <c r="A62" s="66"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
-        <v>実績</v>
-      </c>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="26"/>
       <c r="L62" s="41"/>
       <c r="M62" s="32"/>
       <c r="N62" s="32"/>
@@ -4485,38 +4619,42 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1">
-      <c r="A63" s="55"/>
-      <c r="B63" s="57" t="s">
-        <v>27</v>
+      <c r="A63" s="65"/>
+      <c r="B63" s="67" t="s">
+        <v>25</v>
       </c>
       <c r="C63" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="61"/>
+      <c r="E63" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="63"/>
-      <c r="G63" s="65"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="55"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J63" s="8">
         <v>5</v>
       </c>
       <c r="K63" s="9">
-        <f t="shared" si="15"/>
-        <v>9</v>
+        <f t="shared" ref="K63:K68" si="11">SUM(L63:S63)</f>
+        <v>7.5</v>
       </c>
       <c r="L63" s="33"/>
       <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
+      <c r="N63" s="31">
+        <f>0.5*5</f>
+        <v>2.5</v>
+      </c>
       <c r="O63" s="31">
-        <v>9</v>
+        <f>1*5</f>
+        <v>5</v>
       </c>
       <c r="P63" s="31"/>
       <c r="Q63" s="31"/>
@@ -4524,13 +4662,13 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1">
-      <c r="A64" s="56"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="58"/>
+      <c r="A64" s="66"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="56"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4538,7 +4676,7 @@
       <c r="I64" s="52"/>
       <c r="J64" s="52"/>
       <c r="K64" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L64" s="41"/>
@@ -4551,39 +4689,38 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1">
-      <c r="A65" s="55"/>
-      <c r="B65" s="57" t="s">
-        <v>32</v>
+      <c r="A65" s="65"/>
+      <c r="B65" s="67" t="s">
+        <v>28</v>
       </c>
       <c r="C65" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="61"/>
+      <c r="E65" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="63"/>
-      <c r="G65" s="65"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="55"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J65" s="8">
         <v>5</v>
       </c>
       <c r="K65" s="9">
-        <f t="shared" si="15"/>
-        <v>2.5</v>
+        <f t="shared" si="11"/>
+        <v>9</v>
       </c>
       <c r="L65" s="33"/>
       <c r="M65" s="31"/>
       <c r="N65" s="31"/>
       <c r="O65" s="31">
-        <f>0.5*5</f>
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="P65" s="31"/>
       <c r="Q65" s="31"/>
@@ -4591,13 +4728,13 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1">
-      <c r="A66" s="56"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="58"/>
+      <c r="A66" s="66"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="56"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4605,7 +4742,7 @@
       <c r="I66" s="52"/>
       <c r="J66" s="52"/>
       <c r="K66" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L66" s="41"/>
@@ -4618,48 +4755,63 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1">
-      <c r="A67" s="55">
-        <v>2</v>
-      </c>
-      <c r="B67" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="66"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="23" t="str">
+      <c r="A67" s="65"/>
+      <c r="B67" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="61"/>
+      <c r="E67" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="53"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
-        <v/>
-      </c>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="25"/>
+        <v>予定</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J67" s="8">
+        <v>5</v>
+      </c>
+      <c r="K67" s="9">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
       <c r="L67" s="33"/>
       <c r="M67" s="31"/>
       <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
+      <c r="O67" s="31">
+        <f>0.5*5</f>
+        <v>2.5</v>
+      </c>
       <c r="P67" s="31"/>
       <c r="Q67" s="31"/>
       <c r="R67" s="31"/>
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1">
-      <c r="A68" s="56"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="24" t="str">
+      <c r="A68" s="66"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="26"/>
+        <v>実績</v>
+      </c>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="L68" s="41"/>
       <c r="M68" s="32"/>
       <c r="N68" s="32"/>
@@ -4670,63 +4822,48 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1">
-      <c r="A69" s="55"/>
-      <c r="B69" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="60"/>
-      <c r="E69" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F69" s="63"/>
-      <c r="G69" s="65"/>
-      <c r="H69" s="8" t="str">
+      <c r="A69" s="65">
+        <v>2</v>
+      </c>
+      <c r="B69" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="60"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
-        <v>予定</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J69" s="8">
-        <v>5</v>
-      </c>
-      <c r="K69" s="9">
-        <f t="shared" ref="K69:K74" si="16">SUM(L69:S69)</f>
-        <v>2.5</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="25"/>
       <c r="L69" s="33"/>
       <c r="M69" s="31"/>
       <c r="N69" s="31"/>
       <c r="O69" s="31"/>
-      <c r="P69" s="31">
-        <f>0.5*5</f>
-        <v>2.5</v>
-      </c>
+      <c r="P69" s="31"/>
       <c r="Q69" s="31"/>
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1">
-      <c r="A70" s="56"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="52" t="str">
+      <c r="A70" s="66"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
-        <v>実績</v>
-      </c>
-      <c r="I70" s="52"/>
-      <c r="J70" s="52"/>
-      <c r="K70" s="10">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="26"/>
       <c r="L70" s="41"/>
       <c r="M70" s="32"/>
       <c r="N70" s="32"/>
@@ -4737,53 +4874,53 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1">
-      <c r="A71" s="55"/>
-      <c r="B71" s="57" t="s">
-        <v>27</v>
+      <c r="A71" s="65"/>
+      <c r="B71" s="67" t="s">
+        <v>25</v>
       </c>
       <c r="C71" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F71" s="63"/>
-      <c r="G71" s="65"/>
+        <v>30</v>
+      </c>
+      <c r="D71" s="61"/>
+      <c r="E71" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="53"/>
+      <c r="G71" s="55"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J71" s="8">
         <v>5</v>
       </c>
       <c r="K71" s="9">
-        <f t="shared" si="16"/>
-        <v>5</v>
+        <f t="shared" ref="K71:K76" si="12">SUM(L71:S71)</f>
+        <v>2.5</v>
       </c>
       <c r="L71" s="33"/>
       <c r="M71" s="31"/>
       <c r="N71" s="31"/>
       <c r="O71" s="31"/>
       <c r="P71" s="31">
-        <f>1*5</f>
-        <v>5</v>
+        <f>0.5*5</f>
+        <v>2.5</v>
       </c>
       <c r="Q71" s="31"/>
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1">
-      <c r="A72" s="56"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="58"/>
+      <c r="A72" s="66"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="56"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -4791,7 +4928,7 @@
       <c r="I72" s="52"/>
       <c r="J72" s="52"/>
       <c r="K72" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L72" s="41"/>
@@ -4804,53 +4941,53 @@
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1">
-      <c r="A73" s="55"/>
-      <c r="B73" s="57" t="s">
-        <v>32</v>
+      <c r="A73" s="65"/>
+      <c r="B73" s="67" t="s">
+        <v>28</v>
       </c>
       <c r="C73" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F73" s="63"/>
-      <c r="G73" s="65"/>
+        <v>45</v>
+      </c>
+      <c r="D73" s="61"/>
+      <c r="E73" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" s="53"/>
+      <c r="G73" s="55"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J73" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K73" s="9">
-        <f t="shared" si="16"/>
-        <v>0.5</v>
+        <f t="shared" si="12"/>
+        <v>5</v>
       </c>
       <c r="L73" s="33"/>
       <c r="M73" s="31"/>
       <c r="N73" s="31"/>
       <c r="O73" s="31"/>
       <c r="P73" s="31">
-        <f>0.5*1</f>
-        <v>0.5</v>
+        <f>1*5</f>
+        <v>5</v>
       </c>
       <c r="Q73" s="31"/>
       <c r="R73" s="31"/>
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1">
-      <c r="A74" s="56"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="58"/>
+      <c r="A74" s="66"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="56"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4858,233 +4995,230 @@
       <c r="I74" s="52"/>
       <c r="J74" s="52"/>
       <c r="K74" s="10">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L74" s="43"/>
-      <c r="M74" s="44"/>
-      <c r="N74" s="44"/>
-      <c r="O74" s="44"/>
-      <c r="P74" s="44"/>
-      <c r="Q74" s="44"/>
-      <c r="R74" s="44"/>
-      <c r="S74" s="44"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="41"/>
+      <c r="M74" s="32"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="32"/>
+      <c r="P74" s="32"/>
+      <c r="Q74" s="32"/>
+      <c r="R74" s="32"/>
+      <c r="S74" s="32"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1">
-      <c r="A75" s="72" t="s">
+      <c r="A75" s="65"/>
+      <c r="B75" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="B75" s="73"/>
-      <c r="C75" s="73"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="20" t="s">
+      <c r="D75" s="61"/>
+      <c r="E75" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" s="53"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="8" t="str">
+        <f>IF(E75="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J75" s="8">
+        <v>1</v>
+      </c>
+      <c r="K75" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L75" s="33"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="31"/>
+      <c r="O75" s="31"/>
+      <c r="P75" s="31">
+        <f>0.5*1</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q75" s="31"/>
+      <c r="R75" s="31"/>
+      <c r="S75" s="31"/>
+    </row>
+    <row r="76" spans="1:19" ht="12" customHeight="1">
+      <c r="A76" s="66"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="52" t="str">
+        <f>IF(E75="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="43"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="O76" s="44"/>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="44"/>
+      <c r="R76" s="44"/>
+      <c r="S76" s="44"/>
+    </row>
+    <row r="77" spans="1:19" ht="12" customHeight="1">
+      <c r="A77" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" s="73"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="118"/>
+      <c r="H77" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="21">
-        <f>SUMPRODUCT((MOD(ROW(K$77:K$82),2)=1)*K$77:K$82)</f>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="21">
+        <f>SUMPRODUCT((MOD(ROW(K$79:K$84),2)=1)*K$79:K$84)</f>
         <v>20</v>
       </c>
-      <c r="L75" s="35">
-        <f t="shared" ref="L75:P75" si="17">SUMPRODUCT((MOD(ROW(L$77:L$82),2)=1)*L$77:L$82)</f>
-        <v>0</v>
-      </c>
-      <c r="M75" s="35">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N75" s="35">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O75" s="35">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="P75" s="35">
-        <f t="shared" si="17"/>
+      <c r="L77" s="35">
+        <f t="shared" ref="L77:P77" si="13">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
+        <v>0</v>
+      </c>
+      <c r="M77" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="35">
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="Q75" s="35">
-        <f>SUMPRODUCT((MOD(ROW(Q$77:Q$82),2)=1)*Q$77:Q$82)</f>
+      <c r="Q77" s="35">
+        <f>SUMPRODUCT((MOD(ROW(Q$79:Q$84),2)=1)*Q$79:Q$84)</f>
         <v>15</v>
       </c>
-      <c r="R75" s="35">
-        <f t="shared" ref="R75:S75" si="18">SUMPRODUCT((MOD(ROW(R$77:R$82),2)=1)*R$77:R$82)</f>
-        <v>0</v>
-      </c>
-      <c r="S75" s="35">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="12" customHeight="1">
-      <c r="A76" s="75"/>
-      <c r="B76" s="76"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="7" t="s">
+      <c r="R77" s="35">
+        <f t="shared" ref="R77:S77" si="14">SUMPRODUCT((MOD(ROW(R$79:R$84),2)=1)*R$79:R$84)</f>
+        <v>0</v>
+      </c>
+      <c r="S77" s="35">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="12" customHeight="1">
+      <c r="A78" s="75"/>
+      <c r="B78" s="76"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="119"/>
+      <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="15">
-        <f>SUMPRODUCT((MOD(ROW(K$77:K$82),2)=0)*K$77:K$82)</f>
-        <v>0</v>
-      </c>
-      <c r="L76" s="36">
-        <f t="shared" ref="L76:S76" si="19">SUMPRODUCT((MOD(ROW(L$77:L$82),2)=0)*L$77:L$82)</f>
-        <v>0</v>
-      </c>
-      <c r="M76" s="36">
-        <f>SUMPRODUCT((MOD(ROW(M$77:M$82),2)=0)*M$77:M$82)</f>
-        <v>0</v>
-      </c>
-      <c r="N76" s="36">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O76" s="36">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P76" s="36">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q76" s="36">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R76" s="36">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S76" s="36">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="12" customHeight="1">
-      <c r="A77" s="55">
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="15">
+        <f>SUMPRODUCT((MOD(ROW(K$79:K$84),2)=0)*K$79:K$84)</f>
+        <v>0</v>
+      </c>
+      <c r="L78" s="36">
+        <f t="shared" ref="L78:S78" si="15">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="36">
+        <f>SUMPRODUCT((MOD(ROW(M$79:M$84),2)=0)*M$79:M$84)</f>
+        <v>0</v>
+      </c>
+      <c r="N78" s="36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O78" s="36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P78" s="36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R78" s="36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S78" s="36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="12" customHeight="1">
+      <c r="A79" s="65">
         <v>1</v>
       </c>
-      <c r="B77" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77" s="66"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="68"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="23" t="str">
-        <f>IF(E77="","","予定")</f>
+      <c r="B79" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="60"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="68"/>
+      <c r="H79" s="23" t="str">
+        <f>IF(E79="","","予定")</f>
         <v/>
       </c>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="33"/>
-      <c r="M77" s="31"/>
-      <c r="N77" s="31"/>
-      <c r="O77" s="31"/>
-      <c r="P77" s="31"/>
-      <c r="Q77" s="31"/>
-      <c r="R77" s="31"/>
-      <c r="S77" s="31"/>
-    </row>
-    <row r="78" spans="1:19" ht="12" customHeight="1">
-      <c r="A78" s="56"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="67"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="69"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="24" t="str">
-        <f>IF(E77="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="32"/>
-      <c r="N78" s="32"/>
-      <c r="O78" s="32"/>
-      <c r="P78" s="32"/>
-      <c r="Q78" s="32"/>
-      <c r="R78" s="32"/>
-      <c r="S78" s="32"/>
-    </row>
-    <row r="79" spans="1:19" ht="12" customHeight="1">
-      <c r="A79" s="55"/>
-      <c r="B79" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C79" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D79" s="60"/>
-      <c r="E79" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F79" s="63"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="8" t="str">
-        <f>IF(E79="","","予定")</f>
-        <v>予定</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J79" s="8">
-        <v>5</v>
-      </c>
-      <c r="K79" s="9">
-        <f t="shared" ref="K79:K82" si="20">SUM(L79:S79)</f>
-        <v>15</v>
-      </c>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="25"/>
       <c r="L79" s="33"/>
       <c r="M79" s="31"/>
       <c r="N79" s="31"/>
       <c r="O79" s="31"/>
-      <c r="P79" s="31">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="Q79" s="31">
-        <f>2*5</f>
-        <v>10</v>
-      </c>
+      <c r="P79" s="31"/>
+      <c r="Q79" s="31"/>
       <c r="R79" s="31"/>
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1">
-      <c r="A80" s="56"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="61"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="58"/>
-      <c r="H80" s="52" t="str">
+      <c r="A80" s="66"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
-        <v>実績</v>
-      </c>
-      <c r="I80" s="52"/>
-      <c r="J80" s="52"/>
-      <c r="K80" s="10">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="26"/>
       <c r="L80" s="41"/>
       <c r="M80" s="32"/>
       <c r="N80" s="32"/>
@@ -5095,53 +5229,56 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1">
-      <c r="A81" s="55"/>
-      <c r="B81" s="57" t="s">
-        <v>27</v>
+      <c r="A81" s="65"/>
+      <c r="B81" s="67" t="s">
+        <v>25</v>
       </c>
       <c r="C81" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D81" s="60"/>
-      <c r="E81" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="61"/>
+      <c r="E81" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="63"/>
-      <c r="G81" s="65"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="55"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J81" s="8">
         <v>5</v>
       </c>
       <c r="K81" s="9">
-        <f t="shared" si="20"/>
-        <v>5</v>
+        <f t="shared" ref="K81:K84" si="16">SUM(L81:S81)</f>
+        <v>15</v>
       </c>
       <c r="L81" s="33"/>
       <c r="M81" s="31"/>
       <c r="N81" s="31"/>
       <c r="O81" s="31"/>
-      <c r="P81" s="31"/>
-      <c r="Q81" s="31">
+      <c r="P81" s="31">
         <f>1*5</f>
         <v>5</v>
       </c>
+      <c r="Q81" s="31">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
       <c r="R81" s="31"/>
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1">
-      <c r="A82" s="56"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="58"/>
+      <c r="A82" s="66"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="56"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5149,7 +5286,7 @@
       <c r="I82" s="52"/>
       <c r="J82" s="52"/>
       <c r="K82" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L82" s="41"/>
@@ -5162,217 +5299,217 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1">
-      <c r="A83" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="B83" s="73"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="78"/>
-      <c r="F83" s="78"/>
-      <c r="G83" s="70"/>
-      <c r="H83" s="20" t="s">
+      <c r="A83" s="65"/>
+      <c r="B83" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="61"/>
+      <c r="E83" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="53"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="8" t="str">
+        <f>IF(E83="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J83" s="8">
+        <v>5</v>
+      </c>
+      <c r="K83" s="9">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="L83" s="33"/>
+      <c r="M83" s="31"/>
+      <c r="N83" s="31"/>
+      <c r="O83" s="31"/>
+      <c r="P83" s="31"/>
+      <c r="Q83" s="31">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="R83" s="31"/>
+      <c r="S83" s="31"/>
+    </row>
+    <row r="84" spans="1:19" ht="12" customHeight="1">
+      <c r="A84" s="66"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="52" t="str">
+        <f>IF(E83="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I84" s="52"/>
+      <c r="J84" s="52"/>
+      <c r="K84" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="41"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="32"/>
+      <c r="O84" s="32"/>
+      <c r="P84" s="32"/>
+      <c r="Q84" s="32"/>
+      <c r="R84" s="32"/>
+      <c r="S84" s="32"/>
+    </row>
+    <row r="85" spans="1:19" ht="12" customHeight="1">
+      <c r="A85" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="73"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="74"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="118"/>
+      <c r="H85" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="21">
-        <f t="shared" ref="K83:S83" si="21">SUMPRODUCT((MOD(ROW(K$85:K$94),2)=1)*K$85:K$94)</f>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="21">
+        <f t="shared" ref="K85:S85" si="17">SUMPRODUCT((MOD(ROW(K$87:K$96),2)=1)*K$87:K$96)</f>
         <v>5.5</v>
       </c>
-      <c r="L83" s="35">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M83" s="35">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N83" s="35">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O83" s="35">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P83" s="35">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Q83" s="35">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R83" s="35">
-        <f t="shared" si="21"/>
+      <c r="L85" s="35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R85" s="35">
+        <f t="shared" si="17"/>
         <v>5.5</v>
       </c>
-      <c r="S83" s="35">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="12" customHeight="1">
-      <c r="A84" s="75"/>
-      <c r="B84" s="76"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="7" t="s">
+      <c r="S85" s="35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="12" customHeight="1">
+      <c r="A86" s="75"/>
+      <c r="B86" s="76"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="119"/>
+      <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="15">
-        <f t="shared" ref="K84:S84" si="22">SUMPRODUCT((MOD(ROW(K$85:K$94),2)=0)*K$85:K$94)</f>
-        <v>0</v>
-      </c>
-      <c r="L84" s="37">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M84" s="36">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="N84" s="36">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O84" s="36">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P84" s="36">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q84" s="36">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="R84" s="36">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="S84" s="36">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="12" customHeight="1">
-      <c r="A85" s="55">
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="15">
+        <f t="shared" ref="K86:S86" si="18">SUMPRODUCT((MOD(ROW(K$87:K$96),2)=0)*K$87:K$96)</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O86" s="36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P86" s="36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R86" s="36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S86" s="36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="12" customHeight="1">
+      <c r="A87" s="65">
         <v>1</v>
       </c>
-      <c r="B85" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85" s="66"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="23" t="str">
-        <f>IF(E85="","","予定")</f>
+      <c r="B87" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="60"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="68"/>
+      <c r="H87" s="23" t="str">
+        <f>IF(E87="","","予定")</f>
         <v/>
       </c>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="33"/>
-      <c r="M85" s="31"/>
-      <c r="N85" s="31"/>
-      <c r="O85" s="31"/>
-      <c r="P85" s="31"/>
-      <c r="Q85" s="31"/>
-      <c r="R85" s="31"/>
-      <c r="S85" s="31"/>
-    </row>
-    <row r="86" spans="1:19" ht="12" customHeight="1">
-      <c r="A86" s="56"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="67"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="69"/>
-      <c r="F86" s="69"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="24" t="str">
-        <f>IF(E85="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="26"/>
-      <c r="L86" s="41"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="32"/>
-      <c r="O86" s="32"/>
-      <c r="P86" s="32"/>
-      <c r="Q86" s="32"/>
-      <c r="R86" s="32"/>
-      <c r="S86" s="32"/>
-    </row>
-    <row r="87" spans="1:19" ht="12" customHeight="1">
-      <c r="A87" s="55"/>
-      <c r="B87" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C87" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="D87" s="60"/>
-      <c r="E87" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F87" s="63"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="8" t="str">
-        <f>IF(E87="","","予定")</f>
-        <v>予定</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J87" s="8">
-        <v>5</v>
-      </c>
-      <c r="K87" s="9">
-        <f>SUM(L87:S87)</f>
-        <v>2.5</v>
-      </c>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="25"/>
       <c r="L87" s="33"/>
       <c r="M87" s="31"/>
       <c r="N87" s="31"/>
       <c r="O87" s="31"/>
       <c r="P87" s="31"/>
       <c r="Q87" s="31"/>
-      <c r="R87" s="31">
-        <f>0.5*5</f>
-        <v>2.5</v>
-      </c>
+      <c r="R87" s="31"/>
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1">
-      <c r="A88" s="56"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="61"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="52" t="str">
+      <c r="A88" s="66"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
-        <v>実績</v>
-      </c>
-      <c r="I88" s="52"/>
-      <c r="J88" s="52"/>
-      <c r="K88" s="10">
-        <f>SUM(L88:S88)</f>
-        <v>0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="26"/>
       <c r="L88" s="41"/>
       <c r="M88" s="32"/>
       <c r="N88" s="32"/>
@@ -5383,48 +5520,63 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1">
-      <c r="A89" s="55">
-        <v>2</v>
-      </c>
-      <c r="B89" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" s="66"/>
-      <c r="D89" s="60"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="53"/>
-      <c r="H89" s="23" t="str">
+      <c r="A89" s="65"/>
+      <c r="B89" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89" s="61"/>
+      <c r="E89" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" s="53"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
-        <v/>
-      </c>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="25"/>
+        <v>予定</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J89" s="8">
+        <v>5</v>
+      </c>
+      <c r="K89" s="9">
+        <f>SUM(L89:S89)</f>
+        <v>2.5</v>
+      </c>
       <c r="L89" s="33"/>
       <c r="M89" s="31"/>
       <c r="N89" s="31"/>
       <c r="O89" s="31"/>
       <c r="P89" s="31"/>
       <c r="Q89" s="31"/>
-      <c r="R89" s="31"/>
+      <c r="R89" s="31">
+        <f>0.5*5</f>
+        <v>2.5</v>
+      </c>
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1">
-      <c r="A90" s="56"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="54"/>
-      <c r="H90" s="24" t="str">
+      <c r="A90" s="66"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24"/>
-      <c r="K90" s="26"/>
+        <v>実績</v>
+      </c>
+      <c r="I90" s="52"/>
+      <c r="J90" s="52"/>
+      <c r="K90" s="10">
+        <f>SUM(L90:S90)</f>
+        <v>0</v>
+      </c>
       <c r="L90" s="41"/>
       <c r="M90" s="32"/>
       <c r="N90" s="32"/>
@@ -5435,63 +5587,48 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1">
-      <c r="A91" s="55"/>
-      <c r="B91" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C91" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="D91" s="60"/>
-      <c r="E91" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F91" s="63"/>
-      <c r="G91" s="65"/>
-      <c r="H91" s="8" t="str">
+      <c r="A91" s="65">
+        <v>2</v>
+      </c>
+      <c r="B91" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" s="60"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="68"/>
+      <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
-        <v>予定</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J91" s="8">
-        <v>5</v>
-      </c>
-      <c r="K91" s="9">
-        <f t="shared" ref="K91:K94" si="23">SUM(L91:S91)</f>
-        <v>2.5</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="25"/>
       <c r="L91" s="33"/>
       <c r="M91" s="31"/>
       <c r="N91" s="31"/>
       <c r="O91" s="31"/>
       <c r="P91" s="31"/>
       <c r="Q91" s="31"/>
-      <c r="R91" s="31">
-        <f>0.5*5</f>
-        <v>2.5</v>
-      </c>
+      <c r="R91" s="31"/>
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1">
-      <c r="A92" s="56"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="52" t="str">
+      <c r="A92" s="66"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
-        <v>実績</v>
-      </c>
-      <c r="I92" s="52"/>
-      <c r="J92" s="52"/>
-      <c r="K92" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="26"/>
       <c r="L92" s="41"/>
       <c r="M92" s="32"/>
       <c r="N92" s="32"/>
@@ -5502,32 +5639,32 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1">
-      <c r="A93" s="55"/>
-      <c r="B93" s="57" t="s">
-        <v>27</v>
+      <c r="A93" s="65"/>
+      <c r="B93" s="67" t="s">
+        <v>25</v>
       </c>
       <c r="C93" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D93" s="60"/>
-      <c r="E93" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F93" s="63"/>
-      <c r="G93" s="65"/>
+        <v>30</v>
+      </c>
+      <c r="D93" s="61"/>
+      <c r="E93" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F93" s="53"/>
+      <c r="G93" s="55"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="J93" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K93" s="9">
-        <f t="shared" si="23"/>
-        <v>0.5</v>
+        <f t="shared" ref="K93:K96" si="19">SUM(L93:S93)</f>
+        <v>2.5</v>
       </c>
       <c r="L93" s="33"/>
       <c r="M93" s="31"/>
@@ -5536,18 +5673,19 @@
       <c r="P93" s="31"/>
       <c r="Q93" s="31"/>
       <c r="R93" s="31">
-        <v>0.5</v>
+        <f>0.5*5</f>
+        <v>2.5</v>
       </c>
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1">
-      <c r="A94" s="56"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="58"/>
+      <c r="A94" s="66"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="54"/>
+      <c r="G94" s="56"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -5555,230 +5693,229 @@
       <c r="I94" s="52"/>
       <c r="J94" s="52"/>
       <c r="K94" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="L94" s="43"/>
-      <c r="M94" s="44"/>
-      <c r="N94" s="44"/>
-      <c r="O94" s="44"/>
-      <c r="P94" s="44"/>
-      <c r="Q94" s="44"/>
-      <c r="R94" s="44"/>
-      <c r="S94" s="44"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L94" s="41"/>
+      <c r="M94" s="32"/>
+      <c r="N94" s="32"/>
+      <c r="O94" s="32"/>
+      <c r="P94" s="32"/>
+      <c r="Q94" s="32"/>
+      <c r="R94" s="32"/>
+      <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1">
-      <c r="A95" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="B95" s="73"/>
-      <c r="C95" s="73"/>
-      <c r="D95" s="74"/>
-      <c r="E95" s="78"/>
-      <c r="F95" s="78"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="20" t="s">
+      <c r="A95" s="65"/>
+      <c r="B95" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" s="61"/>
+      <c r="E95" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" s="53"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="8" t="str">
+        <f>IF(E95="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J95" s="8">
+        <v>1</v>
+      </c>
+      <c r="K95" s="9">
+        <f t="shared" si="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="L95" s="33"/>
+      <c r="M95" s="31"/>
+      <c r="N95" s="31"/>
+      <c r="O95" s="31"/>
+      <c r="P95" s="31"/>
+      <c r="Q95" s="31"/>
+      <c r="R95" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="S95" s="31"/>
+    </row>
+    <row r="96" spans="1:19" ht="12" customHeight="1">
+      <c r="A96" s="66"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="54"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="52" t="str">
+        <f>IF(E95="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I96" s="52"/>
+      <c r="J96" s="52"/>
+      <c r="K96" s="10">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L96" s="43"/>
+      <c r="M96" s="44"/>
+      <c r="N96" s="44"/>
+      <c r="O96" s="44"/>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="44"/>
+      <c r="S96" s="44"/>
+    </row>
+    <row r="97" spans="1:19" ht="12" customHeight="1">
+      <c r="A97" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B97" s="73"/>
+      <c r="C97" s="73"/>
+      <c r="D97" s="74"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="118"/>
+      <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="21">
-        <f>SUMPRODUCT((MOD(ROW(K$97:K$108),2)=1)*K$97:K$108)</f>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="21">
+        <f>SUMPRODUCT((MOD(ROW(K$99:K$110),2)=1)*K$99:K$110)</f>
         <v>7</v>
       </c>
-      <c r="L95" s="35">
-        <f t="shared" ref="L95:R95" si="24">SUMPRODUCT((MOD(ROW(L$97:L$108),2)=1)*L$97:L$108)</f>
-        <v>0</v>
-      </c>
-      <c r="M95" s="35">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N95" s="35">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O95" s="35">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="P95" s="35">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q95" s="35">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R95" s="35">
-        <f t="shared" si="24"/>
+      <c r="L97" s="35">
+        <f t="shared" ref="L97:R97" si="20">SUMPRODUCT((MOD(ROW(L$99:L$110),2)=1)*L$99:L$110)</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="35">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N97" s="35">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O97" s="35">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="35">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q97" s="35">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R97" s="35">
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="S95" s="35">
-        <f>SUMPRODUCT((MOD(ROW(S$97:S$108),2)=1)*S$97:S$108)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="12" customHeight="1">
-      <c r="A96" s="75"/>
-      <c r="B96" s="76"/>
-      <c r="C96" s="76"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="79"/>
-      <c r="F96" s="79"/>
-      <c r="G96" s="71"/>
-      <c r="H96" s="7" t="s">
+      <c r="S97" s="35">
+        <f>SUMPRODUCT((MOD(ROW(S$99:S$110),2)=1)*S$99:S$110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="12" customHeight="1">
+      <c r="A98" s="75"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="119"/>
+      <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="15">
-        <f>SUMPRODUCT((MOD(ROW(K$97:K$108),2)=0)*K$97:K$108)</f>
-        <v>0</v>
-      </c>
-      <c r="L96" s="37">
-        <f>SUMPRODUCT((MOD(ROW(L$97:L$108),2)=0)*L$97:L$108)</f>
-        <v>0</v>
-      </c>
-      <c r="M96" s="37">
-        <f t="shared" ref="M96:S96" si="25">SUMPRODUCT((MOD(ROW(M$97:M$108),2)=0)*M$97:M$108)</f>
-        <v>0</v>
-      </c>
-      <c r="N96" s="37">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="O96" s="37">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="P96" s="37">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Q96" s="37">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R96" s="37">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="S96" s="37">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" ht="12" customHeight="1">
-      <c r="A97" s="55">
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="15">
+        <f>SUMPRODUCT((MOD(ROW(K$99:K$110),2)=0)*K$99:K$110)</f>
+        <v>0</v>
+      </c>
+      <c r="L98" s="37">
+        <f>SUMPRODUCT((MOD(ROW(L$99:L$110),2)=0)*L$99:L$110)</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="37">
+        <f t="shared" ref="M98:S98" si="21">SUMPRODUCT((MOD(ROW(M$99:M$110),2)=0)*M$99:M$110)</f>
+        <v>0</v>
+      </c>
+      <c r="N98" s="37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O98" s="37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="P98" s="37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q98" s="37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R98" s="37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S98" s="37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="12" customHeight="1">
+      <c r="A99" s="65">
         <v>1</v>
       </c>
-      <c r="B97" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="C97" s="66"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="68"/>
-      <c r="F97" s="68"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="23" t="str">
-        <f>IF(E97="","","予定")</f>
+      <c r="B99" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" s="60"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="68"/>
+      <c r="H99" s="23" t="str">
+        <f>IF(E99="","","予定")</f>
         <v/>
       </c>
-      <c r="I97" s="23"/>
-      <c r="J97" s="23"/>
-      <c r="K97" s="25"/>
-      <c r="L97" s="33"/>
-      <c r="M97" s="31"/>
-      <c r="N97" s="31"/>
-      <c r="O97" s="31"/>
-      <c r="P97" s="31"/>
-      <c r="Q97" s="31"/>
-      <c r="R97" s="31"/>
-      <c r="S97" s="31"/>
-    </row>
-    <row r="98" spans="1:19" ht="12" customHeight="1">
-      <c r="A98" s="56"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="67"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="54"/>
-      <c r="H98" s="24" t="str">
-        <f>IF(E97="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="26"/>
-      <c r="L98" s="41"/>
-      <c r="M98" s="32"/>
-      <c r="N98" s="32"/>
-      <c r="O98" s="32"/>
-      <c r="P98" s="32"/>
-      <c r="Q98" s="32"/>
-      <c r="R98" s="32"/>
-      <c r="S98" s="32"/>
-    </row>
-    <row r="99" spans="1:19" ht="12" customHeight="1">
-      <c r="A99" s="55"/>
-      <c r="B99" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C99" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="D99" s="60"/>
-      <c r="E99" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F99" s="63"/>
-      <c r="G99" s="65"/>
-      <c r="H99" s="8" t="str">
-        <f>IF(E99="","","予定")</f>
-        <v>予定</v>
-      </c>
-      <c r="I99" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J99" s="8">
-        <v>5</v>
-      </c>
-      <c r="K99" s="9">
-        <f>SUM(L99:S99)</f>
-        <v>2.5</v>
-      </c>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="25"/>
       <c r="L99" s="33"/>
       <c r="M99" s="31"/>
       <c r="N99" s="31"/>
       <c r="O99" s="31"/>
       <c r="P99" s="31"/>
       <c r="Q99" s="31"/>
-      <c r="R99" s="31">
-        <f>0.5*5</f>
-        <v>2.5</v>
-      </c>
+      <c r="R99" s="31"/>
       <c r="S99" s="31"/>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1">
-      <c r="A100" s="56"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="61"/>
-      <c r="D100" s="62"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="52" t="str">
+      <c r="A100" s="66"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
-        <v>実績</v>
-      </c>
-      <c r="I100" s="52"/>
-      <c r="J100" s="52"/>
-      <c r="K100" s="10">
-        <f>SUM(L100:S100)</f>
-        <v>0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="26"/>
       <c r="L100" s="41"/>
       <c r="M100" s="32"/>
       <c r="N100" s="32"/>
@@ -5789,32 +5926,32 @@
       <c r="S100" s="32"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1">
-      <c r="A101" s="55"/>
-      <c r="B101" s="57" t="s">
-        <v>27</v>
+      <c r="A101" s="65"/>
+      <c r="B101" s="67" t="s">
+        <v>25</v>
       </c>
       <c r="C101" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="D101" s="60"/>
-      <c r="E101" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101" s="61"/>
+      <c r="E101" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="63"/>
-      <c r="G101" s="65"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="55"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J101" s="8">
         <v>5</v>
       </c>
       <c r="K101" s="9">
         <f>SUM(L101:S101)</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L101" s="33"/>
       <c r="M101" s="31"/>
@@ -5823,19 +5960,19 @@
       <c r="P101" s="31"/>
       <c r="Q101" s="31"/>
       <c r="R101" s="31">
-        <f>0.5*3</f>
-        <v>1.5</v>
+        <f>0.5*5</f>
+        <v>2.5</v>
       </c>
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1">
-      <c r="A102" s="56"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="61"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="58"/>
+      <c r="A102" s="66"/>
+      <c r="B102" s="56"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="56"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -5856,48 +5993,63 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1">
-      <c r="A103" s="55">
-        <v>2</v>
-      </c>
-      <c r="B103" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C103" s="66"/>
-      <c r="D103" s="60"/>
-      <c r="E103" s="68"/>
-      <c r="F103" s="68"/>
-      <c r="G103" s="53"/>
-      <c r="H103" s="23" t="str">
+      <c r="A103" s="65"/>
+      <c r="B103" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D103" s="61"/>
+      <c r="E103" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" s="53"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
-        <v/>
-      </c>
-      <c r="I103" s="23"/>
-      <c r="J103" s="23"/>
-      <c r="K103" s="25"/>
+        <v>予定</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J103" s="8">
+        <v>5</v>
+      </c>
+      <c r="K103" s="9">
+        <f>SUM(L103:S103)</f>
+        <v>1.5</v>
+      </c>
       <c r="L103" s="33"/>
       <c r="M103" s="31"/>
       <c r="N103" s="31"/>
       <c r="O103" s="31"/>
       <c r="P103" s="31"/>
       <c r="Q103" s="31"/>
-      <c r="R103" s="31"/>
+      <c r="R103" s="31">
+        <f>0.5*3</f>
+        <v>1.5</v>
+      </c>
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1">
-      <c r="A104" s="56"/>
-      <c r="B104" s="61"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="69"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="24" t="str">
+      <c r="A104" s="66"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="64"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
-        <v/>
-      </c>
-      <c r="I104" s="24"/>
-      <c r="J104" s="24"/>
-      <c r="K104" s="26"/>
+        <v>実績</v>
+      </c>
+      <c r="I104" s="52"/>
+      <c r="J104" s="52"/>
+      <c r="K104" s="10">
+        <f>SUM(L104:S104)</f>
+        <v>0</v>
+      </c>
       <c r="L104" s="41"/>
       <c r="M104" s="32"/>
       <c r="N104" s="32"/>
@@ -5908,63 +6060,48 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1">
-      <c r="A105" s="55"/>
-      <c r="B105" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C105" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="D105" s="60"/>
-      <c r="E105" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F105" s="63"/>
-      <c r="G105" s="65"/>
-      <c r="H105" s="8" t="str">
+      <c r="A105" s="65">
+        <v>2</v>
+      </c>
+      <c r="B105" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105" s="60"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="57"/>
+      <c r="G105" s="68"/>
+      <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
-        <v>予定</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J105" s="8">
-        <v>5</v>
-      </c>
-      <c r="K105" s="9">
-        <f t="shared" ref="K105:K108" si="26">SUM(L105:S105)</f>
-        <v>2.5</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I105" s="23"/>
+      <c r="J105" s="23"/>
+      <c r="K105" s="25"/>
       <c r="L105" s="33"/>
       <c r="M105" s="31"/>
       <c r="N105" s="31"/>
       <c r="O105" s="31"/>
       <c r="P105" s="31"/>
       <c r="Q105" s="31"/>
-      <c r="R105" s="31">
-        <f>0.5*5</f>
-        <v>2.5</v>
-      </c>
+      <c r="R105" s="31"/>
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1">
-      <c r="A106" s="56"/>
-      <c r="B106" s="58"/>
-      <c r="C106" s="61"/>
-      <c r="D106" s="62"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="58"/>
-      <c r="H106" s="52" t="str">
+      <c r="A106" s="66"/>
+      <c r="B106" s="62"/>
+      <c r="C106" s="63"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="58"/>
+      <c r="G106" s="69"/>
+      <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
-        <v>実績</v>
-      </c>
-      <c r="I106" s="52"/>
-      <c r="J106" s="52"/>
-      <c r="K106" s="10">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="26"/>
       <c r="L106" s="41"/>
       <c r="M106" s="32"/>
       <c r="N106" s="32"/>
@@ -5975,32 +6112,32 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1">
-      <c r="A107" s="55"/>
-      <c r="B107" s="57" t="s">
-        <v>27</v>
+      <c r="A107" s="65"/>
+      <c r="B107" s="67" t="s">
+        <v>25</v>
       </c>
       <c r="C107" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D107" s="60"/>
-      <c r="E107" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F107" s="63"/>
-      <c r="G107" s="65"/>
+        <v>30</v>
+      </c>
+      <c r="D107" s="61"/>
+      <c r="E107" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F107" s="53"/>
+      <c r="G107" s="55"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="J107" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K107" s="9">
-        <f t="shared" si="26"/>
-        <v>0.5</v>
+        <f t="shared" ref="K107:K110" si="22">SUM(L107:S107)</f>
+        <v>2.5</v>
       </c>
       <c r="L107" s="33"/>
       <c r="M107" s="31"/>
@@ -6009,19 +6146,19 @@
       <c r="P107" s="31"/>
       <c r="Q107" s="31"/>
       <c r="R107" s="31">
-        <f>0.5*1</f>
-        <v>0.5</v>
+        <f>0.5*5</f>
+        <v>2.5</v>
       </c>
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1">
-      <c r="A108" s="56"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="61"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="64"/>
-      <c r="F108" s="64"/>
-      <c r="G108" s="58"/>
+      <c r="A108" s="66"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="54"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="56"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6029,7 +6166,7 @@
       <c r="I108" s="52"/>
       <c r="J108" s="52"/>
       <c r="K108" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L108" s="41"/>
@@ -6041,111 +6178,313 @@
       <c r="R108" s="32"/>
       <c r="S108" s="32"/>
     </row>
-    <row r="109" spans="1:19" ht="10.5">
-      <c r="L109" s="39"/>
-      <c r="M109" s="39"/>
-      <c r="N109" s="39"/>
-      <c r="O109" s="39"/>
-      <c r="Q109" s="39"/>
-      <c r="R109" s="39"/>
-      <c r="S109" s="39"/>
-    </row>
-    <row r="110" spans="1:19" ht="10.5"/>
-    <row r="111" spans="1:19" ht="10.5"/>
+    <row r="109" spans="1:19" ht="12" customHeight="1">
+      <c r="A109" s="65"/>
+      <c r="B109" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D109" s="61"/>
+      <c r="E109" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109" s="53"/>
+      <c r="G109" s="55"/>
+      <c r="H109" s="8" t="str">
+        <f>IF(E109="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J109" s="8">
+        <v>1</v>
+      </c>
+      <c r="K109" s="9">
+        <f t="shared" si="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="L109" s="33"/>
+      <c r="M109" s="31"/>
+      <c r="N109" s="31"/>
+      <c r="O109" s="31"/>
+      <c r="P109" s="31"/>
+      <c r="Q109" s="31"/>
+      <c r="R109" s="31">
+        <f>0.5*1</f>
+        <v>0.5</v>
+      </c>
+      <c r="S109" s="31"/>
+    </row>
+    <row r="110" spans="1:19" ht="12" customHeight="1">
+      <c r="A110" s="66"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="54"/>
+      <c r="F110" s="54"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="52" t="str">
+        <f>IF(E109="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I110" s="52"/>
+      <c r="J110" s="52"/>
+      <c r="K110" s="10">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L110" s="41"/>
+      <c r="M110" s="32"/>
+      <c r="N110" s="32"/>
+      <c r="O110" s="32"/>
+      <c r="P110" s="32"/>
+      <c r="Q110" s="32"/>
+      <c r="R110" s="32"/>
+      <c r="S110" s="32"/>
+    </row>
+    <row r="111" spans="1:19" ht="10.5">
+      <c r="L111" s="39"/>
+      <c r="M111" s="39"/>
+      <c r="N111" s="39"/>
+      <c r="O111" s="39"/>
+      <c r="Q111" s="39"/>
+      <c r="R111" s="39"/>
+      <c r="S111" s="39"/>
+    </row>
     <row r="112" spans="1:19" ht="10.5"/>
+    <row r="113" ht="10.5"/>
+    <row r="114" ht="10.5"/>
+    <row r="115" ht="10.5"/>
   </sheetData>
-  <autoFilter ref="A2:K108" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A2:K110" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <mergeCells count="303">
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
+  <mergeCells count="309">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:D40"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
     <mergeCell ref="E57:E58"/>
     <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
     <mergeCell ref="F51:F52"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B25:D26"/>
     <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="A95:D96"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="L2:M2"/>
@@ -6158,296 +6497,176 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C31:D32"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B97:D98"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
     <mergeCell ref="F99:F100"/>
     <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="B43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
     <mergeCell ref="A81:A82"/>
     <mergeCell ref="B81:B82"/>
     <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
     <mergeCell ref="E83:E84"/>
     <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="A97:D98"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L9:S18 L97:S108 L25:S26 M27:S27 L28:S34 L85:S94">
-    <cfRule type="expression" dxfId="17" priority="27" stopIfTrue="1">
+  <conditionalFormatting sqref="L9:S18 L99:S110 L25:S26 M29:S29 L30:S36 L87:S96">
+    <cfRule type="expression" dxfId="19" priority="29" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="30" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43:S56">
-    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L43), L43&gt;0)</formula>
+  <conditionalFormatting sqref="L45:S58">
+    <cfRule type="expression" dxfId="17" priority="27" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L43), L43&gt;0)</formula>
+    <cfRule type="expression" dxfId="16" priority="28" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:S20">
-    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L59:S62 L65:S74">
+  <conditionalFormatting sqref="L61:S64 L67:S76">
+    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L61), L61&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L61), L61&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L79:S84">
     <cfRule type="expression" dxfId="11" priority="21" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L59), L59&gt;0)</formula>
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L79), L79&gt;0)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="22" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L59), L59&gt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L77:S82">
-    <cfRule type="expression" dxfId="9" priority="19" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L77), L77&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="20" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L77), L77&gt;0)</formula>
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L79), L79&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:S22">
-    <cfRule type="expression" dxfId="7" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="17" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L21), L21&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="18" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L21), L21&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L35:S36 L39:S40">
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L35), L35&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L35), L35&gt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L37:S38">
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="L37:S38 L41:S42">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L37), L37&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L37), L37&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L63:S64">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L63), L63&gt;0)</formula>
+  <conditionalFormatting sqref="L39:S40">
+    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L39), L39&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L63), L63&gt;0)</formula>
+    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L39), L39&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L65:S66">
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L65), L65&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L65), L65&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:S28">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L27), L27&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L27), L27&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E109:E65590" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E111:E65592" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"新規作成,更新"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F97:F108 F9:F22 F43:F56 F35:F40 F59:F74 F77:F82 F25:F33 F85:F94" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F99:F110 F9:F22 F45:F58 F37:F42 F61:F76 F79:F84 F87:F96 F25:F35" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"着手,完了"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E33 E15 E9 E23:E25 E95:E97 E103 E41:E43 E49 E57:E59 E67 E75:E77 E83:E85 E89" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E35 E15 E9 E23:E25 E97:E99 E105 E43:E45 E51 E59:E61 E69 E77:E79 E85:E87 E91" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"新規作成,更新,レビュー参加"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E99:E102 E17:E22 E105:E108 E11:E14 E45:E48 E51:E56 E35:E40 E69:E74 E61:E66 E87:E88 E79:E82 E91:E94 E27:E32" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E101:E104 E17:E22 E107:E110 E11:E14 E47:E50 E53:E58 E37:E42 E71:E76 E63:E68 E89:E90 E81:E84 E93:E96 E27:E34" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"新規作成,更新,レビュー参加,その他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6460,9 +6679,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6650,19 +6872,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6686,9 +6904,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/00_management/WBSガントチャート_バナナ11.xlsx
+++ b/00_management/WBSガントチャート_バナナ11.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="218" documentId="11_06AD8BA54B8FBE2912825DFF753FE6726EDB0332" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6D5201D1-8B7D-42D4-93CC-CD4A0B1108D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7190044-8B7F-42B1-8D4C-7E63B35B60D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="8475" windowHeight="4710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="反復1" sheetId="1" r:id="rId1"/>
@@ -54,14 +54,12 @@
     <definedName name="Z_EDE81CA1_484F_45F9_B8CA_0958EC6CFEE2_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
     <definedName name="Z_F55870F9_E82A_4267_AED3_94CF07AEF80F_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$110</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -539,7 +537,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1496,6 +1494,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1505,7 +1575,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1514,61 +1611,100 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1600,144 +1736,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2358,16 +2356,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S115"/>
+  <dimension ref="A1:S111"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33:B34"/>
+      <selection pane="bottomRight" activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="2.75" style="12" customWidth="1"/>
     <col min="3" max="3" width="2.25" style="12" customWidth="1"/>
@@ -2382,121 +2380,121 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="98" t="s">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="88" t="s">
+      <c r="K1" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="78">
+      <c r="L1" s="124">
         <v>43984</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="78">
+      <c r="M1" s="125"/>
+      <c r="N1" s="124">
         <v>43985</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="78">
+      <c r="O1" s="125"/>
+      <c r="P1" s="124">
         <v>43986</v>
       </c>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="78">
+      <c r="Q1" s="125"/>
+      <c r="R1" s="124">
         <v>43987</v>
       </c>
-      <c r="S1" s="79"/>
-    </row>
-    <row r="2" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="82" t="s">
+      <c r="S1" s="125"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="80" t="s">
+      <c r="M2" s="127"/>
+      <c r="N2" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="83" t="s">
+      <c r="O2" s="126"/>
+      <c r="P2" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="80" t="s">
+      <c r="Q2" s="127"/>
+      <c r="R2" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="81"/>
-    </row>
-    <row r="3" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A3" s="102"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="86" t="s">
+      <c r="S2" s="127"/>
+    </row>
+    <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="84" t="s">
+      <c r="M3" s="131"/>
+      <c r="N3" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="84" t="s">
+      <c r="O3" s="131"/>
+      <c r="P3" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="87" t="s">
+      <c r="Q3" s="131"/>
+      <c r="R3" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="87"/>
-    </row>
-    <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="103"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="90"/>
+      <c r="S3" s="133"/>
+    </row>
+    <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="121"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2522,118 +2520,118 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1">
-      <c r="A5" s="104" t="s">
+    <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="94"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="122"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="45">
-        <f>SUM(K7,K23,K43,K59,K77,K85,K97)</f>
-        <v>103</v>
+        <f t="shared" ref="K5:S5" si="0">SUM(K7,K23,K43,K59,K77,K85,K97)</f>
+        <v>104.5</v>
       </c>
       <c r="L5" s="27">
-        <f>SUM(L7,L23,L43,L59,L77,L85,L97)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="M5" s="27">
-        <f>SUM(M7,M23,M43,M59,M77,M85,M97)</f>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="N5" s="27">
-        <f>SUM(N7,N23,N43,N59,N77,N85,N97)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>13.5</v>
       </c>
       <c r="O5" s="27">
-        <f>SUM(O7,O23,O43,O59,O77,O85,O97)</f>
+        <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
       <c r="P5" s="27">
-        <f>SUM(P7,P23,P43,P59,P77,P85,P97)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="Q5" s="27">
-        <f>SUM(Q7,Q23,Q43,Q59,Q77,Q85,Q97)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="R5" s="27">
-        <f>SUM(R7,R23,R43,R59,R77,R85,R97)</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="S5" s="27">
-        <f>SUM(S7,S23,S43,S59,S77,S85,S97)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="95"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="123"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="47">
-        <f>SUM(L8,L24,L44,L60,L78,L86)</f>
+        <f t="shared" ref="K6:S6" si="1">SUM(L8,L24,L44,L60,L78,L86)</f>
         <v>8.5</v>
       </c>
       <c r="L6" s="47">
-        <f>SUM(M8,M24,M44,M60,M78,M86)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="M6" s="47">
-        <f>SUM(N8,N24,N44,N60,N78,N86)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>33.75</v>
       </c>
       <c r="N6" s="47">
-        <f>SUM(O8,O24,O44,O60,O78,O86)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O6" s="47">
-        <f>SUM(P8,P24,P44,P60,P78,P86)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P6" s="47">
-        <f>SUM(Q8,Q24,Q44,Q60,Q78,Q86)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q6" s="47">
-        <f>SUM(R8,R24,R44,R60,R78,R86)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R6" s="47">
-        <f>SUM(S8,S24,S44,S60,S78,S86)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S6" s="47">
-        <f>SUM(T8,T24,T44,T60,T78,T86)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1">
-      <c r="A7" s="110" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="113"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2644,46 +2642,46 @@
         <v>14</v>
       </c>
       <c r="L7" s="40">
-        <f t="shared" ref="L7:S7" si="0">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=1)*L$9:L$22)</f>
+        <f t="shared" ref="L7:S7" si="2">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=1)*L$9:L$22)</f>
         <v>14</v>
       </c>
       <c r="M7" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N7" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O7" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P7" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q7" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R7" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S7" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="12" customHeight="1">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="114"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2694,54 +2692,54 @@
         <v>8.5</v>
       </c>
       <c r="L8" s="38">
-        <f t="shared" ref="L8:S8" si="1">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
+        <f t="shared" ref="L8:S8" si="3">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
         <v>8.5</v>
       </c>
       <c r="M8" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N8" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O8" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P8" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q8" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R8" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S8" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="12" customHeight="1">
-      <c r="A9" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="73">
         <v>1</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="57" t="s">
+      <c r="C9" s="88"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="68"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v>予定</v>
@@ -2758,14 +2756,14 @@
       <c r="R9" s="31"/>
       <c r="S9" s="31"/>
     </row>
-    <row r="10" spans="1:19" ht="12" customHeight="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="69"/>
+    <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="74"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="72"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v>実績</v>
@@ -2782,22 +2780,22 @@
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="12" customHeight="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="67" t="s">
+    <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="73"/>
+      <c r="B11" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="53" t="s">
+      <c r="D11" s="65"/>
+      <c r="E11" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="55"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="8">
         <v>0.5</v>
       </c>
@@ -2821,14 +2819,14 @@
       <c r="R11" s="31"/>
       <c r="S11" s="31"/>
     </row>
-    <row r="12" spans="1:19" ht="12" customHeight="1">
-      <c r="A12" s="66"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="56"/>
+    <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="74"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="52">
         <v>0.5</v>
       </c>
@@ -2852,22 +2850,22 @@
       <c r="R12" s="32"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="12" customHeight="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="67" t="s">
+    <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="73"/>
+      <c r="B13" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="53" t="s">
+      <c r="D13" s="65"/>
+      <c r="E13" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="55"/>
+      <c r="G13" s="79"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2893,14 +2891,14 @@
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
     </row>
-    <row r="14" spans="1:19" ht="12" customHeight="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="56"/>
+    <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="74"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="76"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2926,22 +2924,22 @@
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="12" customHeight="1">
-      <c r="A15" s="65">
+    <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="73">
         <v>2</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="57" t="s">
+      <c r="C15" s="88"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="68"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v>予定</v>
@@ -2958,14 +2956,14 @@
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
     </row>
-    <row r="16" spans="1:19" ht="12" customHeight="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="69"/>
+    <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="74"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="72"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v>実績</v>
@@ -2982,22 +2980,22 @@
       <c r="R16" s="32"/>
       <c r="S16" s="32"/>
     </row>
-    <row r="17" spans="1:19" ht="12" customHeight="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="67" t="s">
+    <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="73"/>
+      <c r="B17" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="53" t="s">
+      <c r="D17" s="65"/>
+      <c r="E17" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="55"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3009,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="K17" s="9">
-        <f t="shared" ref="K17:K22" si="2">SUM(L17:S17)</f>
+        <f t="shared" ref="K17:K22" si="4">SUM(L17:S17)</f>
         <v>2.5</v>
       </c>
       <c r="L17" s="30">
@@ -3024,14 +3022,14 @@
       <c r="R17" s="31"/>
       <c r="S17" s="31"/>
     </row>
-    <row r="18" spans="1:19" ht="12" customHeight="1">
-      <c r="A18" s="66"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="56"/>
+    <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="74"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="76"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3043,7 +3041,7 @@
         <v>5</v>
       </c>
       <c r="K18" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="L18" s="41">
@@ -3057,22 +3055,22 @@
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
     </row>
-    <row r="19" spans="1:19" ht="12" customHeight="1">
-      <c r="A19" s="65"/>
-      <c r="B19" s="67" t="s">
+    <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="73"/>
+      <c r="B19" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="53" t="s">
+      <c r="D19" s="65"/>
+      <c r="E19" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="55"/>
+      <c r="G19" s="79"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3084,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="L19" s="33">
@@ -3098,14 +3096,14 @@
       <c r="R19" s="31"/>
       <c r="S19" s="31"/>
     </row>
-    <row r="20" spans="1:19" ht="12" customHeight="1">
-      <c r="A20" s="66"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="56"/>
+    <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="74"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="76"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3117,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L20" s="41">
@@ -3131,22 +3129,22 @@
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
     </row>
-    <row r="21" spans="1:19" ht="12" customHeight="1">
-      <c r="A21" s="65"/>
-      <c r="B21" s="67" t="s">
+    <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="73"/>
+      <c r="B21" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="53" t="s">
+      <c r="D21" s="65"/>
+      <c r="E21" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="55"/>
+      <c r="G21" s="79"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3171,14 +3169,14 @@
       <c r="R21" s="31"/>
       <c r="S21" s="31"/>
     </row>
-    <row r="22" spans="1:19" ht="12" customHeight="1">
-      <c r="A22" s="66"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="56"/>
+    <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="74"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="76"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3190,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L22" s="41">
@@ -3204,126 +3202,126 @@
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
     </row>
-    <row r="23" spans="1:19" ht="12" customHeight="1">
-      <c r="A23" s="72" t="s">
+    <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="70" t="s">
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="70"/>
-      <c r="G23" s="118"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="92"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="21">
-        <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
-        <v>9.5</v>
+        <f t="shared" ref="K23:S23" si="5">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
+        <v>11</v>
       </c>
       <c r="L23" s="34">
-        <f>SUMPRODUCT((MOD(ROW(L$25:L$42),2)=1)*L$25:L$42)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M23" s="35">
-        <f>SUMPRODUCT((MOD(ROW(M$25:M$42),2)=1)*M$25:M$42)</f>
-        <v>9.5</v>
+        <f t="shared" si="5"/>
+        <v>10.5</v>
       </c>
       <c r="N23" s="35">
-        <f>SUMPRODUCT((MOD(ROW(N$25:N$42),2)=1)*N$25:N$42)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O23" s="35">
-        <f>SUMPRODUCT((MOD(ROW(O$25:O$42),2)=1)*O$25:O$42)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P23" s="35">
-        <f>SUMPRODUCT((MOD(ROW(P$25:P$42),2)=1)*P$25:P$42)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q23" s="35">
-        <f>SUMPRODUCT((MOD(ROW(Q$25:Q$42),2)=1)*Q$25:Q$42)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R23" s="35">
-        <f>SUMPRODUCT((MOD(ROW(R$25:R$42),2)=1)*R$25:R$42)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S23" s="35">
-        <f>SUMPRODUCT((MOD(ROW(S$25:S$42),2)=1)*S$25:S$42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="12" customHeight="1">
-      <c r="A24" s="75"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="119"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="93"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="15">
-        <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
-        <v>4</v>
+        <f t="shared" ref="K24:S24" si="6">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
+        <v>6.5</v>
       </c>
       <c r="L24" s="42">
-        <f>SUMPRODUCT((MOD(ROW(L$25:L$42),2)=0)*L$25:L$42)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M24" s="36">
-        <f>SUMPRODUCT((MOD(ROW(M$25:M$42),2)=0)*M$25:M$42)</f>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="N24" s="36">
-        <f>SUMPRODUCT((MOD(ROW(N$25:N$42),2)=0)*N$25:N$42)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>5.75</v>
       </c>
       <c r="O24" s="36">
-        <f>SUMPRODUCT((MOD(ROW(O$25:O$42),2)=0)*O$25:O$42)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P24" s="36">
-        <f>SUMPRODUCT((MOD(ROW(P$25:P$42),2)=0)*P$25:P$42)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q24" s="36">
-        <f>SUMPRODUCT((MOD(ROW(Q$25:Q$42),2)=0)*Q$25:Q$42)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R24" s="37">
-        <f>SUMPRODUCT((MOD(ROW(R$25:R$42),2)=0)*R$25:R$42)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S24" s="36">
-        <f>SUMPRODUCT((MOD(ROW(S$25:S$42),2)=0)*S$25:S$42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="12" customHeight="1">
-      <c r="A25" s="65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="73">
         <v>1</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="57" t="s">
+      <c r="C25" s="88"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="68"/>
+      <c r="G25" s="71"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v>予定</v>
@@ -3340,14 +3338,14 @@
       <c r="R25" s="31"/>
       <c r="S25" s="31"/>
     </row>
-    <row r="26" spans="1:19" ht="12" customHeight="1">
-      <c r="A26" s="66"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="69"/>
+    <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="74"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="72"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v>実績</v>
@@ -3364,94 +3362,94 @@
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
     </row>
-    <row r="27" spans="1:19" ht="12" customHeight="1">
-      <c r="A27" s="127"/>
-      <c r="B27" s="129" t="s">
+    <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="60"/>
+      <c r="B27" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="131" t="s">
+      <c r="D27" s="65"/>
+      <c r="E27" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="131" t="s">
+      <c r="F27" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="133"/>
-      <c r="H27" s="120">
+      <c r="G27" s="70"/>
+      <c r="H27" s="53">
         <f>IF(E27="","","予定")</f>
         <v>0</v>
       </c>
-      <c r="I27" s="120" t="s">
+      <c r="I27" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="120">
+      <c r="J27" s="53">
         <v>1</v>
       </c>
       <c r="K27" s="9">
         <v>1.5</v>
       </c>
-      <c r="L27" s="121"/>
-      <c r="M27" s="122">
+      <c r="L27" s="54"/>
+      <c r="M27" s="55">
         <v>1</v>
       </c>
-      <c r="N27" s="122"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="122"/>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="122"/>
-      <c r="S27" s="122"/>
-    </row>
-    <row r="28" spans="1:19" ht="12" customHeight="1">
-      <c r="A28" s="128"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="123">
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+    </row>
+    <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="61"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="56">
         <f>IF(E27="","","実績")</f>
         <v>0</v>
       </c>
-      <c r="I28" s="123" t="s">
+      <c r="I28" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="123">
+      <c r="J28" s="56">
         <v>1</v>
       </c>
       <c r="K28" s="10">
         <v>1.5</v>
       </c>
-      <c r="L28" s="124"/>
-      <c r="M28" s="125">
+      <c r="L28" s="57"/>
+      <c r="M28" s="58">
         <v>2</v>
       </c>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="126"/>
-      <c r="S28" s="126"/>
-    </row>
-    <row r="29" spans="1:19" ht="12" customHeight="1">
-      <c r="A29" s="65"/>
-      <c r="B29" s="67" t="s">
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+    </row>
+    <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="73"/>
+      <c r="B29" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="53" t="s">
+      <c r="D29" s="65"/>
+      <c r="E29" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="55"/>
+      <c r="G29" s="79"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3476,14 +3474,14 @@
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
     </row>
-    <row r="30" spans="1:19" ht="12" customHeight="1">
-      <c r="A30" s="66"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="56"/>
+    <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="74"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="76"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3495,7 +3493,7 @@
         <v>2</v>
       </c>
       <c r="K30" s="10">
-        <f t="shared" ref="K30:K34" si="3">SUM(L30:S30)</f>
+        <f t="shared" ref="K30:K33" si="7">SUM(L30:S30)</f>
         <v>2</v>
       </c>
       <c r="L30" s="48"/>
@@ -3509,22 +3507,22 @@
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
     </row>
-    <row r="31" spans="1:19" ht="12" customHeight="1">
-      <c r="A31" s="65"/>
-      <c r="B31" s="67" t="s">
+    <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="73"/>
+      <c r="B31" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="53" t="s">
+      <c r="D31" s="65"/>
+      <c r="E31" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="53" t="s">
+      <c r="F31" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="55"/>
+      <c r="G31" s="79"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3536,7 +3534,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L31" s="30"/>
@@ -3550,14 +3548,14 @@
       <c r="R31" s="31"/>
       <c r="S31" s="31"/>
     </row>
-    <row r="32" spans="1:19" ht="12" customHeight="1">
-      <c r="A32" s="66"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="56"/>
+    <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="74"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="76"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3582,22 +3580,22 @@
       <c r="R32" s="32"/>
       <c r="S32" s="32"/>
     </row>
-    <row r="33" spans="1:19" ht="12" customHeight="1">
-      <c r="A33" s="65"/>
-      <c r="B33" s="67" t="s">
+    <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="73"/>
+      <c r="B33" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="53" t="s">
+      <c r="D33" s="65"/>
+      <c r="E33" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="53" t="s">
+      <c r="F33" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="55"/>
+      <c r="G33" s="79"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3609,7 +3607,7 @@
         <v>2</v>
       </c>
       <c r="K33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L33" s="30"/>
@@ -3623,14 +3621,14 @@
       <c r="R33" s="31"/>
       <c r="S33" s="31"/>
     </row>
-    <row r="34" spans="1:19" ht="12" customHeight="1">
-      <c r="A34" s="66"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="56"/>
+    <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="74"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="76"/>
       <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3638,7 +3636,7 @@
       <c r="I34" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="J34" s="120">
+      <c r="J34" s="53">
         <v>2</v>
       </c>
       <c r="K34" s="10">
@@ -3656,22 +3654,22 @@
       <c r="R34" s="32"/>
       <c r="S34" s="32"/>
     </row>
-    <row r="35" spans="1:19" ht="12" customHeight="1">
-      <c r="A35" s="65">
+    <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="73">
         <v>2</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="57" t="s">
+      <c r="C35" s="88"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="57" t="s">
+      <c r="F35" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="68"/>
+      <c r="G35" s="71"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
         <v>予定</v>
@@ -3688,14 +3686,14 @@
       <c r="R35" s="31"/>
       <c r="S35" s="31"/>
     </row>
-    <row r="36" spans="1:19" ht="12" customHeight="1">
-      <c r="A36" s="66"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="69"/>
+    <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="74"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="72"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
         <v>実績</v>
@@ -3712,22 +3710,22 @@
       <c r="R36" s="32"/>
       <c r="S36" s="32"/>
     </row>
-    <row r="37" spans="1:19" ht="12" customHeight="1">
-      <c r="A37" s="65"/>
-      <c r="B37" s="67" t="s">
+    <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="73"/>
+      <c r="B37" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="53" t="s">
+      <c r="D37" s="65"/>
+      <c r="E37" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="53" t="s">
+      <c r="F37" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="55"/>
+      <c r="G37" s="79"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3753,51 +3751,53 @@
       <c r="R37" s="31"/>
       <c r="S37" s="31"/>
     </row>
-    <row r="38" spans="1:19" ht="12" customHeight="1">
-      <c r="A38" s="66"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="56"/>
+    <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="74"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="76"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I38" s="123" t="s">
+      <c r="I38" s="56" t="s">
         <v>27</v>
       </c>
       <c r="J38" s="52"/>
       <c r="K38" s="10">
         <f>SUM(L38:S38)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L38" s="41"/>
       <c r="M38" s="51"/>
-      <c r="N38" s="50"/>
+      <c r="N38" s="50">
+        <v>2.5</v>
+      </c>
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
       <c r="Q38" s="32"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
     </row>
-    <row r="39" spans="1:19" ht="12" customHeight="1">
-      <c r="A39" s="65"/>
-      <c r="B39" s="67" t="s">
+    <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="73"/>
+      <c r="B39" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="53" t="s">
+      <c r="D39" s="65"/>
+      <c r="E39" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="F39" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="55"/>
+      <c r="G39" s="79"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3823,19 +3823,19 @@
       <c r="R39" s="31"/>
       <c r="S39" s="31"/>
     </row>
-    <row r="40" spans="1:19" ht="12" customHeight="1">
-      <c r="A40" s="66"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="56"/>
+    <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="74"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="76"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I40" s="123" t="s">
+      <c r="I40" s="56" t="s">
         <v>27</v>
       </c>
       <c r="J40" s="52"/>
@@ -3845,29 +3845,31 @@
       </c>
       <c r="L40" s="48"/>
       <c r="M40" s="50"/>
-      <c r="N40" s="32"/>
+      <c r="N40" s="32">
+        <v>3</v>
+      </c>
       <c r="O40" s="32"/>
       <c r="P40" s="32"/>
       <c r="Q40" s="32"/>
       <c r="R40" s="32"/>
       <c r="S40" s="32"/>
     </row>
-    <row r="41" spans="1:19" ht="12" customHeight="1">
-      <c r="A41" s="65"/>
-      <c r="B41" s="67" t="s">
+    <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="73"/>
+      <c r="B41" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="53" t="s">
+      <c r="D41" s="65"/>
+      <c r="E41" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="53" t="s">
+      <c r="F41" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="55"/>
+      <c r="G41" s="79"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3893,19 +3895,19 @@
       <c r="R41" s="31"/>
       <c r="S41" s="31"/>
     </row>
-    <row r="42" spans="1:19" ht="12" customHeight="1">
-      <c r="A42" s="66"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="56"/>
+    <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="74"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="76"/>
       <c r="H42" s="52" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I42" s="120" t="s">
+      <c r="I42" s="53" t="s">
         <v>33</v>
       </c>
       <c r="J42" s="52"/>
@@ -3915,23 +3917,25 @@
       </c>
       <c r="L42" s="48"/>
       <c r="M42" s="50"/>
-      <c r="N42" s="32"/>
+      <c r="N42" s="32">
+        <v>0.25</v>
+      </c>
       <c r="O42" s="32"/>
       <c r="P42" s="32"/>
       <c r="Q42" s="32"/>
       <c r="R42" s="32"/>
       <c r="S42" s="32"/>
     </row>
-    <row r="43" spans="1:19" ht="12" customHeight="1">
-      <c r="A43" s="72" t="s">
+    <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="118"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="92"/>
       <c r="H43" s="20" t="s">
         <v>19</v>
       </c>
@@ -3942,46 +3946,46 @@
         <v>20</v>
       </c>
       <c r="L43" s="35">
-        <f t="shared" ref="L43:M43" si="4">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=1)*L$45:L$58)</f>
+        <f t="shared" ref="L43:M43" si="8">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=1)*L$45:L$58)</f>
         <v>0</v>
       </c>
       <c r="M43" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.5</v>
       </c>
       <c r="N43" s="35">
         <f>SUMPRODUCT((MOD(ROW(N$45:N$58),2)=1)*N$45:N$58)</f>
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O43" s="35">
-        <f t="shared" ref="O43:S43" si="5">SUMPRODUCT((MOD(ROW(O$45:O$58),2)=1)*O$45:O$58)</f>
+        <f t="shared" ref="O43:S43" si="9">SUMPRODUCT((MOD(ROW(O$45:O$58),2)=1)*O$45:O$58)</f>
         <v>0</v>
       </c>
       <c r="P43" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q43" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R43" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S43" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="12" customHeight="1">
-      <c r="A44" s="75"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="119"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="83"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="93"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -3989,10 +3993,10 @@
       <c r="J44" s="7"/>
       <c r="K44" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$58),2)=0)*K$45:K$58)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L44" s="36">
-        <f t="shared" ref="L44:S44" si="6">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=0)*L$45:L$58)</f>
+        <f t="shared" ref="L44:S44" si="10">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=0)*L$45:L$58)</f>
         <v>0</v>
       </c>
       <c r="M44" s="36">
@@ -4000,44 +4004,44 @@
         <v>0</v>
       </c>
       <c r="N44" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>28</v>
       </c>
       <c r="O44" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P44" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q44" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R44" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S44" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="12" customHeight="1">
-      <c r="A45" s="65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="73">
         <v>1</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="57" t="s">
+      <c r="C45" s="88"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="57"/>
-      <c r="G45" s="68"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="71"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -4054,14 +4058,14 @@
       <c r="R45" s="31"/>
       <c r="S45" s="31"/>
     </row>
-    <row r="46" spans="1:19" ht="12" customHeight="1">
-      <c r="A46" s="66"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="69"/>
+    <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="74"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="72"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
@@ -4078,20 +4082,20 @@
       <c r="R46" s="32"/>
       <c r="S46" s="32"/>
     </row>
-    <row r="47" spans="1:19" ht="12" customHeight="1">
-      <c r="A47" s="65"/>
-      <c r="B47" s="67" t="s">
+    <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="73"/>
+      <c r="B47" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="53" t="s">
+      <c r="D47" s="65"/>
+      <c r="E47" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="53"/>
-      <c r="G47" s="55"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="79"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4118,14 +4122,14 @@
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
     </row>
-    <row r="48" spans="1:19" ht="12" customHeight="1">
-      <c r="A48" s="66"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="56"/>
+    <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="74"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="76"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4134,31 +4138,33 @@
       <c r="J48" s="52"/>
       <c r="K48" s="10">
         <f>SUM(L48:S48)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L48" s="41"/>
       <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
+      <c r="N48" s="32">
+        <v>10</v>
+      </c>
       <c r="O48" s="32"/>
       <c r="P48" s="32"/>
       <c r="Q48" s="32"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
     </row>
-    <row r="49" spans="1:19" ht="12" customHeight="1">
-      <c r="A49" s="65"/>
-      <c r="B49" s="67" t="s">
+    <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="73"/>
+      <c r="B49" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="53" t="s">
+      <c r="D49" s="65"/>
+      <c r="E49" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="53"/>
-      <c r="G49" s="55"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="79"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4188,14 +4194,14 @@
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
     </row>
-    <row r="50" spans="1:19" ht="12" customHeight="1">
-      <c r="A50" s="66"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="56"/>
+    <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="74"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="76"/>
       <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4204,31 +4210,33 @@
       <c r="J50" s="52"/>
       <c r="K50" s="10">
         <f>SUM(L50:S50)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L50" s="41"/>
       <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
+      <c r="N50" s="32">
+        <v>10</v>
+      </c>
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="32"/>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
     </row>
-    <row r="51" spans="1:19" ht="12" customHeight="1">
-      <c r="A51" s="65">
+    <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="73">
         <v>2</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="57" t="s">
+      <c r="C51" s="88"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="57"/>
-      <c r="G51" s="68"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="71"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4245,14 +4253,14 @@
       <c r="R51" s="31"/>
       <c r="S51" s="31"/>
     </row>
-    <row r="52" spans="1:19" ht="12" customHeight="1">
-      <c r="A52" s="66"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="69"/>
+    <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="74"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
+      <c r="G52" s="72"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4269,20 +4277,20 @@
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
     </row>
-    <row r="53" spans="1:19" ht="12" customHeight="1">
-      <c r="A53" s="65"/>
-      <c r="B53" s="67" t="s">
+    <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="73"/>
+      <c r="B53" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="53" t="s">
+      <c r="D53" s="65"/>
+      <c r="E53" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="53"/>
-      <c r="G53" s="55"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="79"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4298,21 +4306,23 @@
       </c>
       <c r="L53" s="33"/>
       <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
+      <c r="N53" s="31">
+        <v>2.5</v>
+      </c>
       <c r="O53" s="31"/>
       <c r="P53" s="31"/>
       <c r="Q53" s="31"/>
       <c r="R53" s="31"/>
       <c r="S53" s="31"/>
     </row>
-    <row r="54" spans="1:19" ht="12" customHeight="1">
-      <c r="A54" s="66"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="56"/>
+    <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="74"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="76"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4320,7 +4330,7 @@
       <c r="I54" s="52"/>
       <c r="J54" s="52"/>
       <c r="K54" s="10">
-        <f t="shared" ref="K54:K58" si="7">SUM(L54:S54)</f>
+        <f t="shared" ref="K54:K58" si="11">SUM(L54:S54)</f>
         <v>0</v>
       </c>
       <c r="L54" s="41"/>
@@ -4332,20 +4342,20 @@
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
     </row>
-    <row r="55" spans="1:19" ht="12" customHeight="1">
-      <c r="A55" s="65"/>
-      <c r="B55" s="67" t="s">
+    <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="73"/>
+      <c r="B55" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="53" t="s">
+      <c r="D55" s="65"/>
+      <c r="E55" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="53"/>
-      <c r="G55" s="55"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="79"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4357,7 +4367,7 @@
         <v>5</v>
       </c>
       <c r="K55" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="L55" s="33"/>
@@ -4372,14 +4382,14 @@
       <c r="R55" s="31"/>
       <c r="S55" s="31"/>
     </row>
-    <row r="56" spans="1:19" ht="12" customHeight="1">
-      <c r="A56" s="66"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="56"/>
+    <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="74"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="76"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4387,32 +4397,34 @@
       <c r="I56" s="52"/>
       <c r="J56" s="52"/>
       <c r="K56" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>7.5</v>
       </c>
       <c r="L56" s="41"/>
       <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
+      <c r="N56" s="32">
+        <v>7.5</v>
+      </c>
       <c r="O56" s="32"/>
       <c r="P56" s="32"/>
       <c r="Q56" s="32"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
     </row>
-    <row r="57" spans="1:19" ht="12" customHeight="1">
-      <c r="A57" s="65"/>
-      <c r="B57" s="67" t="s">
+    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="73"/>
+      <c r="B57" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="53" t="s">
+      <c r="D57" s="65"/>
+      <c r="E57" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="53"/>
-      <c r="G57" s="55"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="79"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4437,14 +4449,14 @@
       <c r="R57" s="31"/>
       <c r="S57" s="31"/>
     </row>
-    <row r="58" spans="1:19" ht="12" customHeight="1">
-      <c r="A58" s="66"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="56"/>
+    <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="74"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="76"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4452,28 +4464,30 @@
       <c r="I58" s="52"/>
       <c r="J58" s="52"/>
       <c r="K58" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.5</v>
       </c>
       <c r="L58" s="43"/>
       <c r="M58" s="44"/>
-      <c r="N58" s="44"/>
+      <c r="N58" s="44">
+        <v>0.5</v>
+      </c>
       <c r="O58" s="44"/>
       <c r="P58" s="44"/>
       <c r="Q58" s="44"/>
       <c r="R58" s="44"/>
       <c r="S58" s="44"/>
     </row>
-    <row r="59" spans="1:19" ht="12" customHeight="1">
-      <c r="A59" s="72" t="s">
+    <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="73"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="118"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="92"/>
       <c r="H59" s="20" t="s">
         <v>19</v>
       </c>
@@ -4484,15 +4498,15 @@
         <v>27</v>
       </c>
       <c r="L59" s="35">
-        <f t="shared" ref="L59:N59" si="8">SUMPRODUCT((MOD(ROW(L$61:L$76),2)=1)*L$61:L$76)</f>
+        <f t="shared" ref="L59:N59" si="12">SUMPRODUCT((MOD(ROW(L$61:L$76),2)=1)*L$61:L$76)</f>
         <v>0</v>
       </c>
       <c r="M59" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N59" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
       <c r="O59" s="35">
@@ -4500,30 +4514,30 @@
         <v>16.5</v>
       </c>
       <c r="P59" s="35">
-        <f t="shared" ref="P59:S59" si="9">SUMPRODUCT((MOD(ROW(P$61:P$76),2)=1)*P$61:P$76)</f>
+        <f t="shared" ref="P59:S59" si="13">SUMPRODUCT((MOD(ROW(P$61:P$76),2)=1)*P$61:P$76)</f>
         <v>8</v>
       </c>
       <c r="Q59" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R59" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S59" s="35">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="12" customHeight="1">
-      <c r="A60" s="75"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="119"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="83"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="93"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4538,46 +4552,46 @@
         <v>0</v>
       </c>
       <c r="M60" s="36">
-        <f t="shared" ref="M60:S60" si="10">SUMPRODUCT((MOD(ROW(M$61:M$76),2)=0)*M$61:M$76)</f>
+        <f t="shared" ref="M60:S60" si="14">SUMPRODUCT((MOD(ROW(M$61:M$76),2)=0)*M$61:M$76)</f>
         <v>0</v>
       </c>
       <c r="N60" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O60" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P60" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q60" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R60" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S60" s="36">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="12" customHeight="1">
-      <c r="A61" s="65">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="73">
         <v>1</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="60"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="68"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="71"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -4594,14 +4608,14 @@
       <c r="R61" s="31"/>
       <c r="S61" s="31"/>
     </row>
-    <row r="62" spans="1:19" ht="12" customHeight="1">
-      <c r="A62" s="66"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="69"/>
+    <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="74"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="72"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -4618,20 +4632,20 @@
       <c r="R62" s="32"/>
       <c r="S62" s="32"/>
     </row>
-    <row r="63" spans="1:19" ht="12" customHeight="1">
-      <c r="A63" s="65"/>
-      <c r="B63" s="67" t="s">
+    <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="73"/>
+      <c r="B63" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="61"/>
-      <c r="E63" s="53" t="s">
+      <c r="D63" s="65"/>
+      <c r="E63" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="53"/>
-      <c r="G63" s="55"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="79"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4643,7 +4657,7 @@
         <v>5</v>
       </c>
       <c r="K63" s="9">
-        <f t="shared" ref="K63:K68" si="11">SUM(L63:S63)</f>
+        <f t="shared" ref="K63:K68" si="15">SUM(L63:S63)</f>
         <v>7.5</v>
       </c>
       <c r="L63" s="33"/>
@@ -4661,14 +4675,14 @@
       <c r="R63" s="31"/>
       <c r="S63" s="31"/>
     </row>
-    <row r="64" spans="1:19" ht="12" customHeight="1">
-      <c r="A64" s="66"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="56"/>
+    <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="74"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="76"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4676,7 +4690,7 @@
       <c r="I64" s="52"/>
       <c r="J64" s="52"/>
       <c r="K64" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L64" s="41"/>
@@ -4688,20 +4702,20 @@
       <c r="R64" s="32"/>
       <c r="S64" s="32"/>
     </row>
-    <row r="65" spans="1:19" ht="12" customHeight="1">
-      <c r="A65" s="65"/>
-      <c r="B65" s="67" t="s">
+    <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="73"/>
+      <c r="B65" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="53" t="s">
+      <c r="D65" s="65"/>
+      <c r="E65" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="53"/>
-      <c r="G65" s="55"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="79"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4713,7 +4727,7 @@
         <v>5</v>
       </c>
       <c r="K65" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="L65" s="33"/>
@@ -4727,14 +4741,14 @@
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
     </row>
-    <row r="66" spans="1:19" ht="12" customHeight="1">
-      <c r="A66" s="66"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="56"/>
+    <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="74"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="76"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4742,7 +4756,7 @@
       <c r="I66" s="52"/>
       <c r="J66" s="52"/>
       <c r="K66" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L66" s="41"/>
@@ -4754,20 +4768,20 @@
       <c r="R66" s="32"/>
       <c r="S66" s="32"/>
     </row>
-    <row r="67" spans="1:19" ht="12" customHeight="1">
-      <c r="A67" s="65"/>
-      <c r="B67" s="67" t="s">
+    <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="73"/>
+      <c r="B67" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="59" t="s">
+      <c r="C67" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="61"/>
-      <c r="E67" s="53" t="s">
+      <c r="D67" s="65"/>
+      <c r="E67" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="53"/>
-      <c r="G67" s="55"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="79"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4779,7 +4793,7 @@
         <v>5</v>
       </c>
       <c r="K67" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.5</v>
       </c>
       <c r="L67" s="33"/>
@@ -4794,14 +4808,14 @@
       <c r="R67" s="31"/>
       <c r="S67" s="31"/>
     </row>
-    <row r="68" spans="1:19" ht="12" customHeight="1">
-      <c r="A68" s="66"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="56"/>
+    <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="74"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="76"/>
       <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4809,7 +4823,7 @@
       <c r="I68" s="52"/>
       <c r="J68" s="52"/>
       <c r="K68" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L68" s="41"/>
@@ -4821,18 +4835,18 @@
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
     </row>
-    <row r="69" spans="1:19" ht="12" customHeight="1">
-      <c r="A69" s="65">
+    <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="73">
         <v>2</v>
       </c>
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="68"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="71"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -4849,14 +4863,14 @@
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
     </row>
-    <row r="70" spans="1:19" ht="12" customHeight="1">
-      <c r="A70" s="66"/>
-      <c r="B70" s="62"/>
-      <c r="C70" s="63"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="69"/>
+    <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="74"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="91"/>
+      <c r="G70" s="72"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -4873,20 +4887,20 @@
       <c r="R70" s="32"/>
       <c r="S70" s="32"/>
     </row>
-    <row r="71" spans="1:19" ht="12" customHeight="1">
-      <c r="A71" s="65"/>
-      <c r="B71" s="67" t="s">
+    <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="73"/>
+      <c r="B71" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="61"/>
-      <c r="E71" s="53" t="s">
+      <c r="D71" s="65"/>
+      <c r="E71" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="53"/>
-      <c r="G71" s="55"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="79"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
@@ -4898,7 +4912,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="9">
-        <f t="shared" ref="K71:K76" si="12">SUM(L71:S71)</f>
+        <f t="shared" ref="K71:K76" si="16">SUM(L71:S71)</f>
         <v>2.5</v>
       </c>
       <c r="L71" s="33"/>
@@ -4913,14 +4927,14 @@
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
     </row>
-    <row r="72" spans="1:19" ht="12" customHeight="1">
-      <c r="A72" s="66"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="56"/>
+    <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="74"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="78"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="76"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -4928,7 +4942,7 @@
       <c r="I72" s="52"/>
       <c r="J72" s="52"/>
       <c r="K72" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L72" s="41"/>
@@ -4940,20 +4954,20 @@
       <c r="R72" s="32"/>
       <c r="S72" s="32"/>
     </row>
-    <row r="73" spans="1:19" ht="12" customHeight="1">
-      <c r="A73" s="65"/>
-      <c r="B73" s="67" t="s">
+    <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="73"/>
+      <c r="B73" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="59" t="s">
+      <c r="C73" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="61"/>
-      <c r="E73" s="53" t="s">
+      <c r="D73" s="65"/>
+      <c r="E73" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="53"/>
-      <c r="G73" s="55"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="79"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4965,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="K73" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="L73" s="33"/>
@@ -4980,14 +4994,14 @@
       <c r="R73" s="31"/>
       <c r="S73" s="31"/>
     </row>
-    <row r="74" spans="1:19" ht="12" customHeight="1">
-      <c r="A74" s="66"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="56"/>
+    <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="74"/>
+      <c r="B74" s="76"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="78"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="76"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4995,7 +5009,7 @@
       <c r="I74" s="52"/>
       <c r="J74" s="52"/>
       <c r="K74" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L74" s="41"/>
@@ -5007,20 +5021,20 @@
       <c r="R74" s="32"/>
       <c r="S74" s="32"/>
     </row>
-    <row r="75" spans="1:19" ht="12" customHeight="1">
-      <c r="A75" s="65"/>
-      <c r="B75" s="67" t="s">
+    <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="73"/>
+      <c r="B75" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="59" t="s">
+      <c r="C75" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="61"/>
-      <c r="E75" s="53" t="s">
+      <c r="D75" s="65"/>
+      <c r="E75" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F75" s="53"/>
-      <c r="G75" s="55"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="79"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5032,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="L75" s="33"/>
@@ -5047,14 +5061,14 @@
       <c r="R75" s="31"/>
       <c r="S75" s="31"/>
     </row>
-    <row r="76" spans="1:19" ht="12" customHeight="1">
-      <c r="A76" s="66"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="56"/>
+    <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="74"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="78"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="76"/>
       <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5062,7 +5076,7 @@
       <c r="I76" s="52"/>
       <c r="J76" s="52"/>
       <c r="K76" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L76" s="43"/>
@@ -5074,16 +5088,16 @@
       <c r="R76" s="44"/>
       <c r="S76" s="44"/>
     </row>
-    <row r="77" spans="1:19" ht="12" customHeight="1">
-      <c r="A77" s="72" t="s">
+    <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="73"/>
-      <c r="C77" s="73"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="118"/>
+      <c r="B77" s="81"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="82"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="86"/>
+      <c r="G77" s="92"/>
       <c r="H77" s="20" t="s">
         <v>19</v>
       </c>
@@ -5094,23 +5108,23 @@
         <v>20</v>
       </c>
       <c r="L77" s="35">
-        <f t="shared" ref="L77:P77" si="13">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
+        <f t="shared" ref="L77:P77" si="17">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
         <v>0</v>
       </c>
       <c r="M77" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N77" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O77" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P77" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="Q77" s="35">
@@ -5118,22 +5132,22 @@
         <v>15</v>
       </c>
       <c r="R77" s="35">
-        <f t="shared" ref="R77:S77" si="14">SUMPRODUCT((MOD(ROW(R$79:R$84),2)=1)*R$79:R$84)</f>
+        <f t="shared" ref="R77:S77" si="18">SUMPRODUCT((MOD(ROW(R$79:R$84),2)=1)*R$79:R$84)</f>
         <v>0</v>
       </c>
       <c r="S77" s="35">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="12" customHeight="1">
-      <c r="A78" s="75"/>
-      <c r="B78" s="76"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="119"/>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="83"/>
+      <c r="B78" s="84"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="87"/>
+      <c r="F78" s="87"/>
+      <c r="G78" s="93"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5144,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="36">
-        <f t="shared" ref="L78:S78" si="15">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
+        <f t="shared" ref="L78:S78" si="19">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
         <v>0</v>
       </c>
       <c r="M78" s="36">
@@ -5152,42 +5166,42 @@
         <v>0</v>
       </c>
       <c r="N78" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O78" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P78" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q78" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R78" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S78" s="36">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="12" customHeight="1">
-      <c r="A79" s="65">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="73">
         <v>1</v>
       </c>
-      <c r="B79" s="59" t="s">
+      <c r="B79" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="60"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="68"/>
+      <c r="C79" s="88"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="71"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -5204,14 +5218,14 @@
       <c r="R79" s="31"/>
       <c r="S79" s="31"/>
     </row>
-    <row r="80" spans="1:19" ht="12" customHeight="1">
-      <c r="A80" s="66"/>
-      <c r="B80" s="62"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="58"/>
-      <c r="G80" s="69"/>
+    <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="74"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="91"/>
+      <c r="G80" s="72"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -5228,20 +5242,20 @@
       <c r="R80" s="32"/>
       <c r="S80" s="32"/>
     </row>
-    <row r="81" spans="1:19" ht="12" customHeight="1">
-      <c r="A81" s="65"/>
-      <c r="B81" s="67" t="s">
+    <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="73"/>
+      <c r="B81" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C81" s="59" t="s">
+      <c r="C81" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="61"/>
-      <c r="E81" s="53" t="s">
+      <c r="D81" s="65"/>
+      <c r="E81" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="53"/>
-      <c r="G81" s="55"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="79"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5253,7 +5267,7 @@
         <v>5</v>
       </c>
       <c r="K81" s="9">
-        <f t="shared" ref="K81:K84" si="16">SUM(L81:S81)</f>
+        <f t="shared" ref="K81:K84" si="20">SUM(L81:S81)</f>
         <v>15</v>
       </c>
       <c r="L81" s="33"/>
@@ -5271,14 +5285,14 @@
       <c r="R81" s="31"/>
       <c r="S81" s="31"/>
     </row>
-    <row r="82" spans="1:19" ht="12" customHeight="1">
-      <c r="A82" s="66"/>
-      <c r="B82" s="56"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="56"/>
+    <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="74"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="78"/>
+      <c r="F82" s="78"/>
+      <c r="G82" s="76"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5286,7 +5300,7 @@
       <c r="I82" s="52"/>
       <c r="J82" s="52"/>
       <c r="K82" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L82" s="41"/>
@@ -5298,20 +5312,20 @@
       <c r="R82" s="32"/>
       <c r="S82" s="32"/>
     </row>
-    <row r="83" spans="1:19" ht="12" customHeight="1">
-      <c r="A83" s="65"/>
-      <c r="B83" s="67" t="s">
+    <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="73"/>
+      <c r="B83" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="59" t="s">
+      <c r="C83" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="61"/>
-      <c r="E83" s="53" t="s">
+      <c r="D83" s="65"/>
+      <c r="E83" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F83" s="53"/>
-      <c r="G83" s="55"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="79"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5323,7 +5337,7 @@
         <v>5</v>
       </c>
       <c r="K83" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="L83" s="33"/>
@@ -5338,14 +5352,14 @@
       <c r="R83" s="31"/>
       <c r="S83" s="31"/>
     </row>
-    <row r="84" spans="1:19" ht="12" customHeight="1">
-      <c r="A84" s="66"/>
-      <c r="B84" s="56"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="56"/>
+    <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="74"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="78"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="76"/>
       <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5353,7 +5367,7 @@
       <c r="I84" s="52"/>
       <c r="J84" s="52"/>
       <c r="K84" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L84" s="41"/>
@@ -5365,120 +5379,120 @@
       <c r="R84" s="32"/>
       <c r="S84" s="32"/>
     </row>
-    <row r="85" spans="1:19" ht="12" customHeight="1">
-      <c r="A85" s="72" t="s">
+    <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="73"/>
-      <c r="C85" s="73"/>
-      <c r="D85" s="74"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="118"/>
+      <c r="B85" s="81"/>
+      <c r="C85" s="81"/>
+      <c r="D85" s="82"/>
+      <c r="E85" s="86"/>
+      <c r="F85" s="86"/>
+      <c r="G85" s="92"/>
       <c r="H85" s="20" t="s">
         <v>19</v>
       </c>
       <c r="I85" s="20"/>
       <c r="J85" s="20"/>
       <c r="K85" s="21">
-        <f t="shared" ref="K85:S85" si="17">SUMPRODUCT((MOD(ROW(K$87:K$96),2)=1)*K$87:K$96)</f>
+        <f t="shared" ref="K85:S85" si="21">SUMPRODUCT((MOD(ROW(K$87:K$96),2)=1)*K$87:K$96)</f>
         <v>5.5</v>
       </c>
       <c r="L85" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M85" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N85" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O85" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P85" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q85" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R85" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5.5</v>
       </c>
       <c r="S85" s="35">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="12" customHeight="1">
-      <c r="A86" s="75"/>
-      <c r="B86" s="76"/>
-      <c r="C86" s="76"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="119"/>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="83"/>
+      <c r="B86" s="84"/>
+      <c r="C86" s="84"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="87"/>
+      <c r="F86" s="87"/>
+      <c r="G86" s="93"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="15">
-        <f t="shared" ref="K86:S86" si="18">SUMPRODUCT((MOD(ROW(K$87:K$96),2)=0)*K$87:K$96)</f>
+        <f t="shared" ref="K86:S86" si="22">SUMPRODUCT((MOD(ROW(K$87:K$96),2)=0)*K$87:K$96)</f>
         <v>0</v>
       </c>
       <c r="L86" s="37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M86" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N86" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O86" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P86" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q86" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R86" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S86" s="36">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="12" customHeight="1">
-      <c r="A87" s="65">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="73">
         <v>1</v>
       </c>
-      <c r="B87" s="59" t="s">
+      <c r="B87" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C87" s="60"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="57"/>
-      <c r="G87" s="68"/>
+      <c r="C87" s="88"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="90"/>
+      <c r="F87" s="90"/>
+      <c r="G87" s="71"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5495,14 +5509,14 @@
       <c r="R87" s="31"/>
       <c r="S87" s="31"/>
     </row>
-    <row r="88" spans="1:19" ht="12" customHeight="1">
-      <c r="A88" s="66"/>
-      <c r="B88" s="62"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="69"/>
+    <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="74"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="91"/>
+      <c r="F88" s="91"/>
+      <c r="G88" s="72"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5519,20 +5533,20 @@
       <c r="R88" s="32"/>
       <c r="S88" s="32"/>
     </row>
-    <row r="89" spans="1:19" ht="12" customHeight="1">
-      <c r="A89" s="65"/>
-      <c r="B89" s="67" t="s">
+    <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="73"/>
+      <c r="B89" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="59" t="s">
+      <c r="C89" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="61"/>
-      <c r="E89" s="53" t="s">
+      <c r="D89" s="65"/>
+      <c r="E89" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="53"/>
-      <c r="G89" s="55"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="79"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5559,14 +5573,14 @@
       </c>
       <c r="S89" s="31"/>
     </row>
-    <row r="90" spans="1:19" ht="12" customHeight="1">
-      <c r="A90" s="66"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="56"/>
+    <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="74"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="78"/>
+      <c r="F90" s="78"/>
+      <c r="G90" s="76"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5586,18 +5600,18 @@
       <c r="R90" s="32"/>
       <c r="S90" s="32"/>
     </row>
-    <row r="91" spans="1:19" ht="12" customHeight="1">
-      <c r="A91" s="65">
+    <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="73">
         <v>2</v>
       </c>
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="60"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="57"/>
-      <c r="G91" s="68"/>
+      <c r="C91" s="88"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="90"/>
+      <c r="F91" s="90"/>
+      <c r="G91" s="71"/>
       <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5614,14 +5628,14 @@
       <c r="R91" s="31"/>
       <c r="S91" s="31"/>
     </row>
-    <row r="92" spans="1:19" ht="12" customHeight="1">
-      <c r="A92" s="66"/>
-      <c r="B92" s="62"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="69"/>
+    <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="74"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="89"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="91"/>
+      <c r="F92" s="91"/>
+      <c r="G92" s="72"/>
       <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5638,20 +5652,20 @@
       <c r="R92" s="32"/>
       <c r="S92" s="32"/>
     </row>
-    <row r="93" spans="1:19" ht="12" customHeight="1">
-      <c r="A93" s="65"/>
-      <c r="B93" s="67" t="s">
+    <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="73"/>
+      <c r="B93" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="59" t="s">
+      <c r="C93" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="61"/>
-      <c r="E93" s="53" t="s">
+      <c r="D93" s="65"/>
+      <c r="E93" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="53"/>
-      <c r="G93" s="55"/>
+      <c r="F93" s="77"/>
+      <c r="G93" s="79"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -5663,7 +5677,7 @@
         <v>5</v>
       </c>
       <c r="K93" s="9">
-        <f t="shared" ref="K93:K96" si="19">SUM(L93:S93)</f>
+        <f t="shared" ref="K93:K96" si="23">SUM(L93:S93)</f>
         <v>2.5</v>
       </c>
       <c r="L93" s="33"/>
@@ -5678,14 +5692,14 @@
       </c>
       <c r="S93" s="31"/>
     </row>
-    <row r="94" spans="1:19" ht="12" customHeight="1">
-      <c r="A94" s="66"/>
-      <c r="B94" s="56"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="64"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="54"/>
-      <c r="G94" s="56"/>
+    <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="74"/>
+      <c r="B94" s="76"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="78"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="76"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -5693,7 +5707,7 @@
       <c r="I94" s="52"/>
       <c r="J94" s="52"/>
       <c r="K94" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L94" s="41"/>
@@ -5705,20 +5719,20 @@
       <c r="R94" s="32"/>
       <c r="S94" s="32"/>
     </row>
-    <row r="95" spans="1:19" ht="12" customHeight="1">
-      <c r="A95" s="65"/>
-      <c r="B95" s="67" t="s">
+    <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="73"/>
+      <c r="B95" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="59" t="s">
+      <c r="C95" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D95" s="61"/>
-      <c r="E95" s="53" t="s">
+      <c r="D95" s="65"/>
+      <c r="E95" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="53"/>
-      <c r="G95" s="55"/>
+      <c r="F95" s="77"/>
+      <c r="G95" s="79"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5730,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="K95" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="L95" s="33"/>
@@ -5744,14 +5758,14 @@
       </c>
       <c r="S95" s="31"/>
     </row>
-    <row r="96" spans="1:19" ht="12" customHeight="1">
-      <c r="A96" s="66"/>
-      <c r="B96" s="56"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="54"/>
-      <c r="F96" s="54"/>
-      <c r="G96" s="56"/>
+    <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="74"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="78"/>
+      <c r="F96" s="78"/>
+      <c r="G96" s="76"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -5759,7 +5773,7 @@
       <c r="I96" s="52"/>
       <c r="J96" s="52"/>
       <c r="K96" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L96" s="43"/>
@@ -5771,16 +5785,16 @@
       <c r="R96" s="44"/>
       <c r="S96" s="44"/>
     </row>
-    <row r="97" spans="1:19" ht="12" customHeight="1">
-      <c r="A97" s="72" t="s">
+    <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="73"/>
-      <c r="C97" s="73"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="118"/>
+      <c r="B97" s="81"/>
+      <c r="C97" s="81"/>
+      <c r="D97" s="82"/>
+      <c r="E97" s="86"/>
+      <c r="F97" s="86"/>
+      <c r="G97" s="92"/>
       <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
@@ -5791,31 +5805,31 @@
         <v>7</v>
       </c>
       <c r="L97" s="35">
-        <f t="shared" ref="L97:R97" si="20">SUMPRODUCT((MOD(ROW(L$99:L$110),2)=1)*L$99:L$110)</f>
+        <f t="shared" ref="L97:R97" si="24">SUMPRODUCT((MOD(ROW(L$99:L$110),2)=1)*L$99:L$110)</f>
         <v>0</v>
       </c>
       <c r="M97" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N97" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O97" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P97" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q97" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R97" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="S97" s="35">
@@ -5823,14 +5837,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="12" customHeight="1">
-      <c r="A98" s="75"/>
-      <c r="B98" s="76"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="71"/>
-      <c r="F98" s="71"/>
-      <c r="G98" s="119"/>
+    <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="83"/>
+      <c r="B98" s="84"/>
+      <c r="C98" s="84"/>
+      <c r="D98" s="85"/>
+      <c r="E98" s="87"/>
+      <c r="F98" s="87"/>
+      <c r="G98" s="93"/>
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
@@ -5845,46 +5859,46 @@
         <v>0</v>
       </c>
       <c r="M98" s="37">
-        <f t="shared" ref="M98:S98" si="21">SUMPRODUCT((MOD(ROW(M$99:M$110),2)=0)*M$99:M$110)</f>
+        <f t="shared" ref="M98:S98" si="25">SUMPRODUCT((MOD(ROW(M$99:M$110),2)=0)*M$99:M$110)</f>
         <v>0</v>
       </c>
       <c r="N98" s="37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O98" s="37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P98" s="37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q98" s="37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R98" s="37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S98" s="37">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" ht="12" customHeight="1">
-      <c r="A99" s="65">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="73">
         <v>1</v>
       </c>
-      <c r="B99" s="59" t="s">
+      <c r="B99" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C99" s="60"/>
-      <c r="D99" s="61"/>
-      <c r="E99" s="57"/>
-      <c r="F99" s="57"/>
-      <c r="G99" s="68"/>
+      <c r="C99" s="88"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="90"/>
+      <c r="F99" s="90"/>
+      <c r="G99" s="71"/>
       <c r="H99" s="23" t="str">
         <f>IF(E99="","","予定")</f>
         <v/>
@@ -5901,14 +5915,14 @@
       <c r="R99" s="31"/>
       <c r="S99" s="31"/>
     </row>
-    <row r="100" spans="1:19" ht="12" customHeight="1">
-      <c r="A100" s="66"/>
-      <c r="B100" s="62"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="58"/>
-      <c r="G100" s="69"/>
+    <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="74"/>
+      <c r="B100" s="66"/>
+      <c r="C100" s="89"/>
+      <c r="D100" s="67"/>
+      <c r="E100" s="91"/>
+      <c r="F100" s="91"/>
+      <c r="G100" s="72"/>
       <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
         <v/>
@@ -5925,20 +5939,20 @@
       <c r="R100" s="32"/>
       <c r="S100" s="32"/>
     </row>
-    <row r="101" spans="1:19" ht="12" customHeight="1">
-      <c r="A101" s="65"/>
-      <c r="B101" s="67" t="s">
+    <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="73"/>
+      <c r="B101" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="59" t="s">
+      <c r="C101" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="61"/>
-      <c r="E101" s="53" t="s">
+      <c r="D101" s="65"/>
+      <c r="E101" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="53"/>
-      <c r="G101" s="55"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="79"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -5965,14 +5979,14 @@
       </c>
       <c r="S101" s="31"/>
     </row>
-    <row r="102" spans="1:19" ht="12" customHeight="1">
-      <c r="A102" s="66"/>
-      <c r="B102" s="56"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="54"/>
-      <c r="F102" s="54"/>
-      <c r="G102" s="56"/>
+    <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="74"/>
+      <c r="B102" s="76"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="78"/>
+      <c r="F102" s="78"/>
+      <c r="G102" s="76"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -5992,20 +6006,20 @@
       <c r="R102" s="32"/>
       <c r="S102" s="32"/>
     </row>
-    <row r="103" spans="1:19" ht="12" customHeight="1">
-      <c r="A103" s="65"/>
-      <c r="B103" s="67" t="s">
+    <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="73"/>
+      <c r="B103" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="59" t="s">
+      <c r="C103" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="61"/>
-      <c r="E103" s="53" t="s">
+      <c r="D103" s="65"/>
+      <c r="E103" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="53"/>
-      <c r="G103" s="55"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="79"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6032,14 +6046,14 @@
       </c>
       <c r="S103" s="31"/>
     </row>
-    <row r="104" spans="1:19" ht="12" customHeight="1">
-      <c r="A104" s="66"/>
-      <c r="B104" s="56"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="64"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="56"/>
+    <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="74"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="78"/>
+      <c r="F104" s="78"/>
+      <c r="G104" s="76"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6059,18 +6073,18 @@
       <c r="R104" s="32"/>
       <c r="S104" s="32"/>
     </row>
-    <row r="105" spans="1:19" ht="12" customHeight="1">
-      <c r="A105" s="65">
+    <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="73">
         <v>2</v>
       </c>
-      <c r="B105" s="59" t="s">
+      <c r="B105" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="60"/>
-      <c r="D105" s="61"/>
-      <c r="E105" s="57"/>
-      <c r="F105" s="57"/>
-      <c r="G105" s="68"/>
+      <c r="C105" s="88"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="90"/>
+      <c r="F105" s="90"/>
+      <c r="G105" s="71"/>
       <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -6087,14 +6101,14 @@
       <c r="R105" s="31"/>
       <c r="S105" s="31"/>
     </row>
-    <row r="106" spans="1:19" ht="12" customHeight="1">
-      <c r="A106" s="66"/>
-      <c r="B106" s="62"/>
-      <c r="C106" s="63"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="58"/>
-      <c r="F106" s="58"/>
-      <c r="G106" s="69"/>
+    <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="74"/>
+      <c r="B106" s="66"/>
+      <c r="C106" s="89"/>
+      <c r="D106" s="67"/>
+      <c r="E106" s="91"/>
+      <c r="F106" s="91"/>
+      <c r="G106" s="72"/>
       <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -6111,20 +6125,20 @@
       <c r="R106" s="32"/>
       <c r="S106" s="32"/>
     </row>
-    <row r="107" spans="1:19" ht="12" customHeight="1">
-      <c r="A107" s="65"/>
-      <c r="B107" s="67" t="s">
+    <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="73"/>
+      <c r="B107" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="59" t="s">
+      <c r="C107" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="61"/>
-      <c r="E107" s="53" t="s">
+      <c r="D107" s="65"/>
+      <c r="E107" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F107" s="53"/>
-      <c r="G107" s="55"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="79"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6136,7 +6150,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="9">
-        <f t="shared" ref="K107:K110" si="22">SUM(L107:S107)</f>
+        <f t="shared" ref="K107:K110" si="26">SUM(L107:S107)</f>
         <v>2.5</v>
       </c>
       <c r="L107" s="33"/>
@@ -6151,14 +6165,14 @@
       </c>
       <c r="S107" s="31"/>
     </row>
-    <row r="108" spans="1:19" ht="12" customHeight="1">
-      <c r="A108" s="66"/>
-      <c r="B108" s="56"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="54"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="56"/>
+    <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="74"/>
+      <c r="B108" s="76"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="78"/>
+      <c r="F108" s="78"/>
+      <c r="G108" s="76"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6166,7 +6180,7 @@
       <c r="I108" s="52"/>
       <c r="J108" s="52"/>
       <c r="K108" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L108" s="41"/>
@@ -6178,20 +6192,20 @@
       <c r="R108" s="32"/>
       <c r="S108" s="32"/>
     </row>
-    <row r="109" spans="1:19" ht="12" customHeight="1">
-      <c r="A109" s="65"/>
-      <c r="B109" s="67" t="s">
+    <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="73"/>
+      <c r="B109" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="59" t="s">
+      <c r="C109" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D109" s="61"/>
-      <c r="E109" s="53" t="s">
+      <c r="D109" s="65"/>
+      <c r="E109" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F109" s="53"/>
-      <c r="G109" s="55"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="79"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6203,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="K109" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="L109" s="33"/>
@@ -6218,14 +6232,14 @@
       </c>
       <c r="S109" s="31"/>
     </row>
-    <row r="110" spans="1:19" ht="12" customHeight="1">
-      <c r="A110" s="66"/>
-      <c r="B110" s="56"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="54"/>
-      <c r="F110" s="54"/>
-      <c r="G110" s="56"/>
+    <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="74"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="78"/>
+      <c r="F110" s="78"/>
+      <c r="G110" s="76"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -6233,7 +6247,7 @@
       <c r="I110" s="52"/>
       <c r="J110" s="52"/>
       <c r="K110" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L110" s="41"/>
@@ -6245,7 +6259,7 @@
       <c r="R110" s="32"/>
       <c r="S110" s="32"/>
     </row>
-    <row r="111" spans="1:19" ht="10.5">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
       <c r="L111" s="39"/>
       <c r="M111" s="39"/>
       <c r="N111" s="39"/>
@@ -6254,10 +6268,6 @@
       <c r="R111" s="39"/>
       <c r="S111" s="39"/>
     </row>
-    <row r="112" spans="1:19" ht="10.5"/>
-    <row r="113" ht="10.5"/>
-    <row r="114" ht="10.5"/>
-    <row r="115" ht="10.5"/>
   </sheetData>
   <autoFilter ref="A2:K110" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0" showButton="0"/>
@@ -6265,6 +6275,291 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="309">
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="A97:D98"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:D28"/>
@@ -6289,291 +6584,6 @@
     <mergeCell ref="E73:E74"/>
     <mergeCell ref="G83:G84"/>
     <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="A97:D98"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:S18 L99:S110 L25:S26 M29:S29 L30:S36 L87:S96">
@@ -6679,12 +6689,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6872,15 +6879,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6904,10 +6915,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/00_management/WBSガントチャート_バナナ11.xlsx
+++ b/00_management/WBSガントチャート_バナナ11.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7190044-8B7F-42B1-8D4C-7E63B35B60D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93616906-4E05-4033-9589-64DF67FE35B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="69">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -528,6 +528,10 @@
   <si>
     <t>矢﨑</t>
   </si>
+  <si>
+    <t>1+</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1515,6 +1519,207 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1527,18 +1732,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1547,195 +1740,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2359,10 +2363,10 @@
   <dimension ref="A1:S111"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P58" sqref="P58"/>
+      <selection pane="bottomRight" activeCell="Q70" sqref="Q69:Q70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2381,120 +2385,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="114" t="s">
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="114" t="s">
+      <c r="I1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="114" t="s">
+      <c r="J1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="119" t="s">
+      <c r="K1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="124">
+      <c r="L1" s="85">
         <v>43984</v>
       </c>
-      <c r="M1" s="125"/>
-      <c r="N1" s="124">
+      <c r="M1" s="86"/>
+      <c r="N1" s="85">
         <v>43985</v>
       </c>
-      <c r="O1" s="125"/>
-      <c r="P1" s="124">
+      <c r="O1" s="86"/>
+      <c r="P1" s="85">
         <v>43986</v>
       </c>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="124">
+      <c r="Q1" s="86"/>
+      <c r="R1" s="85">
         <v>43987</v>
       </c>
-      <c r="S1" s="125"/>
+      <c r="S1" s="86"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="128" t="s">
+      <c r="A2" s="111"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="127"/>
-      <c r="N2" s="126" t="s">
+      <c r="M2" s="88"/>
+      <c r="N2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="126"/>
-      <c r="P2" s="129" t="s">
+      <c r="O2" s="87"/>
+      <c r="P2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="126" t="s">
+      <c r="Q2" s="88"/>
+      <c r="R2" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="127"/>
+      <c r="S2" s="88"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="132" t="s">
+      <c r="A3" s="111"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="131"/>
-      <c r="N3" s="130" t="s">
+      <c r="M3" s="92"/>
+      <c r="N3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="131"/>
-      <c r="P3" s="130" t="s">
+      <c r="O3" s="92"/>
+      <c r="P3" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="133" t="s">
+      <c r="Q3" s="92"/>
+      <c r="R3" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="133"/>
+      <c r="S3" s="94"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="121"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="97"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2521,15 +2525,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="122"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="101"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2559,9 +2563,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="27" t="e">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R5" s="27">
         <f t="shared" si="0"/>
@@ -2573,13 +2577,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="123"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2595,7 +2599,7 @@
       </c>
       <c r="M6" s="47">
         <f t="shared" si="1"/>
-        <v>33.75</v>
+        <v>37.25</v>
       </c>
       <c r="N6" s="47">
         <f t="shared" si="1"/>
@@ -2603,11 +2607,11 @@
       </c>
       <c r="O6" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="47">
+        <v>11</v>
+      </c>
+      <c r="P6" s="47" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Q6" s="47">
         <f t="shared" si="1"/>
@@ -2623,15 +2627,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="111"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="122"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2675,13 +2679,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="112"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="123"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2725,21 +2729,21 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="73">
+      <c r="A9" s="72">
         <v>1</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="90" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="90" t="s">
+      <c r="F9" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="71"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v>予定</v>
@@ -2757,13 +2761,13 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="72"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v>実績</v>
@@ -2781,21 +2785,21 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="77" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="79"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="8">
         <v>0.5</v>
       </c>
@@ -2820,13 +2824,13 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="76"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="63"/>
       <c r="H12" s="52">
         <v>0.5</v>
       </c>
@@ -2851,21 +2855,21 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="73"/>
-      <c r="B13" s="75" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="77" t="s">
+      <c r="D13" s="68"/>
+      <c r="E13" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="77" t="s">
+      <c r="F13" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="79"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2892,13 +2896,13 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="74"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="76"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2925,21 +2929,21 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="73">
+      <c r="A15" s="72">
         <v>2</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="90" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="90" t="s">
+      <c r="F15" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="71"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v>予定</v>
@@ -2957,13 +2961,13 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="74"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="72"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v>実績</v>
@@ -2981,21 +2985,21 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="73"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="77" t="s">
+      <c r="D17" s="68"/>
+      <c r="E17" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="77" t="s">
+      <c r="F17" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="79"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3023,13 +3027,13 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="76"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3056,21 +3060,21 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="73"/>
-      <c r="B19" s="75" t="s">
+      <c r="A19" s="72"/>
+      <c r="B19" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="77" t="s">
+      <c r="D19" s="68"/>
+      <c r="E19" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="79"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3097,13 +3101,13 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="74"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="76"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3130,21 +3134,21 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="73"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="72"/>
+      <c r="B21" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="77" t="s">
+      <c r="D21" s="68"/>
+      <c r="E21" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="F21" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="79"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3170,13 +3174,13 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="74"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="76"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3203,17 +3207,17 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="86" t="s">
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="86"/>
-      <c r="G23" s="92"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="125"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3257,13 +3261,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="93"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="126"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3271,7 +3275,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="15">
         <f t="shared" ref="K24:S24" si="6">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L24" s="42">
         <f t="shared" si="6"/>
@@ -3283,7 +3287,7 @@
       </c>
       <c r="N24" s="36">
         <f t="shared" si="6"/>
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="O24" s="36">
         <f t="shared" si="6"/>
@@ -3307,21 +3311,21 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="73">
+      <c r="A25" s="72">
         <v>1</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="90" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="90" t="s">
+      <c r="F25" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="71"/>
+      <c r="G25" s="75"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v>予定</v>
@@ -3339,13 +3343,13 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="74"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="72"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v>実績</v>
@@ -3363,21 +3367,21 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="60"/>
-      <c r="B27" s="62" t="s">
+      <c r="A27" s="127"/>
+      <c r="B27" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="68" t="s">
+      <c r="D27" s="68"/>
+      <c r="E27" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="70"/>
+      <c r="G27" s="133"/>
       <c r="H27" s="53">
         <f>IF(E27="","","予定")</f>
         <v>0</v>
@@ -3403,13 +3407,13 @@
       <c r="S27" s="55"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="61"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="63"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="130"/>
       <c r="H28" s="56">
         <f>IF(E27="","","実績")</f>
         <v>0</v>
@@ -3435,21 +3439,21 @@
       <c r="S28" s="59"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="73"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="72"/>
+      <c r="B29" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="77" t="s">
+      <c r="D29" s="68"/>
+      <c r="E29" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="77" t="s">
+      <c r="F29" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="79"/>
+      <c r="G29" s="62"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3475,13 +3479,13 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="74"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="76"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3508,21 +3512,21 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="73"/>
-      <c r="B31" s="75" t="s">
+      <c r="A31" s="72"/>
+      <c r="B31" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="77" t="s">
+      <c r="D31" s="68"/>
+      <c r="E31" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="77" t="s">
+      <c r="F31" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="79"/>
+      <c r="G31" s="62"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3549,13 +3553,13 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="74"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="76"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3581,21 +3585,21 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="73"/>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="72"/>
+      <c r="B33" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="65"/>
-      <c r="E33" s="77" t="s">
+      <c r="D33" s="68"/>
+      <c r="E33" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="77" t="s">
+      <c r="F33" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="79"/>
+      <c r="G33" s="62"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3622,13 +3626,13 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="74"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="76"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3655,21 +3659,21 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="73">
+      <c r="A35" s="72">
         <v>2</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="90" t="s">
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="90" t="s">
+      <c r="F35" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="71"/>
+      <c r="G35" s="75"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
         <v>予定</v>
@@ -3687,13 +3691,13 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="74"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="72"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="76"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
         <v>実績</v>
@@ -3711,21 +3715,21 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="73"/>
-      <c r="B37" s="75" t="s">
+      <c r="A37" s="72"/>
+      <c r="B37" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="77" t="s">
+      <c r="D37" s="68"/>
+      <c r="E37" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="77" t="s">
+      <c r="F37" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="79"/>
+      <c r="G37" s="62"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3752,13 +3756,13 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="74"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="76"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="63"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3769,12 +3773,12 @@
       <c r="J38" s="52"/>
       <c r="K38" s="10">
         <f>SUM(L38:S38)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L38" s="41"/>
       <c r="M38" s="51"/>
       <c r="N38" s="50">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
@@ -3783,21 +3787,21 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="73"/>
-      <c r="B39" s="75" t="s">
+      <c r="A39" s="72"/>
+      <c r="B39" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="77" t="s">
+      <c r="D39" s="68"/>
+      <c r="E39" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="77" t="s">
+      <c r="F39" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="79"/>
+      <c r="G39" s="62"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3824,13 +3828,13 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="74"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="76"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="63"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3855,21 +3859,21 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="73"/>
-      <c r="B41" s="75" t="s">
+      <c r="A41" s="72"/>
+      <c r="B41" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="77" t="s">
+      <c r="D41" s="68"/>
+      <c r="E41" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="77" t="s">
+      <c r="F41" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="79"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3896,13 +3900,13 @@
       <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="74"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="76"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="63"/>
       <c r="H42" s="52" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3927,15 +3931,15 @@
       <c r="S42" s="32"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="92"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="125"/>
       <c r="H43" s="20" t="s">
         <v>19</v>
       </c>
@@ -3979,13 +3983,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="83"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="93"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="126"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -3993,7 +3997,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$58),2)=0)*K$45:K$58)</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L44" s="36">
         <f t="shared" ref="L44:S44" si="10">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=0)*L$45:L$58)</f>
@@ -4005,7 +4009,7 @@
       </c>
       <c r="N44" s="36">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O44" s="36">
         <f t="shared" si="10"/>
@@ -4013,7 +4017,7 @@
       </c>
       <c r="P44" s="36">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q44" s="36">
         <f t="shared" si="10"/>
@@ -4029,19 +4033,19 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="73">
+      <c r="A45" s="72">
         <v>1</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="88"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="90" t="s">
+      <c r="C45" s="67"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="90"/>
-      <c r="G45" s="71"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="75"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -4059,13 +4063,13 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="74"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="72"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="76"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
@@ -4083,19 +4087,19 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="73"/>
-      <c r="B47" s="75" t="s">
+      <c r="A47" s="72"/>
+      <c r="B47" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="65"/>
-      <c r="E47" s="77" t="s">
+      <c r="D47" s="68"/>
+      <c r="E47" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="77"/>
-      <c r="G47" s="79"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="62"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4123,13 +4127,13 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="74"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="76"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="63"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4152,19 +4156,19 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="73"/>
-      <c r="B49" s="75" t="s">
+      <c r="A49" s="72"/>
+      <c r="B49" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="64" t="s">
+      <c r="C49" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="65"/>
-      <c r="E49" s="77" t="s">
+      <c r="D49" s="68"/>
+      <c r="E49" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="77"/>
-      <c r="G49" s="79"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="62"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4195,13 +4199,13 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="74"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="76"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="63"/>
       <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4224,19 +4228,19 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="73">
+      <c r="A51" s="72">
         <v>2</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="88"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="90" t="s">
+      <c r="C51" s="67"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="90"/>
-      <c r="G51" s="71"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="75"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4254,13 +4258,13 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="74"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="91"/>
-      <c r="F52" s="91"/>
-      <c r="G52" s="72"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="76"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4278,19 +4282,19 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="73"/>
-      <c r="B53" s="75" t="s">
+      <c r="A53" s="72"/>
+      <c r="B53" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="77" t="s">
+      <c r="D53" s="68"/>
+      <c r="E53" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="77"/>
-      <c r="G53" s="79"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="62"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4316,13 +4320,13 @@
       <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="74"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="76"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="63"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4331,31 +4335,35 @@
       <c r="J54" s="52"/>
       <c r="K54" s="10">
         <f t="shared" ref="K54:K58" si="11">SUM(L54:S54)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L54" s="41"/>
       <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
+      <c r="N54" s="32">
+        <v>3</v>
+      </c>
       <c r="O54" s="32"/>
-      <c r="P54" s="32"/>
+      <c r="P54" s="32">
+        <v>1</v>
+      </c>
       <c r="Q54" s="32"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="73"/>
-      <c r="B55" s="75" t="s">
+      <c r="A55" s="72"/>
+      <c r="B55" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="C55" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="65"/>
-      <c r="E55" s="77" t="s">
+      <c r="D55" s="68"/>
+      <c r="E55" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="77"/>
-      <c r="G55" s="79"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="62"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4383,13 +4391,13 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="74"/>
-      <c r="B56" s="76"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="76"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="63"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4398,7 +4406,7 @@
       <c r="J56" s="52"/>
       <c r="K56" s="10">
         <f t="shared" si="11"/>
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="L56" s="41"/>
       <c r="M56" s="32"/>
@@ -4406,25 +4414,27 @@
         <v>7.5</v>
       </c>
       <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
+      <c r="P56" s="32">
+        <v>1</v>
+      </c>
       <c r="Q56" s="32"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="73"/>
-      <c r="B57" s="75" t="s">
+      <c r="A57" s="72"/>
+      <c r="B57" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="64" t="s">
+      <c r="C57" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="65"/>
-      <c r="E57" s="77" t="s">
+      <c r="D57" s="68"/>
+      <c r="E57" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="77"/>
-      <c r="G57" s="79"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="62"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4450,13 +4460,13 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="74"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="76"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="63"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4465,7 +4475,7 @@
       <c r="J58" s="52"/>
       <c r="K58" s="10">
         <f t="shared" si="11"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L58" s="43"/>
       <c r="M58" s="44"/>
@@ -4473,21 +4483,23 @@
         <v>0.5</v>
       </c>
       <c r="O58" s="44"/>
-      <c r="P58" s="44"/>
+      <c r="P58" s="44">
+        <v>1</v>
+      </c>
       <c r="Q58" s="44"/>
       <c r="R58" s="44"/>
       <c r="S58" s="44"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="80" t="s">
+      <c r="A59" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="81"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="92"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="125"/>
       <c r="H59" s="20" t="s">
         <v>19</v>
       </c>
@@ -4517,9 +4529,9 @@
         <f t="shared" ref="P59:S59" si="13">SUMPRODUCT((MOD(ROW(P$61:P$76),2)=1)*P$61:P$76)</f>
         <v>8</v>
       </c>
-      <c r="Q59" s="35">
+      <c r="Q59" s="35" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R59" s="35">
         <f t="shared" si="13"/>
@@ -4531,13 +4543,13 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="83"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="93"/>
+      <c r="A60" s="82"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="126"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4545,7 +4557,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L60" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$61:L$76),2)=0)*L$61:L$76)</f>
@@ -4565,11 +4577,11 @@
       </c>
       <c r="P60" s="36">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="36">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="36" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R60" s="36">
         <f t="shared" si="14"/>
@@ -4581,17 +4593,17 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="73">
+      <c r="A61" s="72">
         <v>1</v>
       </c>
-      <c r="B61" s="64" t="s">
+      <c r="B61" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="88"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="71"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="75"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -4609,13 +4621,13 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="74"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="72"/>
+      <c r="A62" s="73"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="76"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -4633,19 +4645,19 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="73"/>
-      <c r="B63" s="75" t="s">
+      <c r="A63" s="72"/>
+      <c r="B63" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="64" t="s">
+      <c r="C63" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="65"/>
-      <c r="E63" s="77" t="s">
+      <c r="D63" s="68"/>
+      <c r="E63" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="77"/>
-      <c r="G63" s="79"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="62"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4676,13 +4688,13 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="74"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="76"/>
+      <c r="A64" s="73"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="63"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4691,31 +4703,35 @@
       <c r="J64" s="52"/>
       <c r="K64" s="10">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L64" s="41"/>
       <c r="M64" s="32"/>
       <c r="N64" s="32"/>
       <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
+      <c r="P64" s="32">
+        <v>8</v>
+      </c>
+      <c r="Q64" s="32">
+        <v>5</v>
+      </c>
       <c r="R64" s="32"/>
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="73"/>
-      <c r="B65" s="75" t="s">
+      <c r="A65" s="72"/>
+      <c r="B65" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="64" t="s">
+      <c r="C65" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="65"/>
-      <c r="E65" s="77" t="s">
+      <c r="D65" s="68"/>
+      <c r="E65" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="77"/>
-      <c r="G65" s="79"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="62"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4742,13 +4758,13 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="74"/>
-      <c r="B66" s="76"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="76"/>
+      <c r="A66" s="73"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="63"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4757,31 +4773,33 @@
       <c r="J66" s="52"/>
       <c r="K66" s="10">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L66" s="41"/>
       <c r="M66" s="32"/>
       <c r="N66" s="32"/>
       <c r="O66" s="32"/>
       <c r="P66" s="32"/>
-      <c r="Q66" s="32"/>
+      <c r="Q66" s="32">
+        <v>11</v>
+      </c>
       <c r="R66" s="32"/>
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="73"/>
-      <c r="B67" s="75" t="s">
+      <c r="A67" s="72"/>
+      <c r="B67" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="64" t="s">
+      <c r="C67" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="65"/>
-      <c r="E67" s="77" t="s">
+      <c r="D67" s="68"/>
+      <c r="E67" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="77"/>
-      <c r="G67" s="79"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="62"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4809,13 +4827,13 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="74"/>
-      <c r="B68" s="76"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="76"/>
+      <c r="A68" s="73"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="63"/>
       <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4831,22 +4849,24 @@
       <c r="N68" s="32"/>
       <c r="O68" s="32"/>
       <c r="P68" s="32"/>
-      <c r="Q68" s="32"/>
+      <c r="Q68" s="32" t="s">
+        <v>68</v>
+      </c>
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="73">
+      <c r="A69" s="72">
         <v>2</v>
       </c>
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="88"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="90"/>
-      <c r="F69" s="90"/>
-      <c r="G69" s="71"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="75"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -4864,13 +4884,13 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="74"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="89"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="91"/>
-      <c r="F70" s="91"/>
-      <c r="G70" s="72"/>
+      <c r="A70" s="73"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="76"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -4888,19 +4908,19 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="73"/>
-      <c r="B71" s="75" t="s">
+      <c r="A71" s="72"/>
+      <c r="B71" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="64" t="s">
+      <c r="C71" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="65"/>
-      <c r="E71" s="77" t="s">
+      <c r="D71" s="68"/>
+      <c r="E71" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="77"/>
-      <c r="G71" s="79"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="62"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
@@ -4928,13 +4948,13 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="74"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="78"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="76"/>
+      <c r="A72" s="73"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="63"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -4950,24 +4970,26 @@
       <c r="N72" s="32"/>
       <c r="O72" s="32"/>
       <c r="P72" s="32"/>
-      <c r="Q72" s="32"/>
+      <c r="Q72" s="32" t="s">
+        <v>68</v>
+      </c>
       <c r="R72" s="32"/>
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="73"/>
-      <c r="B73" s="75" t="s">
+      <c r="A73" s="72"/>
+      <c r="B73" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="64" t="s">
+      <c r="C73" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="65"/>
-      <c r="E73" s="77" t="s">
+      <c r="D73" s="68"/>
+      <c r="E73" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="77"/>
-      <c r="G73" s="79"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="62"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4995,13 +5017,13 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="74"/>
-      <c r="B74" s="76"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="78"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="76"/>
+      <c r="A74" s="73"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="63"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5022,19 +5044,19 @@
       <c r="S74" s="32"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="73"/>
-      <c r="B75" s="75" t="s">
+      <c r="A75" s="72"/>
+      <c r="B75" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="64" t="s">
+      <c r="C75" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="65"/>
-      <c r="E75" s="77" t="s">
+      <c r="D75" s="68"/>
+      <c r="E75" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F75" s="77"/>
-      <c r="G75" s="79"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="62"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5062,13 +5084,13 @@
       <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="74"/>
-      <c r="B76" s="76"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="78"/>
-      <c r="F76" s="78"/>
-      <c r="G76" s="76"/>
+      <c r="A76" s="73"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="63"/>
       <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5089,15 +5111,15 @@
       <c r="S76" s="44"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="80" t="s">
+      <c r="A77" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="81"/>
-      <c r="C77" s="81"/>
-      <c r="D77" s="82"/>
-      <c r="E77" s="86"/>
-      <c r="F77" s="86"/>
-      <c r="G77" s="92"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="125"/>
       <c r="H77" s="20" t="s">
         <v>19</v>
       </c>
@@ -5141,13 +5163,13 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="83"/>
-      <c r="B78" s="84"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="85"/>
-      <c r="E78" s="87"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="93"/>
+      <c r="A78" s="82"/>
+      <c r="B78" s="83"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="78"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="126"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5191,17 +5213,17 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="73">
+      <c r="A79" s="72">
         <v>1</v>
       </c>
-      <c r="B79" s="64" t="s">
+      <c r="B79" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="88"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="71"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="75"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -5219,13 +5241,13 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="74"/>
-      <c r="B80" s="66"/>
-      <c r="C80" s="89"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="91"/>
-      <c r="G80" s="72"/>
+      <c r="A80" s="73"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="76"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -5243,19 +5265,19 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="73"/>
-      <c r="B81" s="75" t="s">
+      <c r="A81" s="72"/>
+      <c r="B81" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C81" s="64" t="s">
+      <c r="C81" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="65"/>
-      <c r="E81" s="77" t="s">
+      <c r="D81" s="68"/>
+      <c r="E81" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="77"/>
-      <c r="G81" s="79"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="62"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5286,13 +5308,13 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="74"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="78"/>
-      <c r="F82" s="78"/>
-      <c r="G82" s="76"/>
+      <c r="A82" s="73"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="63"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5313,19 +5335,19 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="73"/>
-      <c r="B83" s="75" t="s">
+      <c r="A83" s="72"/>
+      <c r="B83" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="64" t="s">
+      <c r="C83" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="65"/>
-      <c r="E83" s="77" t="s">
+      <c r="D83" s="68"/>
+      <c r="E83" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F83" s="77"/>
-      <c r="G83" s="79"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="62"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5353,13 +5375,13 @@
       <c r="S83" s="31"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="74"/>
-      <c r="B84" s="76"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="78"/>
-      <c r="F84" s="78"/>
-      <c r="G84" s="76"/>
+      <c r="A84" s="73"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="63"/>
       <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5380,15 +5402,15 @@
       <c r="S84" s="32"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="80" t="s">
+      <c r="A85" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="81"/>
-      <c r="C85" s="81"/>
-      <c r="D85" s="82"/>
-      <c r="E85" s="86"/>
-      <c r="F85" s="86"/>
-      <c r="G85" s="92"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="125"/>
       <c r="H85" s="20" t="s">
         <v>19</v>
       </c>
@@ -5432,13 +5454,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="83"/>
-      <c r="B86" s="84"/>
-      <c r="C86" s="84"/>
-      <c r="D86" s="85"/>
-      <c r="E86" s="87"/>
-      <c r="F86" s="87"/>
-      <c r="G86" s="93"/>
+      <c r="A86" s="82"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="78"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="126"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5482,17 +5504,17 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="73">
+      <c r="A87" s="72">
         <v>1</v>
       </c>
-      <c r="B87" s="64" t="s">
+      <c r="B87" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C87" s="88"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="90"/>
-      <c r="F87" s="90"/>
-      <c r="G87" s="71"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="75"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5510,13 +5532,13 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="74"/>
-      <c r="B88" s="66"/>
-      <c r="C88" s="89"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="91"/>
-      <c r="F88" s="91"/>
-      <c r="G88" s="72"/>
+      <c r="A88" s="73"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="70"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="76"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5534,19 +5556,19 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="73"/>
-      <c r="B89" s="75" t="s">
+      <c r="A89" s="72"/>
+      <c r="B89" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="64" t="s">
+      <c r="C89" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="65"/>
-      <c r="E89" s="77" t="s">
+      <c r="D89" s="68"/>
+      <c r="E89" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="77"/>
-      <c r="G89" s="79"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="62"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5574,13 +5596,13 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="74"/>
-      <c r="B90" s="76"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="78"/>
-      <c r="F90" s="78"/>
-      <c r="G90" s="76"/>
+      <c r="A90" s="73"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="63"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5601,17 +5623,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="73">
+      <c r="A91" s="72">
         <v>2</v>
       </c>
-      <c r="B91" s="64" t="s">
+      <c r="B91" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="88"/>
-      <c r="D91" s="65"/>
-      <c r="E91" s="90"/>
-      <c r="F91" s="90"/>
-      <c r="G91" s="71"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="75"/>
       <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5629,13 +5651,13 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="74"/>
-      <c r="B92" s="66"/>
-      <c r="C92" s="89"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="91"/>
-      <c r="F92" s="91"/>
-      <c r="G92" s="72"/>
+      <c r="A92" s="73"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="70"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="76"/>
       <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5653,19 +5675,19 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="73"/>
-      <c r="B93" s="75" t="s">
+      <c r="A93" s="72"/>
+      <c r="B93" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="64" t="s">
+      <c r="C93" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="65"/>
-      <c r="E93" s="77" t="s">
+      <c r="D93" s="68"/>
+      <c r="E93" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="77"/>
-      <c r="G93" s="79"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="62"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -5693,13 +5715,13 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="74"/>
-      <c r="B94" s="76"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="67"/>
-      <c r="E94" s="78"/>
-      <c r="F94" s="78"/>
-      <c r="G94" s="76"/>
+      <c r="A94" s="73"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="61"/>
+      <c r="G94" s="63"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -5720,19 +5742,19 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="73"/>
-      <c r="B95" s="75" t="s">
+      <c r="A95" s="72"/>
+      <c r="B95" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="64" t="s">
+      <c r="C95" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D95" s="65"/>
-      <c r="E95" s="77" t="s">
+      <c r="D95" s="68"/>
+      <c r="E95" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="77"/>
-      <c r="G95" s="79"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="62"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5759,13 +5781,13 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="74"/>
-      <c r="B96" s="76"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="78"/>
-      <c r="F96" s="78"/>
-      <c r="G96" s="76"/>
+      <c r="A96" s="73"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="71"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="61"/>
+      <c r="G96" s="63"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -5786,15 +5808,15 @@
       <c r="S96" s="44"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="80" t="s">
+      <c r="A97" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="81"/>
-      <c r="C97" s="81"/>
-      <c r="D97" s="82"/>
-      <c r="E97" s="86"/>
-      <c r="F97" s="86"/>
-      <c r="G97" s="92"/>
+      <c r="B97" s="80"/>
+      <c r="C97" s="80"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="125"/>
       <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
@@ -5838,13 +5860,13 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="83"/>
-      <c r="B98" s="84"/>
-      <c r="C98" s="84"/>
-      <c r="D98" s="85"/>
-      <c r="E98" s="87"/>
-      <c r="F98" s="87"/>
-      <c r="G98" s="93"/>
+      <c r="A98" s="82"/>
+      <c r="B98" s="83"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="84"/>
+      <c r="E98" s="78"/>
+      <c r="F98" s="78"/>
+      <c r="G98" s="126"/>
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
@@ -5888,17 +5910,17 @@
       </c>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="73">
+      <c r="A99" s="72">
         <v>1</v>
       </c>
-      <c r="B99" s="64" t="s">
+      <c r="B99" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C99" s="88"/>
-      <c r="D99" s="65"/>
-      <c r="E99" s="90"/>
-      <c r="F99" s="90"/>
-      <c r="G99" s="71"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="75"/>
       <c r="H99" s="23" t="str">
         <f>IF(E99="","","予定")</f>
         <v/>
@@ -5916,13 +5938,13 @@
       <c r="S99" s="31"/>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="74"/>
-      <c r="B100" s="66"/>
-      <c r="C100" s="89"/>
-      <c r="D100" s="67"/>
-      <c r="E100" s="91"/>
-      <c r="F100" s="91"/>
-      <c r="G100" s="72"/>
+      <c r="A100" s="73"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="76"/>
       <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
         <v/>
@@ -5940,19 +5962,19 @@
       <c r="S100" s="32"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="73"/>
-      <c r="B101" s="75" t="s">
+      <c r="A101" s="72"/>
+      <c r="B101" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="64" t="s">
+      <c r="C101" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="65"/>
-      <c r="E101" s="77" t="s">
+      <c r="D101" s="68"/>
+      <c r="E101" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="77"/>
-      <c r="G101" s="79"/>
+      <c r="F101" s="60"/>
+      <c r="G101" s="62"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -5980,13 +6002,13 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="74"/>
-      <c r="B102" s="76"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="78"/>
-      <c r="F102" s="78"/>
-      <c r="G102" s="76"/>
+      <c r="A102" s="73"/>
+      <c r="B102" s="63"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="71"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="63"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -6007,19 +6029,19 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="73"/>
-      <c r="B103" s="75" t="s">
+      <c r="A103" s="72"/>
+      <c r="B103" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="64" t="s">
+      <c r="C103" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="65"/>
-      <c r="E103" s="77" t="s">
+      <c r="D103" s="68"/>
+      <c r="E103" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="77"/>
-      <c r="G103" s="79"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="62"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6047,13 +6069,13 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="74"/>
-      <c r="B104" s="76"/>
-      <c r="C104" s="66"/>
-      <c r="D104" s="67"/>
-      <c r="E104" s="78"/>
-      <c r="F104" s="78"/>
-      <c r="G104" s="76"/>
+      <c r="A104" s="73"/>
+      <c r="B104" s="63"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="71"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="63"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6074,17 +6096,17 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="73">
+      <c r="A105" s="72">
         <v>2</v>
       </c>
-      <c r="B105" s="64" t="s">
+      <c r="B105" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="88"/>
-      <c r="D105" s="65"/>
-      <c r="E105" s="90"/>
-      <c r="F105" s="90"/>
-      <c r="G105" s="71"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="75"/>
       <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -6102,13 +6124,13 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="74"/>
-      <c r="B106" s="66"/>
-      <c r="C106" s="89"/>
-      <c r="D106" s="67"/>
-      <c r="E106" s="91"/>
-      <c r="F106" s="91"/>
-      <c r="G106" s="72"/>
+      <c r="A106" s="73"/>
+      <c r="B106" s="69"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="71"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="76"/>
       <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -6126,19 +6148,19 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="73"/>
-      <c r="B107" s="75" t="s">
+      <c r="A107" s="72"/>
+      <c r="B107" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="64" t="s">
+      <c r="C107" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="65"/>
-      <c r="E107" s="77" t="s">
+      <c r="D107" s="68"/>
+      <c r="E107" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F107" s="77"/>
-      <c r="G107" s="79"/>
+      <c r="F107" s="60"/>
+      <c r="G107" s="62"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6166,13 +6188,13 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="74"/>
-      <c r="B108" s="76"/>
-      <c r="C108" s="66"/>
-      <c r="D108" s="67"/>
-      <c r="E108" s="78"/>
-      <c r="F108" s="78"/>
-      <c r="G108" s="76"/>
+      <c r="A108" s="73"/>
+      <c r="B108" s="63"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="71"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="63"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6193,19 +6215,19 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="73"/>
-      <c r="B109" s="75" t="s">
+      <c r="A109" s="72"/>
+      <c r="B109" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="64" t="s">
+      <c r="C109" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D109" s="65"/>
-      <c r="E109" s="77" t="s">
+      <c r="D109" s="68"/>
+      <c r="E109" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F109" s="77"/>
-      <c r="G109" s="79"/>
+      <c r="F109" s="60"/>
+      <c r="G109" s="62"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6233,13 +6255,13 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="74"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="78"/>
-      <c r="F110" s="78"/>
-      <c r="G110" s="76"/>
+      <c r="A110" s="73"/>
+      <c r="B110" s="63"/>
+      <c r="C110" s="69"/>
+      <c r="D110" s="71"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
+      <c r="G110" s="63"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -6275,16 +6297,281 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="309">
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="C41:D42"/>
     <mergeCell ref="E41:E42"/>
@@ -6309,281 +6596,16 @@
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="C101:D102"/>
     <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:S18 L99:S110 L25:S26 M29:S29 L30:S36 L87:S96">
@@ -6695,6 +6717,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6878,15 +6909,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
@@ -6897,6 +6919,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2E3E761-B6CF-4176-A3CC-D1E7FA487AE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6912,12 +6942,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00_management/WBSガントチャート_バナナ11.xlsx
+++ b/00_management/WBSガントチャート_バナナ11.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93616906-4E05-4033-9589-64DF67FE35B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04DA8C5-EB3B-45BF-85A3-97EB509D1D12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="68">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -528,10 +528,6 @@
   <si>
     <t>矢﨑</t>
   </si>
-  <si>
-    <t>1+</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
@@ -1520,6 +1516,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1528,7 +1542,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1537,62 +1584,113 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1633,113 +1731,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2363,10 +2359,10 @@
   <dimension ref="A1:S111"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q70" sqref="Q69:Q70"/>
+      <selection pane="bottomRight" activeCell="R74" sqref="R74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2385,120 +2381,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="105" t="s">
+      <c r="A1" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="105" t="s">
+      <c r="I1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="105" t="s">
+      <c r="J1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="95" t="s">
+      <c r="K1" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="85">
+      <c r="L1" s="119">
         <v>43984</v>
       </c>
-      <c r="M1" s="86"/>
-      <c r="N1" s="85">
+      <c r="M1" s="120"/>
+      <c r="N1" s="119">
         <v>43985</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="85">
+      <c r="O1" s="120"/>
+      <c r="P1" s="119">
         <v>43986</v>
       </c>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="85">
+      <c r="Q1" s="120"/>
+      <c r="R1" s="119">
         <v>43987</v>
       </c>
-      <c r="S1" s="86"/>
+      <c r="S1" s="120"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="111"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="89" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="88"/>
-      <c r="N2" s="87" t="s">
+      <c r="M2" s="122"/>
+      <c r="N2" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="87"/>
-      <c r="P2" s="90" t="s">
+      <c r="O2" s="121"/>
+      <c r="P2" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="87" t="s">
+      <c r="Q2" s="122"/>
+      <c r="R2" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="88"/>
+      <c r="S2" s="122"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="111"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="93" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="92"/>
-      <c r="N3" s="91" t="s">
+      <c r="M3" s="126"/>
+      <c r="N3" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="92"/>
-      <c r="P3" s="91" t="s">
+      <c r="O3" s="126"/>
+      <c r="P3" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="94" t="s">
+      <c r="Q3" s="126"/>
+      <c r="R3" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="94"/>
+      <c r="S3" s="128"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="112"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="97"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="131"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2525,15 +2521,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="101"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="132"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2563,9 +2559,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="Q5" s="27" t="e">
+      <c r="Q5" s="27">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>15</v>
       </c>
       <c r="R5" s="27">
         <f t="shared" si="0"/>
@@ -2577,13 +2573,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="116"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="102"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="133"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2609,17 +2605,17 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="P6" s="47" t="e">
+      <c r="P6" s="47">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R6" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="S6" s="47">
         <f t="shared" si="1"/>
@@ -2627,15 +2623,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="122"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="116"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2679,13 +2675,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="123"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="117"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2729,18 +2725,18 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72">
+      <c r="A9" s="77">
         <v>1</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="64" t="s">
+      <c r="C9" s="79"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="81" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="75"/>
@@ -2761,12 +2757,12 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="76"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2785,21 +2781,21 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="74" t="s">
+      <c r="A11" s="77"/>
+      <c r="B11" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="60" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="62"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="8">
         <v>0.5</v>
       </c>
@@ -2824,13 +2820,13 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="63"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="52">
         <v>0.5</v>
       </c>
@@ -2855,21 +2851,21 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="74" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="60" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="62"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2896,13 +2892,13 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="63"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="61"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2929,18 +2925,18 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="72">
+      <c r="A15" s="77">
         <v>2</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="64" t="s">
+      <c r="C15" s="79"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="81" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="75"/>
@@ -2961,12 +2957,12 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="73"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="76"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
@@ -2985,21 +2981,21 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="74" t="s">
+      <c r="A17" s="77"/>
+      <c r="B17" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="60" t="s">
+      <c r="D17" s="63"/>
+      <c r="E17" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="62"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3027,13 +3023,13 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="63"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3060,21 +3056,21 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
-      <c r="B19" s="74" t="s">
+      <c r="A19" s="77"/>
+      <c r="B19" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="60" t="s">
+      <c r="D19" s="63"/>
+      <c r="E19" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="62"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3101,13 +3097,13 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="73"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="63"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3134,21 +3130,21 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="74" t="s">
+      <c r="A21" s="77"/>
+      <c r="B21" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="60" t="s">
+      <c r="D21" s="63"/>
+      <c r="E21" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="62"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3174,13 +3170,13 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="63"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3207,17 +3203,17 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="77" t="s">
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="77"/>
-      <c r="G23" s="125"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3261,13 +3257,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="82"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="126"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="86"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3311,18 +3307,18 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="72">
+      <c r="A25" s="77">
         <v>1</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="64" t="s">
+      <c r="C25" s="79"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="64" t="s">
+      <c r="F25" s="81" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="75"/>
@@ -3343,12 +3339,12 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
       <c r="G26" s="76"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3367,21 +3363,21 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="127"/>
-      <c r="B27" s="129" t="s">
+      <c r="A27" s="87"/>
+      <c r="B27" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="131" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="131" t="s">
+      <c r="F27" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="133"/>
+      <c r="G27" s="93"/>
       <c r="H27" s="53">
         <f>IF(E27="","","予定")</f>
         <v>0</v>
@@ -3407,13 +3403,13 @@
       <c r="S27" s="55"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="128"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="130"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="90"/>
       <c r="H28" s="56">
         <f>IF(E27="","","実績")</f>
         <v>0</v>
@@ -3439,21 +3435,21 @@
       <c r="S28" s="59"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
-      <c r="B29" s="74" t="s">
+      <c r="A29" s="77"/>
+      <c r="B29" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="60" t="s">
+      <c r="D29" s="63"/>
+      <c r="E29" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="62"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3479,13 +3475,13 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="73"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="63"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="61"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3512,21 +3508,21 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
-      <c r="B31" s="74" t="s">
+      <c r="A31" s="77"/>
+      <c r="B31" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="60" t="s">
+      <c r="D31" s="63"/>
+      <c r="E31" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="62"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3553,13 +3549,13 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="63"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="61"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3585,21 +3581,21 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
-      <c r="B33" s="74" t="s">
+      <c r="A33" s="77"/>
+      <c r="B33" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="68"/>
-      <c r="E33" s="60" t="s">
+      <c r="D33" s="63"/>
+      <c r="E33" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="62"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3626,13 +3622,13 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="73"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="63"/>
+      <c r="A34" s="78"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="61"/>
       <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3659,18 +3655,18 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="72">
+      <c r="A35" s="77">
         <v>2</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="64" t="s">
+      <c r="C35" s="79"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="64" t="s">
+      <c r="F35" s="81" t="s">
         <v>38</v>
       </c>
       <c r="G35" s="75"/>
@@ -3691,12 +3687,12 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="73"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
+      <c r="A36" s="78"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
       <c r="G36" s="76"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3715,21 +3711,21 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="72"/>
-      <c r="B37" s="74" t="s">
+      <c r="A37" s="77"/>
+      <c r="B37" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="68"/>
-      <c r="E37" s="60" t="s">
+      <c r="D37" s="63"/>
+      <c r="E37" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="62"/>
+      <c r="G37" s="68"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3756,13 +3752,13 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="73"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="63"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="61"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3787,21 +3783,21 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="72"/>
-      <c r="B39" s="74" t="s">
+      <c r="A39" s="77"/>
+      <c r="B39" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="68"/>
-      <c r="E39" s="60" t="s">
+      <c r="D39" s="63"/>
+      <c r="E39" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="60" t="s">
+      <c r="F39" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="62"/>
+      <c r="G39" s="68"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3828,13 +3824,13 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="73"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="63"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="61"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3859,21 +3855,21 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="72"/>
-      <c r="B41" s="74" t="s">
+      <c r="A41" s="77"/>
+      <c r="B41" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="68"/>
-      <c r="E41" s="60" t="s">
+      <c r="D41" s="63"/>
+      <c r="E41" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="60" t="s">
+      <c r="F41" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="62"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3900,13 +3896,13 @@
       <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="73"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="63"/>
+      <c r="A42" s="78"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="61"/>
       <c r="H42" s="52" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3931,15 +3927,15 @@
       <c r="S42" s="32"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="79" t="s">
+      <c r="A43" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="125"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="85"/>
       <c r="H43" s="20" t="s">
         <v>19</v>
       </c>
@@ -3983,13 +3979,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="82"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="126"/>
+      <c r="A44" s="72"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="86"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -4033,18 +4029,18 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="72">
+      <c r="A45" s="77">
         <v>1</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="64" t="s">
+      <c r="C45" s="79"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="64"/>
+      <c r="F45" s="81"/>
       <c r="G45" s="75"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
@@ -4063,12 +4059,12 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="73"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
       <c r="G46" s="76"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
@@ -4087,19 +4083,19 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="72"/>
-      <c r="B47" s="74" t="s">
+      <c r="A47" s="77"/>
+      <c r="B47" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="60" t="s">
+      <c r="D47" s="63"/>
+      <c r="E47" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="60"/>
-      <c r="G47" s="62"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="68"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4127,13 +4123,13 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="73"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="63"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="61"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4156,19 +4152,19 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="72"/>
-      <c r="B49" s="74" t="s">
+      <c r="A49" s="77"/>
+      <c r="B49" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="68"/>
-      <c r="E49" s="60" t="s">
+      <c r="D49" s="63"/>
+      <c r="E49" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="60"/>
-      <c r="G49" s="62"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="68"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4199,13 +4195,13 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="73"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="63"/>
+      <c r="A50" s="78"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="61"/>
       <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4228,18 +4224,18 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="72">
+      <c r="A51" s="77">
         <v>2</v>
       </c>
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="64" t="s">
+      <c r="C51" s="79"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="64"/>
+      <c r="F51" s="81"/>
       <c r="G51" s="75"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4258,12 +4254,12 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="73"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
+      <c r="A52" s="78"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
       <c r="G52" s="76"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4282,19 +4278,19 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="72"/>
-      <c r="B53" s="74" t="s">
+      <c r="A53" s="77"/>
+      <c r="B53" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="68"/>
-      <c r="E53" s="60" t="s">
+      <c r="D53" s="63"/>
+      <c r="E53" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="60"/>
-      <c r="G53" s="62"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="68"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4320,13 +4316,13 @@
       <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="73"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="63"/>
+      <c r="A54" s="78"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="61"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4351,19 +4347,19 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="72"/>
-      <c r="B55" s="74" t="s">
+      <c r="A55" s="77"/>
+      <c r="B55" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="68"/>
-      <c r="E55" s="60" t="s">
+      <c r="D55" s="63"/>
+      <c r="E55" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="60"/>
-      <c r="G55" s="62"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="68"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4391,13 +4387,13 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="73"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="63"/>
+      <c r="A56" s="78"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="61"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4422,19 +4418,19 @@
       <c r="S56" s="32"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="72"/>
-      <c r="B57" s="74" t="s">
+      <c r="A57" s="77"/>
+      <c r="B57" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="68"/>
-      <c r="E57" s="60" t="s">
+      <c r="D57" s="63"/>
+      <c r="E57" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="60"/>
-      <c r="G57" s="62"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="68"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4460,13 +4456,13 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="73"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="63"/>
+      <c r="A58" s="78"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="61"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4491,15 +4487,15 @@
       <c r="S58" s="44"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="79" t="s">
+      <c r="A59" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="80"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="125"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="85"/>
       <c r="H59" s="20" t="s">
         <v>19</v>
       </c>
@@ -4529,9 +4525,9 @@
         <f t="shared" ref="P59:S59" si="13">SUMPRODUCT((MOD(ROW(P$61:P$76),2)=1)*P$61:P$76)</f>
         <v>8</v>
       </c>
-      <c r="Q59" s="35" t="e">
+      <c r="Q59" s="35">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="R59" s="35">
         <f t="shared" si="13"/>
@@ -4543,13 +4539,13 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="82"/>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="126"/>
+      <c r="A60" s="72"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="86"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4557,7 +4553,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
-        <v>24</v>
+        <v>57.5</v>
       </c>
       <c r="L60" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$61:L$76),2)=0)*L$61:L$76)</f>
@@ -4579,30 +4575,30 @@
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="Q60" s="36" t="e">
+      <c r="Q60" s="36">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>16</v>
       </c>
       <c r="R60" s="36">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S60" s="36">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="72">
+      <c r="A61" s="77">
         <v>1</v>
       </c>
-      <c r="B61" s="66" t="s">
+      <c r="B61" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="67"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
       <c r="G61" s="75"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4621,12 +4617,12 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="73"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
+      <c r="A62" s="78"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="82"/>
       <c r="G62" s="76"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4645,19 +4641,19 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="72"/>
-      <c r="B63" s="74" t="s">
+      <c r="A63" s="77"/>
+      <c r="B63" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="66" t="s">
+      <c r="C63" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="68"/>
-      <c r="E63" s="60" t="s">
+      <c r="D63" s="63"/>
+      <c r="E63" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="60"/>
-      <c r="G63" s="62"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="68"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4688,13 +4684,13 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="73"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="63"/>
+      <c r="A64" s="78"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="61"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4719,19 +4715,19 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="72"/>
-      <c r="B65" s="74" t="s">
+      <c r="A65" s="77"/>
+      <c r="B65" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="66" t="s">
+      <c r="C65" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="68"/>
-      <c r="E65" s="60" t="s">
+      <c r="D65" s="63"/>
+      <c r="E65" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="60"/>
-      <c r="G65" s="62"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="68"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4758,13 +4754,13 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="73"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="63"/>
+      <c r="A66" s="78"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="61"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4787,19 +4783,19 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="72"/>
-      <c r="B67" s="74" t="s">
+      <c r="A67" s="77"/>
+      <c r="B67" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="66" t="s">
+      <c r="C67" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="68"/>
-      <c r="E67" s="60" t="s">
+      <c r="D67" s="63"/>
+      <c r="E67" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="62"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="68"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4827,13 +4823,13 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="73"/>
-      <c r="B68" s="63"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="63"/>
+      <c r="A68" s="78"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="61"/>
       <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4842,30 +4838,32 @@
       <c r="J68" s="52"/>
       <c r="K68" s="10">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L68" s="41"/>
       <c r="M68" s="32"/>
       <c r="N68" s="32"/>
       <c r="O68" s="32"/>
       <c r="P68" s="32"/>
-      <c r="Q68" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="R68" s="32"/>
-      <c r="S68" s="32"/>
+      <c r="Q68" s="32"/>
+      <c r="R68" s="32">
+        <v>6</v>
+      </c>
+      <c r="S68" s="32">
+        <v>9</v>
+      </c>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="72">
+      <c r="A69" s="77">
         <v>2</v>
       </c>
-      <c r="B69" s="66" t="s">
+      <c r="B69" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="67"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
       <c r="G69" s="75"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4884,12 +4882,12 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="73"/>
-      <c r="B70" s="69"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
+      <c r="A70" s="78"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
       <c r="G70" s="76"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4908,19 +4906,19 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="72"/>
-      <c r="B71" s="74" t="s">
+      <c r="A71" s="77"/>
+      <c r="B71" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="66" t="s">
+      <c r="C71" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="68"/>
-      <c r="E71" s="60" t="s">
+      <c r="D71" s="63"/>
+      <c r="E71" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="60"/>
-      <c r="G71" s="62"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="68"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
@@ -4948,13 +4946,13 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="73"/>
-      <c r="B72" s="63"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="63"/>
+      <c r="A72" s="78"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="61"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -4963,33 +4961,33 @@
       <c r="J72" s="52"/>
       <c r="K72" s="10">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L72" s="41"/>
       <c r="M72" s="32"/>
       <c r="N72" s="32"/>
       <c r="O72" s="32"/>
       <c r="P72" s="32"/>
-      <c r="Q72" s="32" t="s">
-        <v>68</v>
-      </c>
+      <c r="Q72" s="32"/>
       <c r="R72" s="32"/>
-      <c r="S72" s="32"/>
+      <c r="S72" s="32">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="72"/>
-      <c r="B73" s="74" t="s">
+      <c r="A73" s="77"/>
+      <c r="B73" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="66" t="s">
+      <c r="C73" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="68"/>
-      <c r="E73" s="60" t="s">
+      <c r="D73" s="63"/>
+      <c r="E73" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="60"/>
-      <c r="G73" s="62"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="68"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5017,13 +5015,13 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="73"/>
-      <c r="B74" s="63"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="63"/>
+      <c r="A74" s="78"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="61"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5032,7 +5030,7 @@
       <c r="J74" s="52"/>
       <c r="K74" s="10">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L74" s="41"/>
       <c r="M74" s="32"/>
@@ -5041,22 +5039,24 @@
       <c r="P74" s="32"/>
       <c r="Q74" s="32"/>
       <c r="R74" s="32"/>
-      <c r="S74" s="32"/>
+      <c r="S74" s="32">
+        <v>15</v>
+      </c>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="72"/>
-      <c r="B75" s="74" t="s">
+      <c r="A75" s="77"/>
+      <c r="B75" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="66" t="s">
+      <c r="C75" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="68"/>
-      <c r="E75" s="60" t="s">
+      <c r="D75" s="63"/>
+      <c r="E75" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F75" s="60"/>
-      <c r="G75" s="62"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="68"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5084,13 +5084,13 @@
       <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="73"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="63"/>
+      <c r="A76" s="78"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="61"/>
       <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5111,15 +5111,15 @@
       <c r="S76" s="44"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="79" t="s">
+      <c r="A77" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="80"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="125"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="85"/>
       <c r="H77" s="20" t="s">
         <v>19</v>
       </c>
@@ -5163,13 +5163,13 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="82"/>
-      <c r="B78" s="83"/>
-      <c r="C78" s="83"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="78"/>
-      <c r="F78" s="78"/>
-      <c r="G78" s="126"/>
+      <c r="A78" s="72"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="86"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5213,16 +5213,16 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="72">
+      <c r="A79" s="77">
         <v>1</v>
       </c>
-      <c r="B79" s="66" t="s">
+      <c r="B79" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="67"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="81"/>
+      <c r="F79" s="81"/>
       <c r="G79" s="75"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5241,12 +5241,12 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="73"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
+      <c r="A80" s="78"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="82"/>
+      <c r="F80" s="82"/>
       <c r="G80" s="76"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5265,19 +5265,19 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="72"/>
-      <c r="B81" s="74" t="s">
+      <c r="A81" s="77"/>
+      <c r="B81" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C81" s="66" t="s">
+      <c r="C81" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="68"/>
-      <c r="E81" s="60" t="s">
+      <c r="D81" s="63"/>
+      <c r="E81" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="60"/>
-      <c r="G81" s="62"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="68"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5308,13 +5308,13 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="73"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="63"/>
+      <c r="A82" s="78"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="61"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5335,19 +5335,19 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="72"/>
-      <c r="B83" s="74" t="s">
+      <c r="A83" s="77"/>
+      <c r="B83" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="66" t="s">
+      <c r="C83" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="68"/>
-      <c r="E83" s="60" t="s">
+      <c r="D83" s="63"/>
+      <c r="E83" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F83" s="60"/>
-      <c r="G83" s="62"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="68"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5375,13 +5375,13 @@
       <c r="S83" s="31"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="73"/>
-      <c r="B84" s="63"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="63"/>
+      <c r="A84" s="78"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="61"/>
       <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5402,15 +5402,15 @@
       <c r="S84" s="32"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="79" t="s">
+      <c r="A85" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="80"/>
-      <c r="C85" s="80"/>
-      <c r="D85" s="81"/>
-      <c r="E85" s="77"/>
-      <c r="F85" s="77"/>
-      <c r="G85" s="125"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="83"/>
+      <c r="F85" s="83"/>
+      <c r="G85" s="85"/>
       <c r="H85" s="20" t="s">
         <v>19</v>
       </c>
@@ -5454,13 +5454,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="82"/>
-      <c r="B86" s="83"/>
-      <c r="C86" s="83"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="126"/>
+      <c r="A86" s="72"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="84"/>
+      <c r="G86" s="86"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5504,16 +5504,16 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="72">
+      <c r="A87" s="77">
         <v>1</v>
       </c>
-      <c r="B87" s="66" t="s">
+      <c r="B87" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C87" s="67"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
       <c r="G87" s="75"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5532,12 +5532,12 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="73"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="70"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65"/>
+      <c r="A88" s="78"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="82"/>
       <c r="G88" s="76"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5556,19 +5556,19 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="72"/>
-      <c r="B89" s="74" t="s">
+      <c r="A89" s="77"/>
+      <c r="B89" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="66" t="s">
+      <c r="C89" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="68"/>
-      <c r="E89" s="60" t="s">
+      <c r="D89" s="63"/>
+      <c r="E89" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="60"/>
-      <c r="G89" s="62"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="68"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5596,13 +5596,13 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="73"/>
-      <c r="B90" s="63"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="63"/>
+      <c r="A90" s="78"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="61"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5623,16 +5623,16 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="72">
+      <c r="A91" s="77">
         <v>2</v>
       </c>
-      <c r="B91" s="66" t="s">
+      <c r="B91" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="67"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="81"/>
+      <c r="F91" s="81"/>
       <c r="G91" s="75"/>
       <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
@@ -5651,12 +5651,12 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="73"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
+      <c r="A92" s="78"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="80"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="82"/>
+      <c r="F92" s="82"/>
       <c r="G92" s="76"/>
       <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5675,19 +5675,19 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="72"/>
-      <c r="B93" s="74" t="s">
+      <c r="A93" s="77"/>
+      <c r="B93" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="66" t="s">
+      <c r="C93" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="68"/>
-      <c r="E93" s="60" t="s">
+      <c r="D93" s="63"/>
+      <c r="E93" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="60"/>
-      <c r="G93" s="62"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="68"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -5715,13 +5715,13 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="73"/>
-      <c r="B94" s="63"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="61"/>
-      <c r="G94" s="63"/>
+      <c r="A94" s="78"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="61"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -5742,19 +5742,19 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="72"/>
-      <c r="B95" s="74" t="s">
+      <c r="A95" s="77"/>
+      <c r="B95" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="66" t="s">
+      <c r="C95" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D95" s="68"/>
-      <c r="E95" s="60" t="s">
+      <c r="D95" s="63"/>
+      <c r="E95" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="60"/>
-      <c r="G95" s="62"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="68"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5781,13 +5781,13 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="73"/>
-      <c r="B96" s="63"/>
-      <c r="C96" s="69"/>
-      <c r="D96" s="71"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="61"/>
-      <c r="G96" s="63"/>
+      <c r="A96" s="78"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="61"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -5808,15 +5808,15 @@
       <c r="S96" s="44"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="79" t="s">
+      <c r="A97" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="80"/>
-      <c r="C97" s="80"/>
-      <c r="D97" s="81"/>
-      <c r="E97" s="77"/>
-      <c r="F97" s="77"/>
-      <c r="G97" s="125"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="83"/>
+      <c r="G97" s="85"/>
       <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
@@ -5860,13 +5860,13 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="82"/>
-      <c r="B98" s="83"/>
-      <c r="C98" s="83"/>
-      <c r="D98" s="84"/>
-      <c r="E98" s="78"/>
-      <c r="F98" s="78"/>
-      <c r="G98" s="126"/>
+      <c r="A98" s="72"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="73"/>
+      <c r="D98" s="74"/>
+      <c r="E98" s="84"/>
+      <c r="F98" s="84"/>
+      <c r="G98" s="86"/>
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
@@ -5910,16 +5910,16 @@
       </c>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="72">
+      <c r="A99" s="77">
         <v>1</v>
       </c>
-      <c r="B99" s="66" t="s">
+      <c r="B99" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C99" s="67"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="64"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="81"/>
+      <c r="F99" s="81"/>
       <c r="G99" s="75"/>
       <c r="H99" s="23" t="str">
         <f>IF(E99="","","予定")</f>
@@ -5938,12 +5938,12 @@
       <c r="S99" s="31"/>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="73"/>
-      <c r="B100" s="69"/>
-      <c r="C100" s="70"/>
-      <c r="D100" s="71"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
+      <c r="A100" s="78"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="80"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="82"/>
       <c r="G100" s="76"/>
       <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
@@ -5962,19 +5962,19 @@
       <c r="S100" s="32"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="72"/>
-      <c r="B101" s="74" t="s">
+      <c r="A101" s="77"/>
+      <c r="B101" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="66" t="s">
+      <c r="C101" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="68"/>
-      <c r="E101" s="60" t="s">
+      <c r="D101" s="63"/>
+      <c r="E101" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="60"/>
-      <c r="G101" s="62"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="68"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -6002,13 +6002,13 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="73"/>
-      <c r="B102" s="63"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="71"/>
-      <c r="E102" s="61"/>
-      <c r="F102" s="61"/>
-      <c r="G102" s="63"/>
+      <c r="A102" s="78"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="61"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -6029,19 +6029,19 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="72"/>
-      <c r="B103" s="74" t="s">
+      <c r="A103" s="77"/>
+      <c r="B103" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="66" t="s">
+      <c r="C103" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="68"/>
-      <c r="E103" s="60" t="s">
+      <c r="D103" s="63"/>
+      <c r="E103" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="60"/>
-      <c r="G103" s="62"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="68"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6069,13 +6069,13 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="73"/>
-      <c r="B104" s="63"/>
-      <c r="C104" s="69"/>
-      <c r="D104" s="71"/>
-      <c r="E104" s="61"/>
-      <c r="F104" s="61"/>
-      <c r="G104" s="63"/>
+      <c r="A104" s="78"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="61"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6096,16 +6096,16 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="72">
+      <c r="A105" s="77">
         <v>2</v>
       </c>
-      <c r="B105" s="66" t="s">
+      <c r="B105" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="67"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="64"/>
+      <c r="C105" s="79"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="81"/>
+      <c r="F105" s="81"/>
       <c r="G105" s="75"/>
       <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
@@ -6124,12 +6124,12 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="73"/>
-      <c r="B106" s="69"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="71"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
+      <c r="A106" s="78"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="80"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="82"/>
+      <c r="F106" s="82"/>
       <c r="G106" s="76"/>
       <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
@@ -6148,19 +6148,19 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="72"/>
-      <c r="B107" s="74" t="s">
+      <c r="A107" s="77"/>
+      <c r="B107" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="66" t="s">
+      <c r="C107" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="68"/>
-      <c r="E107" s="60" t="s">
+      <c r="D107" s="63"/>
+      <c r="E107" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F107" s="60"/>
-      <c r="G107" s="62"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="68"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6188,13 +6188,13 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="73"/>
-      <c r="B108" s="63"/>
-      <c r="C108" s="69"/>
-      <c r="D108" s="71"/>
-      <c r="E108" s="61"/>
-      <c r="F108" s="61"/>
-      <c r="G108" s="63"/>
+      <c r="A108" s="78"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="61"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6215,19 +6215,19 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="72"/>
-      <c r="B109" s="74" t="s">
+      <c r="A109" s="77"/>
+      <c r="B109" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="66" t="s">
+      <c r="C109" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D109" s="68"/>
-      <c r="E109" s="60" t="s">
+      <c r="D109" s="63"/>
+      <c r="E109" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F109" s="60"/>
-      <c r="G109" s="62"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="68"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6255,13 +6255,13 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="73"/>
-      <c r="B110" s="63"/>
-      <c r="C110" s="69"/>
-      <c r="D110" s="71"/>
-      <c r="E110" s="61"/>
-      <c r="F110" s="61"/>
-      <c r="G110" s="63"/>
+      <c r="A110" s="78"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="61"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -6297,6 +6297,291 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="309">
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="A97:D98"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="C73:D74"/>
     <mergeCell ref="E73:E74"/>
@@ -6321,291 +6606,6 @@
     <mergeCell ref="C89:D90"/>
     <mergeCell ref="E89:E90"/>
     <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="A97:D98"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:S18 L99:S110 L25:S26 M29:S29 L30:S36 L87:S96">
@@ -6717,15 +6717,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6909,6 +6900,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
@@ -6919,14 +6919,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2E3E761-B6CF-4176-A3CC-D1E7FA487AE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6942,4 +6934,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_management/WBSガントチャート_バナナ11.xlsx
+++ b/00_management/WBSガントチャート_バナナ11.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04DA8C5-EB3B-45BF-85A3-97EB509D1D12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256E7B49-93F5-4743-A7CD-EC962C33CB71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1516,31 +1516,61 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1560,34 +1590,124 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1616,126 +1736,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2359,10 +2359,10 @@
   <dimension ref="A1:S111"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R74" sqref="R74"/>
+      <selection pane="bottomRight" activeCell="T98" sqref="T98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2381,120 +2381,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="94" t="s">
+      <c r="A1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="129" t="s">
+      <c r="K1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="119">
+      <c r="L1" s="85">
         <v>43984</v>
       </c>
-      <c r="M1" s="120"/>
-      <c r="N1" s="119">
+      <c r="M1" s="86"/>
+      <c r="N1" s="85">
         <v>43985</v>
       </c>
-      <c r="O1" s="120"/>
-      <c r="P1" s="119">
+      <c r="O1" s="86"/>
+      <c r="P1" s="85">
         <v>43986</v>
       </c>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="119">
+      <c r="Q1" s="86"/>
+      <c r="R1" s="85">
         <v>43987</v>
       </c>
-      <c r="S1" s="120"/>
+      <c r="S1" s="86"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="123" t="s">
+      <c r="A2" s="109"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="122"/>
-      <c r="N2" s="121" t="s">
+      <c r="M2" s="88"/>
+      <c r="N2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="121"/>
-      <c r="P2" s="124" t="s">
+      <c r="O2" s="87"/>
+      <c r="P2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="121" t="s">
+      <c r="Q2" s="88"/>
+      <c r="R2" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="122"/>
+      <c r="S2" s="88"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="127" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="126"/>
-      <c r="N3" s="125" t="s">
+      <c r="M3" s="92"/>
+      <c r="N3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="126"/>
-      <c r="P3" s="125" t="s">
+      <c r="O3" s="92"/>
+      <c r="P3" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="128" t="s">
+      <c r="Q3" s="92"/>
+      <c r="R3" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="128"/>
+      <c r="S3" s="94"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="103"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="131"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="97"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2521,15 +2521,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="132"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="101"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2573,13 +2573,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="108"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="133"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2611,11 +2611,11 @@
       </c>
       <c r="Q6" s="47">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="R6" s="47">
         <f t="shared" si="1"/>
-        <v>27.5</v>
+        <v>48.5</v>
       </c>
       <c r="S6" s="47">
         <f t="shared" si="1"/>
@@ -2623,15 +2623,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="116"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="122"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2675,13 +2675,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="117"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="123"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2725,18 +2725,18 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="77">
+      <c r="A9" s="72">
         <v>1</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="81" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="64" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="75"/>
@@ -2757,12 +2757,12 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="78"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="76"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2781,21 +2781,21 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="77"/>
-      <c r="B11" s="60" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="66" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="68"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="8">
         <v>0.5</v>
       </c>
@@ -2820,13 +2820,13 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="78"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="61"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="63"/>
       <c r="H12" s="52">
         <v>0.5</v>
       </c>
@@ -2851,21 +2851,21 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="77"/>
-      <c r="B13" s="60" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="66" t="s">
+      <c r="D13" s="68"/>
+      <c r="E13" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="68"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2892,13 +2892,13 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="78"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="61"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2925,18 +2925,18 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="77">
+      <c r="A15" s="72">
         <v>2</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="81" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="64" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="75"/>
@@ -2957,12 +2957,12 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="78"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="76"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
@@ -2981,21 +2981,21 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="77"/>
-      <c r="B17" s="60" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="66" t="s">
+      <c r="D17" s="68"/>
+      <c r="E17" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="68"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3023,13 +3023,13 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="78"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="61"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3056,21 +3056,21 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="77"/>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="72"/>
+      <c r="B19" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="66" t="s">
+      <c r="D19" s="68"/>
+      <c r="E19" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="68"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3097,13 +3097,13 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="78"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="61"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3130,21 +3130,21 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="77"/>
-      <c r="B21" s="60" t="s">
+      <c r="A21" s="72"/>
+      <c r="B21" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="66" t="s">
+      <c r="D21" s="68"/>
+      <c r="E21" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="68"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3170,13 +3170,13 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="78"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="61"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3203,17 +3203,17 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="83" t="s">
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="85"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="125"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3257,13 +3257,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="72"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="86"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="126"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3307,18 +3307,18 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="77">
+      <c r="A25" s="72">
         <v>1</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="81" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="81" t="s">
+      <c r="F25" s="64" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="75"/>
@@ -3339,12 +3339,12 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="78"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="76"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3363,21 +3363,21 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="87"/>
-      <c r="B27" s="89" t="s">
+      <c r="A27" s="127"/>
+      <c r="B27" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="91" t="s">
+      <c r="D27" s="68"/>
+      <c r="E27" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="91" t="s">
+      <c r="F27" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="93"/>
+      <c r="G27" s="133"/>
       <c r="H27" s="53">
         <f>IF(E27="","","予定")</f>
         <v>0</v>
@@ -3403,13 +3403,13 @@
       <c r="S27" s="55"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="88"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="90"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="130"/>
       <c r="H28" s="56">
         <f>IF(E27="","","実績")</f>
         <v>0</v>
@@ -3435,21 +3435,21 @@
       <c r="S28" s="59"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="77"/>
-      <c r="B29" s="60" t="s">
+      <c r="A29" s="72"/>
+      <c r="B29" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="66" t="s">
+      <c r="D29" s="68"/>
+      <c r="E29" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="68"/>
+      <c r="G29" s="62"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3475,13 +3475,13 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="78"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="61"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3508,21 +3508,21 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="77"/>
-      <c r="B31" s="60" t="s">
+      <c r="A31" s="72"/>
+      <c r="B31" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="66" t="s">
+      <c r="D31" s="68"/>
+      <c r="E31" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="68"/>
+      <c r="G31" s="62"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3549,13 +3549,13 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="78"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="61"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3581,21 +3581,21 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="77"/>
-      <c r="B33" s="60" t="s">
+      <c r="A33" s="72"/>
+      <c r="B33" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="66" t="s">
+      <c r="D33" s="68"/>
+      <c r="E33" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="68"/>
+      <c r="G33" s="62"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3622,13 +3622,13 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="78"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="61"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3655,18 +3655,18 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="77">
+      <c r="A35" s="72">
         <v>2</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="81" t="s">
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="81" t="s">
+      <c r="F35" s="64" t="s">
         <v>38</v>
       </c>
       <c r="G35" s="75"/>
@@ -3687,12 +3687,12 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="78"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
       <c r="G36" s="76"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3711,21 +3711,21 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="77"/>
-      <c r="B37" s="60" t="s">
+      <c r="A37" s="72"/>
+      <c r="B37" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="66" t="s">
+      <c r="D37" s="68"/>
+      <c r="E37" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="66" t="s">
+      <c r="F37" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="68"/>
+      <c r="G37" s="62"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3752,13 +3752,13 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="78"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="61"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="63"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3783,21 +3783,21 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="77"/>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="72"/>
+      <c r="B39" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="66" t="s">
+      <c r="D39" s="68"/>
+      <c r="E39" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="66" t="s">
+      <c r="F39" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="68"/>
+      <c r="G39" s="62"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3824,13 +3824,13 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="78"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="61"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="63"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3855,21 +3855,21 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="77"/>
-      <c r="B41" s="60" t="s">
+      <c r="A41" s="72"/>
+      <c r="B41" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="66" t="s">
+      <c r="D41" s="68"/>
+      <c r="E41" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="68"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3896,13 +3896,13 @@
       <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="78"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="61"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="63"/>
       <c r="H42" s="52" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3927,15 +3927,15 @@
       <c r="S42" s="32"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="85"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="125"/>
       <c r="H43" s="20" t="s">
         <v>19</v>
       </c>
@@ -3979,13 +3979,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="72"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="86"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="126"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -4029,18 +4029,18 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="77">
+      <c r="A45" s="72">
         <v>1</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="81" t="s">
+      <c r="C45" s="67"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="81"/>
+      <c r="F45" s="64"/>
       <c r="G45" s="75"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
@@ -4059,12 +4059,12 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="78"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
       <c r="G46" s="76"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
@@ -4083,19 +4083,19 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="77"/>
-      <c r="B47" s="60" t="s">
+      <c r="A47" s="72"/>
+      <c r="B47" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="66" t="s">
+      <c r="D47" s="68"/>
+      <c r="E47" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="66"/>
-      <c r="G47" s="68"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="62"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4123,13 +4123,13 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="78"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="61"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="63"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4152,19 +4152,19 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="77"/>
-      <c r="B49" s="60" t="s">
+      <c r="A49" s="72"/>
+      <c r="B49" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="66" t="s">
+      <c r="D49" s="68"/>
+      <c r="E49" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="66"/>
-      <c r="G49" s="68"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="62"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4195,13 +4195,13 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="78"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="61"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="63"/>
       <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4224,18 +4224,18 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="77">
+      <c r="A51" s="72">
         <v>2</v>
       </c>
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="81" t="s">
+      <c r="C51" s="67"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="81"/>
+      <c r="F51" s="64"/>
       <c r="G51" s="75"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4254,12 +4254,12 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="78"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
       <c r="G52" s="76"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4278,19 +4278,19 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="77"/>
-      <c r="B53" s="60" t="s">
+      <c r="A53" s="72"/>
+      <c r="B53" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="62" t="s">
+      <c r="C53" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="63"/>
-      <c r="E53" s="66" t="s">
+      <c r="D53" s="68"/>
+      <c r="E53" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="66"/>
-      <c r="G53" s="68"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="62"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4316,13 +4316,13 @@
       <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="78"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="61"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="63"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4347,19 +4347,19 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="77"/>
-      <c r="B55" s="60" t="s">
+      <c r="A55" s="72"/>
+      <c r="B55" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="66" t="s">
+      <c r="D55" s="68"/>
+      <c r="E55" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="66"/>
-      <c r="G55" s="68"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="62"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4387,13 +4387,13 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="78"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="61"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="63"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4418,19 +4418,19 @@
       <c r="S56" s="32"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="77"/>
-      <c r="B57" s="60" t="s">
+      <c r="A57" s="72"/>
+      <c r="B57" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="66" t="s">
+      <c r="D57" s="68"/>
+      <c r="E57" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="66"/>
-      <c r="G57" s="68"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="62"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4456,13 +4456,13 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="78"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="61"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="63"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4487,15 +4487,15 @@
       <c r="S58" s="44"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="69" t="s">
+      <c r="A59" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="85"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="125"/>
       <c r="H59" s="20" t="s">
         <v>19</v>
       </c>
@@ -4539,13 +4539,13 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="72"/>
-      <c r="B60" s="73"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="86"/>
+      <c r="A60" s="82"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="126"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4553,7 +4553,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
-        <v>57.5</v>
+        <v>52.5</v>
       </c>
       <c r="L60" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$61:L$76),2)=0)*L$61:L$76)</f>
@@ -4581,24 +4581,24 @@
       </c>
       <c r="R60" s="36">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="S60" s="36">
         <f t="shared" si="14"/>
-        <v>27.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="77">
+      <c r="A61" s="72">
         <v>1</v>
       </c>
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="79"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
       <c r="G61" s="75"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4617,12 +4617,12 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="78"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82"/>
+      <c r="A62" s="73"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
       <c r="G62" s="76"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4641,19 +4641,19 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="77"/>
-      <c r="B63" s="60" t="s">
+      <c r="A63" s="72"/>
+      <c r="B63" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="62" t="s">
+      <c r="C63" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="63"/>
-      <c r="E63" s="66" t="s">
+      <c r="D63" s="68"/>
+      <c r="E63" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="66"/>
-      <c r="G63" s="68"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="62"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4684,13 +4684,13 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="78"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="61"/>
+      <c r="A64" s="73"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="63"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4715,19 +4715,19 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="77"/>
-      <c r="B65" s="60" t="s">
+      <c r="A65" s="72"/>
+      <c r="B65" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="66" t="s">
+      <c r="D65" s="68"/>
+      <c r="E65" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="66"/>
-      <c r="G65" s="68"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="62"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4754,13 +4754,13 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="78"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="61"/>
+      <c r="A66" s="73"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="63"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4783,19 +4783,19 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="77"/>
-      <c r="B67" s="60" t="s">
+      <c r="A67" s="72"/>
+      <c r="B67" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="63"/>
-      <c r="E67" s="66" t="s">
+      <c r="D67" s="68"/>
+      <c r="E67" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="66"/>
-      <c r="G67" s="68"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="62"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4823,13 +4823,13 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="78"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="61"/>
+      <c r="A68" s="73"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="63"/>
       <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4838,7 +4838,7 @@
       <c r="J68" s="52"/>
       <c r="K68" s="10">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L68" s="41"/>
       <c r="M68" s="32"/>
@@ -4850,20 +4850,20 @@
         <v>6</v>
       </c>
       <c r="S68" s="32">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="77">
+      <c r="A69" s="72">
         <v>2</v>
       </c>
-      <c r="B69" s="62" t="s">
+      <c r="B69" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="79"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
       <c r="G69" s="75"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4882,12 +4882,12 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="78"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
+      <c r="A70" s="73"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
       <c r="G70" s="76"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4906,19 +4906,19 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="77"/>
-      <c r="B71" s="60" t="s">
+      <c r="A71" s="72"/>
+      <c r="B71" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="62" t="s">
+      <c r="C71" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="63"/>
-      <c r="E71" s="66" t="s">
+      <c r="D71" s="68"/>
+      <c r="E71" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="66"/>
-      <c r="G71" s="68"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="62"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
@@ -4946,13 +4946,13 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="78"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="61"/>
+      <c r="A72" s="73"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="63"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -4969,25 +4969,27 @@
       <c r="O72" s="32"/>
       <c r="P72" s="32"/>
       <c r="Q72" s="32"/>
-      <c r="R72" s="32"/>
+      <c r="R72" s="32">
+        <v>2</v>
+      </c>
       <c r="S72" s="32">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="77"/>
-      <c r="B73" s="60" t="s">
+      <c r="A73" s="72"/>
+      <c r="B73" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="C73" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="66" t="s">
+      <c r="D73" s="68"/>
+      <c r="E73" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="66"/>
-      <c r="G73" s="68"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="62"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5015,13 +5017,13 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="78"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="61"/>
+      <c r="A74" s="73"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="63"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5030,7 +5032,7 @@
       <c r="J74" s="52"/>
       <c r="K74" s="10">
         <f t="shared" si="16"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L74" s="41"/>
       <c r="M74" s="32"/>
@@ -5038,25 +5040,27 @@
       <c r="O74" s="32"/>
       <c r="P74" s="32"/>
       <c r="Q74" s="32"/>
-      <c r="R74" s="32"/>
+      <c r="R74" s="32">
+        <v>7</v>
+      </c>
       <c r="S74" s="32">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="77"/>
-      <c r="B75" s="60" t="s">
+      <c r="A75" s="72"/>
+      <c r="B75" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="62" t="s">
+      <c r="C75" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="63"/>
-      <c r="E75" s="66" t="s">
+      <c r="D75" s="68"/>
+      <c r="E75" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F75" s="66"/>
-      <c r="G75" s="68"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="62"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5084,13 +5088,13 @@
       <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="78"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="61"/>
+      <c r="A76" s="73"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="63"/>
       <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5111,15 +5115,15 @@
       <c r="S76" s="44"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="69" t="s">
+      <c r="A77" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="85"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="125"/>
       <c r="H77" s="20" t="s">
         <v>19</v>
       </c>
@@ -5163,13 +5167,13 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="72"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="73"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="86"/>
+      <c r="A78" s="82"/>
+      <c r="B78" s="83"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="78"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="126"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5177,7 +5181,7 @@
       <c r="J78" s="7"/>
       <c r="K78" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$79:K$84),2)=0)*K$79:K$84)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L78" s="36">
         <f t="shared" ref="L78:S78" si="19">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
@@ -5209,20 +5213,20 @@
       </c>
       <c r="S78" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="77">
+      <c r="A79" s="72">
         <v>1</v>
       </c>
-      <c r="B79" s="62" t="s">
+      <c r="B79" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="79"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="81"/>
-      <c r="F79" s="81"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
       <c r="G79" s="75"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5241,12 +5245,12 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="78"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="80"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="82"/>
-      <c r="F80" s="82"/>
+      <c r="A80" s="73"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
       <c r="G80" s="76"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5265,19 +5269,19 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="77"/>
-      <c r="B81" s="60" t="s">
+      <c r="A81" s="72"/>
+      <c r="B81" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C81" s="62" t="s">
+      <c r="C81" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="63"/>
-      <c r="E81" s="66" t="s">
+      <c r="D81" s="68"/>
+      <c r="E81" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="66"/>
-      <c r="G81" s="68"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="62"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5308,13 +5312,13 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="78"/>
-      <c r="B82" s="61"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="61"/>
+      <c r="A82" s="73"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="63"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5323,7 +5327,7 @@
       <c r="J82" s="52"/>
       <c r="K82" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L82" s="41"/>
       <c r="M82" s="32"/>
@@ -5332,22 +5336,24 @@
       <c r="P82" s="32"/>
       <c r="Q82" s="32"/>
       <c r="R82" s="32"/>
-      <c r="S82" s="32"/>
+      <c r="S82" s="32">
+        <v>35</v>
+      </c>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="77"/>
-      <c r="B83" s="60" t="s">
+      <c r="A83" s="72"/>
+      <c r="B83" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="62" t="s">
+      <c r="C83" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="63"/>
-      <c r="E83" s="66" t="s">
+      <c r="D83" s="68"/>
+      <c r="E83" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F83" s="66"/>
-      <c r="G83" s="68"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="62"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5375,13 +5381,13 @@
       <c r="S83" s="31"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="78"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="61"/>
+      <c r="A84" s="73"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="63"/>
       <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5402,15 +5408,15 @@
       <c r="S84" s="32"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="69" t="s">
+      <c r="A85" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="71"/>
-      <c r="E85" s="83"/>
-      <c r="F85" s="83"/>
-      <c r="G85" s="85"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="125"/>
       <c r="H85" s="20" t="s">
         <v>19</v>
       </c>
@@ -5454,13 +5460,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="72"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="73"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="86"/>
+      <c r="A86" s="82"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="78"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="126"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5504,16 +5510,16 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="77">
+      <c r="A87" s="72">
         <v>1</v>
       </c>
-      <c r="B87" s="62" t="s">
+      <c r="B87" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C87" s="79"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="81"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="64"/>
       <c r="G87" s="75"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5532,12 +5538,12 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="78"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="82"/>
+      <c r="A88" s="73"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="70"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="65"/>
       <c r="G88" s="76"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5556,19 +5562,19 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="77"/>
-      <c r="B89" s="60" t="s">
+      <c r="A89" s="72"/>
+      <c r="B89" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="62" t="s">
+      <c r="C89" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="63"/>
-      <c r="E89" s="66" t="s">
+      <c r="D89" s="68"/>
+      <c r="E89" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="66"/>
-      <c r="G89" s="68"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="62"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5596,13 +5602,13 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="78"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="61"/>
+      <c r="A90" s="73"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="63"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5623,16 +5629,16 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="77">
+      <c r="A91" s="72">
         <v>2</v>
       </c>
-      <c r="B91" s="62" t="s">
+      <c r="B91" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="79"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="81"/>
-      <c r="F91" s="81"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="64"/>
       <c r="G91" s="75"/>
       <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
@@ -5651,12 +5657,12 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="78"/>
-      <c r="B92" s="64"/>
-      <c r="C92" s="80"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="82"/>
-      <c r="F92" s="82"/>
+      <c r="A92" s="73"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="70"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
       <c r="G92" s="76"/>
       <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5675,19 +5681,19 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="77"/>
-      <c r="B93" s="60" t="s">
+      <c r="A93" s="72"/>
+      <c r="B93" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="62" t="s">
+      <c r="C93" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="63"/>
-      <c r="E93" s="66" t="s">
+      <c r="D93" s="68"/>
+      <c r="E93" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="66"/>
-      <c r="G93" s="68"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="62"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -5715,13 +5721,13 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="78"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="61"/>
+      <c r="A94" s="73"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="61"/>
+      <c r="G94" s="63"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -5742,19 +5748,19 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="77"/>
-      <c r="B95" s="60" t="s">
+      <c r="A95" s="72"/>
+      <c r="B95" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="62" t="s">
+      <c r="C95" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D95" s="63"/>
-      <c r="E95" s="66" t="s">
+      <c r="D95" s="68"/>
+      <c r="E95" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="66"/>
-      <c r="G95" s="68"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="62"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5781,13 +5787,13 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="78"/>
-      <c r="B96" s="61"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="61"/>
+      <c r="A96" s="73"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="71"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="61"/>
+      <c r="G96" s="63"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -5808,15 +5814,15 @@
       <c r="S96" s="44"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="69" t="s">
+      <c r="A97" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="70"/>
-      <c r="C97" s="70"/>
-      <c r="D97" s="71"/>
-      <c r="E97" s="83"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="85"/>
+      <c r="B97" s="80"/>
+      <c r="C97" s="80"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="125"/>
       <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
@@ -5860,13 +5866,13 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="72"/>
-      <c r="B98" s="73"/>
-      <c r="C98" s="73"/>
-      <c r="D98" s="74"/>
-      <c r="E98" s="84"/>
-      <c r="F98" s="84"/>
-      <c r="G98" s="86"/>
+      <c r="A98" s="82"/>
+      <c r="B98" s="83"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="84"/>
+      <c r="E98" s="78"/>
+      <c r="F98" s="78"/>
+      <c r="G98" s="126"/>
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
@@ -5910,16 +5916,16 @@
       </c>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="77">
+      <c r="A99" s="72">
         <v>1</v>
       </c>
-      <c r="B99" s="62" t="s">
+      <c r="B99" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C99" s="79"/>
-      <c r="D99" s="63"/>
-      <c r="E99" s="81"/>
-      <c r="F99" s="81"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="64"/>
       <c r="G99" s="75"/>
       <c r="H99" s="23" t="str">
         <f>IF(E99="","","予定")</f>
@@ -5938,12 +5944,12 @@
       <c r="S99" s="31"/>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="78"/>
-      <c r="B100" s="64"/>
-      <c r="C100" s="80"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="82"/>
-      <c r="F100" s="82"/>
+      <c r="A100" s="73"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
       <c r="G100" s="76"/>
       <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
@@ -5962,19 +5968,19 @@
       <c r="S100" s="32"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="77"/>
-      <c r="B101" s="60" t="s">
+      <c r="A101" s="72"/>
+      <c r="B101" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="62" t="s">
+      <c r="C101" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="63"/>
-      <c r="E101" s="66" t="s">
+      <c r="D101" s="68"/>
+      <c r="E101" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="66"/>
-      <c r="G101" s="68"/>
+      <c r="F101" s="60"/>
+      <c r="G101" s="62"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -6002,13 +6008,13 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="78"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="61"/>
+      <c r="A102" s="73"/>
+      <c r="B102" s="63"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="71"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="63"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -6029,19 +6035,19 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="77"/>
-      <c r="B103" s="60" t="s">
+      <c r="A103" s="72"/>
+      <c r="B103" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="62" t="s">
+      <c r="C103" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="63"/>
-      <c r="E103" s="66" t="s">
+      <c r="D103" s="68"/>
+      <c r="E103" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="66"/>
-      <c r="G103" s="68"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="62"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6069,13 +6075,13 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="78"/>
-      <c r="B104" s="61"/>
-      <c r="C104" s="64"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="61"/>
+      <c r="A104" s="73"/>
+      <c r="B104" s="63"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="71"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="63"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6096,16 +6102,16 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="77">
+      <c r="A105" s="72">
         <v>2</v>
       </c>
-      <c r="B105" s="62" t="s">
+      <c r="B105" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="79"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="81"/>
-      <c r="F105" s="81"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="64"/>
       <c r="G105" s="75"/>
       <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
@@ -6124,12 +6130,12 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="78"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="80"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="82"/>
-      <c r="F106" s="82"/>
+      <c r="A106" s="73"/>
+      <c r="B106" s="69"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="71"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
       <c r="G106" s="76"/>
       <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
@@ -6148,19 +6154,19 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="77"/>
-      <c r="B107" s="60" t="s">
+      <c r="A107" s="72"/>
+      <c r="B107" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="62" t="s">
+      <c r="C107" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="63"/>
-      <c r="E107" s="66" t="s">
+      <c r="D107" s="68"/>
+      <c r="E107" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F107" s="66"/>
-      <c r="G107" s="68"/>
+      <c r="F107" s="60"/>
+      <c r="G107" s="62"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6188,13 +6194,13 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="78"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="61"/>
+      <c r="A108" s="73"/>
+      <c r="B108" s="63"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="71"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="63"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6215,19 +6221,19 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="77"/>
-      <c r="B109" s="60" t="s">
+      <c r="A109" s="72"/>
+      <c r="B109" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="62" t="s">
+      <c r="C109" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D109" s="63"/>
-      <c r="E109" s="66" t="s">
+      <c r="D109" s="68"/>
+      <c r="E109" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F109" s="66"/>
-      <c r="G109" s="68"/>
+      <c r="F109" s="60"/>
+      <c r="G109" s="62"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6255,13 +6261,13 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="78"/>
-      <c r="B110" s="61"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="61"/>
+      <c r="A110" s="73"/>
+      <c r="B110" s="63"/>
+      <c r="C110" s="69"/>
+      <c r="D110" s="71"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
+      <c r="G110" s="63"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -6297,16 +6303,281 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="309">
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="C41:D42"/>
     <mergeCell ref="E41:E42"/>
@@ -6331,281 +6602,16 @@
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="C101:D102"/>
     <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:S18 L99:S110 L25:S26 M29:S29 L30:S36 L87:S96">
@@ -6711,9 +6717,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6901,19 +6910,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6937,9 +6942,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/00_management/WBSガントチャート_バナナ11.xlsx
+++ b/00_management/WBSガントチャート_バナナ11.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256E7B49-93F5-4743-A7CD-EC962C33CB71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7B71FE-2434-42C3-84C3-748DF3338695}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="69">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -528,6 +528,13 @@
   <si>
     <t>矢﨑</t>
   </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1516,6 +1523,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1524,7 +1549,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1533,62 +1591,107 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1629,119 +1732,163 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2356,13 +2503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S111"/>
+  <dimension ref="A1:W111"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="M80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T98" sqref="T98"/>
+      <selection pane="bottomRight" activeCell="Y93" sqref="Y93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2380,121 +2527,145 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="103" t="s">
+    <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="95" t="s">
+      <c r="K1" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="85">
+      <c r="L1" s="117">
         <v>43984</v>
       </c>
-      <c r="M1" s="86"/>
-      <c r="N1" s="85">
+      <c r="M1" s="118"/>
+      <c r="N1" s="117">
         <v>43985</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="85">
+      <c r="O1" s="118"/>
+      <c r="P1" s="117">
         <v>43986</v>
       </c>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="85">
+      <c r="Q1" s="118"/>
+      <c r="R1" s="117">
         <v>43987</v>
       </c>
-      <c r="S1" s="86"/>
-    </row>
-    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="89" t="s">
+      <c r="S1" s="118"/>
+      <c r="T1" s="117">
+        <v>43990</v>
+      </c>
+      <c r="U1" s="118"/>
+      <c r="V1" s="117">
+        <v>43991</v>
+      </c>
+      <c r="W1" s="118"/>
+    </row>
+    <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="88"/>
-      <c r="N2" s="87" t="s">
+      <c r="M2" s="120"/>
+      <c r="N2" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="87"/>
-      <c r="P2" s="90" t="s">
+      <c r="O2" s="119"/>
+      <c r="P2" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="87" t="s">
+      <c r="Q2" s="120"/>
+      <c r="R2" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="88"/>
-    </row>
-    <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="109"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="93" t="s">
+      <c r="S2" s="120"/>
+      <c r="T2" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" s="120"/>
+      <c r="V2" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="120"/>
+    </row>
+    <row r="3" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="92"/>
-      <c r="N3" s="91" t="s">
+      <c r="M3" s="124"/>
+      <c r="N3" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="92"/>
-      <c r="P3" s="91" t="s">
+      <c r="O3" s="124"/>
+      <c r="P3" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="94" t="s">
+      <c r="Q3" s="124"/>
+      <c r="R3" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="94"/>
-    </row>
-    <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="110"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="97"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="126"/>
+    </row>
+    <row r="4" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="129"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2519,17 +2690,29 @@
       <c r="S4" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="111" t="s">
+      <c r="T4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="101"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="130"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2537,7 +2720,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="45">
         <f t="shared" ref="K5:S5" si="0">SUM(K7,K23,K43,K59,K77,K85,K97)</f>
-        <v>104.5</v>
+        <v>105.5</v>
       </c>
       <c r="L5" s="27">
         <f t="shared" si="0"/>
@@ -2569,17 +2752,21 @@
       </c>
       <c r="S5" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="114"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="102"/>
+        <v>1</v>
+      </c>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="131"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2615,23 +2802,38 @@
       </c>
       <c r="R6" s="47">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>19</v>
       </c>
       <c r="S6" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" s="47">
+        <f t="shared" ref="T6" si="2">SUM(U8,U24,U44,U60,U78,U86)</f>
+        <v>15</v>
+      </c>
+      <c r="U6" s="47">
+        <v>15</v>
+      </c>
+      <c r="V6" s="47">
+        <f t="shared" ref="V6" si="3">SUM(W8,W24,W44,W60,W78,W86)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="47">
+        <f t="shared" ref="W6" si="4">SUM(X8,X24,X44,X60,X78,X86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="122"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2642,46 +2844,62 @@
         <v>14</v>
       </c>
       <c r="L7" s="40">
-        <f t="shared" ref="L7:S7" si="2">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=1)*L$9:L$22)</f>
+        <f t="shared" ref="L7:W7" si="5">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=1)*L$9:L$22)</f>
         <v>14</v>
       </c>
       <c r="M7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S7" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="123"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2692,51 +2910,67 @@
         <v>8.5</v>
       </c>
       <c r="L8" s="38">
-        <f t="shared" ref="L8:S8" si="3">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
+        <f t="shared" ref="L8:W8" si="6">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
         <v>8.5</v>
       </c>
       <c r="M8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S8" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="77">
         <v>1</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="64" t="s">
+      <c r="C9" s="79"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="81" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="75"/>
@@ -2755,14 +2989,18 @@
       <c r="Q9" s="31"/>
       <c r="R9" s="31"/>
       <c r="S9" s="31"/>
-    </row>
-    <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+    </row>
+    <row r="10" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="78"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="76"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2779,23 +3017,27 @@
       <c r="Q10" s="32"/>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
-    </row>
-    <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="74" t="s">
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+    </row>
+    <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="77"/>
+      <c r="B11" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="60" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="62"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="8">
         <v>0.5</v>
       </c>
@@ -2818,15 +3060,19 @@
       <c r="Q11" s="31"/>
       <c r="R11" s="31"/>
       <c r="S11" s="31"/>
-    </row>
-    <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="63"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+    </row>
+    <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="78"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="52">
         <v>0.5</v>
       </c>
@@ -2849,23 +3095,27 @@
       <c r="Q12" s="32"/>
       <c r="R12" s="32"/>
       <c r="S12" s="32"/>
-    </row>
-    <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="74" t="s">
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+    </row>
+    <row r="13" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="77"/>
+      <c r="B13" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="60" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="62"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2890,15 +3140,19 @@
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
-    </row>
-    <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="63"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+    </row>
+    <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="78"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="61"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2923,20 +3177,24 @@
       <c r="Q14" s="32"/>
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
-    </row>
-    <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="72">
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+    </row>
+    <row r="15" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="77">
         <v>2</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="64" t="s">
+      <c r="C15" s="79"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="81" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="75"/>
@@ -2955,14 +3213,18 @@
       <c r="Q15" s="31"/>
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
-    </row>
-    <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="73"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+    </row>
+    <row r="16" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="78"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="76"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
@@ -2979,23 +3241,27 @@
       <c r="Q16" s="32"/>
       <c r="R16" s="32"/>
       <c r="S16" s="32"/>
-    </row>
-    <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="74" t="s">
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+    </row>
+    <row r="17" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="77"/>
+      <c r="B17" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="60" t="s">
+      <c r="D17" s="63"/>
+      <c r="E17" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="62"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3007,7 +3273,7 @@
         <v>5</v>
       </c>
       <c r="K17" s="9">
-        <f t="shared" ref="K17:K22" si="4">SUM(L17:S17)</f>
+        <f t="shared" ref="K17:K22" si="7">SUM(L17:S17)</f>
         <v>2.5</v>
       </c>
       <c r="L17" s="30">
@@ -3021,15 +3287,19 @@
       <c r="Q17" s="31"/>
       <c r="R17" s="31"/>
       <c r="S17" s="31"/>
-    </row>
-    <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="63"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+    </row>
+    <row r="18" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="78"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3041,7 +3311,7 @@
         <v>5</v>
       </c>
       <c r="K18" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="L18" s="41">
@@ -3054,23 +3324,27 @@
       <c r="Q18" s="32"/>
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
-    </row>
-    <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
-      <c r="B19" s="74" t="s">
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+    </row>
+    <row r="19" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="77"/>
+      <c r="B19" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="60" t="s">
+      <c r="D19" s="63"/>
+      <c r="E19" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="62"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3082,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="L19" s="33">
@@ -3095,15 +3369,19 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31"/>
-    </row>
-    <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="73"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="63"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+    </row>
+    <row r="20" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="78"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3115,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="L20" s="41">
@@ -3128,23 +3406,27 @@
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
-    </row>
-    <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="74" t="s">
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+    </row>
+    <row r="21" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="77"/>
+      <c r="B21" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="60" t="s">
+      <c r="D21" s="63"/>
+      <c r="E21" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="62"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3168,15 +3450,19 @@
       <c r="Q21" s="31"/>
       <c r="R21" s="31"/>
       <c r="S21" s="31"/>
-    </row>
-    <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="63"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+    </row>
+    <row r="22" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="78"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3188,7 +3474,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L22" s="41">
@@ -3201,124 +3487,160 @@
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
-    </row>
-    <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="79" t="s">
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+    </row>
+    <row r="23" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="77" t="s">
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="77"/>
-      <c r="G23" s="125"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="21">
-        <f t="shared" ref="K23:S23" si="5">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
+        <f t="shared" ref="K23:W23" si="8">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
         <v>11</v>
       </c>
       <c r="L23" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M23" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10.5</v>
       </c>
       <c r="N23" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O23" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P23" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q23" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R23" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S23" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="82"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="126"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="72"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="86"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="15">
-        <f t="shared" ref="K24:S24" si="6">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
+        <f t="shared" ref="K24:W24" si="9">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
         <v>7</v>
       </c>
       <c r="L24" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M24" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="N24" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.25</v>
       </c>
       <c r="O24" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P24" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q24" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R24" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S24" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="77">
         <v>1</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="64" t="s">
+      <c r="C25" s="79"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="64" t="s">
+      <c r="F25" s="81" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="75"/>
@@ -3337,14 +3659,18 @@
       <c r="Q25" s="31"/>
       <c r="R25" s="31"/>
       <c r="S25" s="31"/>
-    </row>
-    <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+    </row>
+    <row r="26" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="78"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
       <c r="G26" s="76"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3361,23 +3687,27 @@
       <c r="Q26" s="32"/>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
-    </row>
-    <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="127"/>
-      <c r="B27" s="129" t="s">
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+    </row>
+    <row r="27" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="87"/>
+      <c r="B27" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="131" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="131" t="s">
+      <c r="F27" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="133"/>
+      <c r="G27" s="93"/>
       <c r="H27" s="53">
         <f>IF(E27="","","予定")</f>
         <v>0</v>
@@ -3401,15 +3731,19 @@
       <c r="Q27" s="55"/>
       <c r="R27" s="55"/>
       <c r="S27" s="55"/>
-    </row>
-    <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="128"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="130"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+    </row>
+    <row r="28" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="88"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="90"/>
       <c r="H28" s="56">
         <f>IF(E27="","","実績")</f>
         <v>0</v>
@@ -3433,23 +3767,27 @@
       <c r="Q28" s="59"/>
       <c r="R28" s="59"/>
       <c r="S28" s="59"/>
-    </row>
-    <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
-      <c r="B29" s="74" t="s">
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+    </row>
+    <row r="29" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="77"/>
+      <c r="B29" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="60" t="s">
+      <c r="D29" s="63"/>
+      <c r="E29" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="62"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3473,15 +3811,19 @@
       <c r="Q29" s="31"/>
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
-    </row>
-    <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="73"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="63"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+    </row>
+    <row r="30" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="78"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="61"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3493,7 +3835,7 @@
         <v>2</v>
       </c>
       <c r="K30" s="10">
-        <f t="shared" ref="K30:K33" si="7">SUM(L30:S30)</f>
+        <f t="shared" ref="K30:K33" si="10">SUM(L30:S30)</f>
         <v>2</v>
       </c>
       <c r="L30" s="48"/>
@@ -3506,23 +3848,27 @@
       <c r="Q30" s="32"/>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
-    </row>
-    <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
-      <c r="B31" s="74" t="s">
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+    </row>
+    <row r="31" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="77"/>
+      <c r="B31" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="60" t="s">
+      <c r="D31" s="63"/>
+      <c r="E31" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="62"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3534,7 +3880,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L31" s="30"/>
@@ -3547,15 +3893,19 @@
       <c r="Q31" s="31"/>
       <c r="R31" s="31"/>
       <c r="S31" s="31"/>
-    </row>
-    <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="63"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+    </row>
+    <row r="32" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="78"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="61"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3579,23 +3929,27 @@
       <c r="Q32" s="32"/>
       <c r="R32" s="32"/>
       <c r="S32" s="32"/>
-    </row>
-    <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
-      <c r="B33" s="74" t="s">
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+    </row>
+    <row r="33" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="77"/>
+      <c r="B33" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="68"/>
-      <c r="E33" s="60" t="s">
+      <c r="D33" s="63"/>
+      <c r="E33" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="62"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3607,7 +3961,7 @@
         <v>2</v>
       </c>
       <c r="K33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="L33" s="30"/>
@@ -3620,15 +3974,19 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31"/>
-    </row>
-    <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="73"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="63"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+    </row>
+    <row r="34" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="78"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="61"/>
       <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3653,20 +4011,24 @@
       <c r="Q34" s="32"/>
       <c r="R34" s="32"/>
       <c r="S34" s="32"/>
-    </row>
-    <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="72">
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+    </row>
+    <row r="35" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="77">
         <v>2</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="64" t="s">
+      <c r="C35" s="79"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="64" t="s">
+      <c r="F35" s="81" t="s">
         <v>38</v>
       </c>
       <c r="G35" s="75"/>
@@ -3685,14 +4047,18 @@
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31"/>
-    </row>
-    <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="73"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+    </row>
+    <row r="36" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="78"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
       <c r="G36" s="76"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3709,23 +4075,27 @@
       <c r="Q36" s="32"/>
       <c r="R36" s="32"/>
       <c r="S36" s="32"/>
-    </row>
-    <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="72"/>
-      <c r="B37" s="74" t="s">
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+    </row>
+    <row r="37" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="77"/>
+      <c r="B37" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="68"/>
-      <c r="E37" s="60" t="s">
+      <c r="D37" s="63"/>
+      <c r="E37" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="62"/>
+      <c r="G37" s="68"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3750,15 +4120,19 @@
       <c r="Q37" s="31"/>
       <c r="R37" s="31"/>
       <c r="S37" s="31"/>
-    </row>
-    <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="73"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="63"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+    </row>
+    <row r="38" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="78"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="61"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3781,23 +4155,27 @@
       <c r="Q38" s="32"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
-    </row>
-    <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="72"/>
-      <c r="B39" s="74" t="s">
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+    </row>
+    <row r="39" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="77"/>
+      <c r="B39" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="68"/>
-      <c r="E39" s="60" t="s">
+      <c r="D39" s="63"/>
+      <c r="E39" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="60" t="s">
+      <c r="F39" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="62"/>
+      <c r="G39" s="68"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3822,15 +4200,19 @@
       <c r="Q39" s="31"/>
       <c r="R39" s="31"/>
       <c r="S39" s="31"/>
-    </row>
-    <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="73"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="63"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+    </row>
+    <row r="40" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="78"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="61"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3853,23 +4235,27 @@
       <c r="Q40" s="32"/>
       <c r="R40" s="32"/>
       <c r="S40" s="32"/>
-    </row>
-    <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="72"/>
-      <c r="B41" s="74" t="s">
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+    </row>
+    <row r="41" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="77"/>
+      <c r="B41" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="68"/>
-      <c r="E41" s="60" t="s">
+      <c r="D41" s="63"/>
+      <c r="E41" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="60" t="s">
+      <c r="F41" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="62"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3894,15 +4280,19 @@
       <c r="Q41" s="31"/>
       <c r="R41" s="31"/>
       <c r="S41" s="31"/>
-    </row>
-    <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="73"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="63"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+    </row>
+    <row r="42" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="78"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="61"/>
       <c r="H42" s="52" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3925,17 +4315,21 @@
       <c r="Q42" s="32"/>
       <c r="R42" s="32"/>
       <c r="S42" s="32"/>
-    </row>
-    <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="79" t="s">
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+    </row>
+    <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="125"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="85"/>
       <c r="H43" s="20" t="s">
         <v>19</v>
       </c>
@@ -3946,11 +4340,11 @@
         <v>20</v>
       </c>
       <c r="L43" s="35">
-        <f t="shared" ref="L43:M43" si="8">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=1)*L$45:L$58)</f>
+        <f t="shared" ref="L43:M43" si="11">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=1)*L$45:L$58)</f>
         <v>0</v>
       </c>
       <c r="M43" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7.5</v>
       </c>
       <c r="N43" s="35">
@@ -3958,34 +4352,50 @@
         <v>11</v>
       </c>
       <c r="O43" s="35">
-        <f t="shared" ref="O43:S43" si="9">SUMPRODUCT((MOD(ROW(O$45:O$58),2)=1)*O$45:O$58)</f>
+        <f t="shared" ref="O43:W43" si="12">SUMPRODUCT((MOD(ROW(O$45:O$58),2)=1)*O$45:O$58)</f>
         <v>0</v>
       </c>
       <c r="P43" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q43" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R43" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S43" s="35">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="82"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="126"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="72"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="86"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -3996,7 +4406,7 @@
         <v>34</v>
       </c>
       <c r="L44" s="36">
-        <f t="shared" ref="L44:S44" si="10">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=0)*L$45:L$58)</f>
+        <f t="shared" ref="L44:W44" si="13">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=0)*L$45:L$58)</f>
         <v>0</v>
       </c>
       <c r="M44" s="36">
@@ -4004,43 +4414,56 @@
         <v>0</v>
       </c>
       <c r="N44" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="O44" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P44" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="Q44" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R44" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S44" s="36">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="72">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="77">
         <v>1</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="64" t="s">
+      <c r="C45" s="79"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="64"/>
+      <c r="F45" s="81"/>
       <c r="G45" s="75"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
@@ -4057,14 +4480,18 @@
       <c r="Q45" s="31"/>
       <c r="R45" s="31"/>
       <c r="S45" s="31"/>
-    </row>
-    <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="73"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+    </row>
+    <row r="46" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="78"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
       <c r="G46" s="76"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
@@ -4081,21 +4508,25 @@
       <c r="Q46" s="32"/>
       <c r="R46" s="32"/>
       <c r="S46" s="32"/>
-    </row>
-    <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="72"/>
-      <c r="B47" s="74" t="s">
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+    </row>
+    <row r="47" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="77"/>
+      <c r="B47" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="60" t="s">
+      <c r="D47" s="63"/>
+      <c r="E47" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="60"/>
-      <c r="G47" s="62"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="68"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4121,15 +4552,19 @@
       <c r="Q47" s="31"/>
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
-    </row>
-    <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="73"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="63"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+    </row>
+    <row r="48" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="78"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="61"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4150,21 +4585,25 @@
       <c r="Q48" s="32"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
-    </row>
-    <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="72"/>
-      <c r="B49" s="74" t="s">
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+    </row>
+    <row r="49" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="77"/>
+      <c r="B49" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="68"/>
-      <c r="E49" s="60" t="s">
+      <c r="D49" s="63"/>
+      <c r="E49" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="60"/>
-      <c r="G49" s="62"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="68"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4193,15 +4632,19 @@
       <c r="Q49" s="31"/>
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
-    </row>
-    <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="73"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="63"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+    </row>
+    <row r="50" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="78"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="61"/>
       <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4222,20 +4665,24 @@
       <c r="Q50" s="32"/>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
-    </row>
-    <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="72">
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+    </row>
+    <row r="51" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="77">
         <v>2</v>
       </c>
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="64" t="s">
+      <c r="C51" s="79"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="64"/>
+      <c r="F51" s="81"/>
       <c r="G51" s="75"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4252,14 +4699,18 @@
       <c r="Q51" s="31"/>
       <c r="R51" s="31"/>
       <c r="S51" s="31"/>
-    </row>
-    <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="73"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="31"/>
+      <c r="W51" s="31"/>
+    </row>
+    <row r="52" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="78"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
       <c r="G52" s="76"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4276,21 +4727,25 @@
       <c r="Q52" s="32"/>
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
-    </row>
-    <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="72"/>
-      <c r="B53" s="74" t="s">
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+    </row>
+    <row r="53" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="77"/>
+      <c r="B53" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="68"/>
-      <c r="E53" s="60" t="s">
+      <c r="D53" s="63"/>
+      <c r="E53" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="60"/>
-      <c r="G53" s="62"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="68"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4314,15 +4769,19 @@
       <c r="Q53" s="31"/>
       <c r="R53" s="31"/>
       <c r="S53" s="31"/>
-    </row>
-    <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="73"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="63"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="31"/>
+      <c r="V53" s="31"/>
+      <c r="W53" s="31"/>
+    </row>
+    <row r="54" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="78"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="61"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4330,7 +4789,7 @@
       <c r="I54" s="52"/>
       <c r="J54" s="52"/>
       <c r="K54" s="10">
-        <f t="shared" ref="K54:K58" si="11">SUM(L54:S54)</f>
+        <f t="shared" ref="K54:K58" si="14">SUM(L54:S54)</f>
         <v>4</v>
       </c>
       <c r="L54" s="41"/>
@@ -4345,21 +4804,25 @@
       <c r="Q54" s="32"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
-    </row>
-    <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="72"/>
-      <c r="B55" s="74" t="s">
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+    </row>
+    <row r="55" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="77"/>
+      <c r="B55" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="68"/>
-      <c r="E55" s="60" t="s">
+      <c r="D55" s="63"/>
+      <c r="E55" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="60"/>
-      <c r="G55" s="62"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="68"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4371,7 +4834,7 @@
         <v>5</v>
       </c>
       <c r="K55" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="L55" s="33"/>
@@ -4385,15 +4848,19 @@
       <c r="Q55" s="31"/>
       <c r="R55" s="31"/>
       <c r="S55" s="31"/>
-    </row>
-    <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="73"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="63"/>
+      <c r="T55" s="31"/>
+      <c r="U55" s="31"/>
+      <c r="V55" s="31"/>
+      <c r="W55" s="31"/>
+    </row>
+    <row r="56" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="78"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="61"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4401,7 +4868,7 @@
       <c r="I56" s="52"/>
       <c r="J56" s="52"/>
       <c r="K56" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8.5</v>
       </c>
       <c r="L56" s="41"/>
@@ -4416,21 +4883,25 @@
       <c r="Q56" s="32"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
-    </row>
-    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="72"/>
-      <c r="B57" s="74" t="s">
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+    </row>
+    <row r="57" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="77"/>
+      <c r="B57" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="68"/>
-      <c r="E57" s="60" t="s">
+      <c r="D57" s="63"/>
+      <c r="E57" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="60"/>
-      <c r="G57" s="62"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="68"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4454,15 +4925,19 @@
       <c r="Q57" s="31"/>
       <c r="R57" s="31"/>
       <c r="S57" s="31"/>
-    </row>
-    <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="73"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="63"/>
+      <c r="T57" s="31"/>
+      <c r="U57" s="31"/>
+      <c r="V57" s="31"/>
+      <c r="W57" s="31"/>
+    </row>
+    <row r="58" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="78"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="61"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4470,7 +4945,7 @@
       <c r="I58" s="52"/>
       <c r="J58" s="52"/>
       <c r="K58" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5</v>
       </c>
       <c r="L58" s="43"/>
@@ -4485,17 +4960,21 @@
       <c r="Q58" s="44"/>
       <c r="R58" s="44"/>
       <c r="S58" s="44"/>
-    </row>
-    <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="79" t="s">
+      <c r="T58" s="44"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="44"/>
+      <c r="W58" s="44"/>
+    </row>
+    <row r="59" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="80"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="125"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="85"/>
       <c r="H59" s="20" t="s">
         <v>19</v>
       </c>
@@ -4506,15 +4985,15 @@
         <v>27</v>
       </c>
       <c r="L59" s="35">
-        <f t="shared" ref="L59:N59" si="12">SUMPRODUCT((MOD(ROW(L$61:L$76),2)=1)*L$61:L$76)</f>
+        <f t="shared" ref="L59:N59" si="15">SUMPRODUCT((MOD(ROW(L$61:L$76),2)=1)*L$61:L$76)</f>
         <v>0</v>
       </c>
       <c r="M59" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N59" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.5</v>
       </c>
       <c r="O59" s="35">
@@ -4522,30 +5001,46 @@
         <v>16.5</v>
       </c>
       <c r="P59" s="35">
-        <f t="shared" ref="P59:S59" si="13">SUMPRODUCT((MOD(ROW(P$61:P$76),2)=1)*P$61:P$76)</f>
+        <f t="shared" ref="P59:W59" si="16">SUMPRODUCT((MOD(ROW(P$61:P$76),2)=1)*P$61:P$76)</f>
         <v>8</v>
       </c>
       <c r="Q59" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R59" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S59" s="35">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="82"/>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="126"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U59" s="35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V59" s="35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W59" s="35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="72"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="86"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4553,52 +5048,62 @@
       <c r="J60" s="7"/>
       <c r="K60" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
-        <v>52.5</v>
+        <v>53</v>
       </c>
       <c r="L60" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$61:L$76),2)=0)*L$61:L$76)</f>
         <v>0</v>
       </c>
       <c r="M60" s="36">
-        <f t="shared" ref="M60:S60" si="14">SUMPRODUCT((MOD(ROW(M$61:M$76),2)=0)*M$61:M$76)</f>
+        <f t="shared" ref="M60:W60" si="17">SUMPRODUCT((MOD(ROW(M$61:M$76),2)=0)*M$61:M$76)</f>
         <v>0</v>
       </c>
       <c r="N60" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O60" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P60" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="Q60" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="R60" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="S60" s="36">
-        <f t="shared" si="14"/>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="72">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="T60" s="36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U60" s="36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="36"/>
+      <c r="W60" s="36"/>
+    </row>
+    <row r="61" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="77">
         <v>1</v>
       </c>
-      <c r="B61" s="66" t="s">
+      <c r="B61" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="67"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
       <c r="G61" s="75"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4615,14 +5120,18 @@
       <c r="Q61" s="31"/>
       <c r="R61" s="31"/>
       <c r="S61" s="31"/>
-    </row>
-    <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="73"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
+      <c r="T61" s="31"/>
+      <c r="U61" s="31"/>
+      <c r="V61" s="31"/>
+      <c r="W61" s="31"/>
+    </row>
+    <row r="62" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="78"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="82"/>
       <c r="G62" s="76"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4639,21 +5148,25 @@
       <c r="Q62" s="32"/>
       <c r="R62" s="32"/>
       <c r="S62" s="32"/>
-    </row>
-    <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="72"/>
-      <c r="B63" s="74" t="s">
+      <c r="T62" s="32"/>
+      <c r="U62" s="32"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="32"/>
+    </row>
+    <row r="63" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="77"/>
+      <c r="B63" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="66" t="s">
+      <c r="C63" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="68"/>
-      <c r="E63" s="60" t="s">
+      <c r="D63" s="63"/>
+      <c r="E63" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="60"/>
-      <c r="G63" s="62"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="68"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4665,7 +5178,7 @@
         <v>5</v>
       </c>
       <c r="K63" s="9">
-        <f t="shared" ref="K63:K68" si="15">SUM(L63:S63)</f>
+        <f t="shared" ref="K63:K68" si="18">SUM(L63:S63)</f>
         <v>7.5</v>
       </c>
       <c r="L63" s="33"/>
@@ -4682,15 +5195,19 @@
       <c r="Q63" s="31"/>
       <c r="R63" s="31"/>
       <c r="S63" s="31"/>
-    </row>
-    <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="73"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="63"/>
+      <c r="T63" s="31"/>
+      <c r="U63" s="31"/>
+      <c r="V63" s="31"/>
+      <c r="W63" s="31"/>
+    </row>
+    <row r="64" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="78"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="61"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4698,7 +5215,7 @@
       <c r="I64" s="52"/>
       <c r="J64" s="52"/>
       <c r="K64" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
       <c r="L64" s="41"/>
@@ -4713,21 +5230,25 @@
       </c>
       <c r="R64" s="32"/>
       <c r="S64" s="32"/>
-    </row>
-    <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="72"/>
-      <c r="B65" s="74" t="s">
+      <c r="T64" s="32"/>
+      <c r="U64" s="32"/>
+      <c r="V64" s="32"/>
+      <c r="W64" s="32"/>
+    </row>
+    <row r="65" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="77"/>
+      <c r="B65" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="66" t="s">
+      <c r="C65" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="68"/>
-      <c r="E65" s="60" t="s">
+      <c r="D65" s="63"/>
+      <c r="E65" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="60"/>
-      <c r="G65" s="62"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="68"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4739,7 +5260,7 @@
         <v>5</v>
       </c>
       <c r="K65" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="L65" s="33"/>
@@ -4752,15 +5273,19 @@
       <c r="Q65" s="31"/>
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
-    </row>
-    <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="73"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="63"/>
+      <c r="T65" s="31"/>
+      <c r="U65" s="31"/>
+      <c r="V65" s="31"/>
+      <c r="W65" s="31"/>
+    </row>
+    <row r="66" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="78"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="61"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4768,7 +5293,7 @@
       <c r="I66" s="52"/>
       <c r="J66" s="52"/>
       <c r="K66" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
       <c r="L66" s="41"/>
@@ -4781,21 +5306,25 @@
       </c>
       <c r="R66" s="32"/>
       <c r="S66" s="32"/>
-    </row>
-    <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="72"/>
-      <c r="B67" s="74" t="s">
+      <c r="T66" s="32"/>
+      <c r="U66" s="32"/>
+      <c r="V66" s="32"/>
+      <c r="W66" s="32"/>
+    </row>
+    <row r="67" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="77"/>
+      <c r="B67" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="66" t="s">
+      <c r="C67" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="68"/>
-      <c r="E67" s="60" t="s">
+      <c r="D67" s="63"/>
+      <c r="E67" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="62"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="68"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4807,7 +5336,7 @@
         <v>5</v>
       </c>
       <c r="K67" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
       <c r="L67" s="33"/>
@@ -4821,15 +5350,19 @@
       <c r="Q67" s="31"/>
       <c r="R67" s="31"/>
       <c r="S67" s="31"/>
-    </row>
-    <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="73"/>
-      <c r="B68" s="63"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="63"/>
+      <c r="T67" s="31"/>
+      <c r="U67" s="31"/>
+      <c r="V67" s="31"/>
+      <c r="W67" s="31"/>
+    </row>
+    <row r="68" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="78"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="61"/>
       <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4837,7 +5370,7 @@
       <c r="I68" s="52"/>
       <c r="J68" s="52"/>
       <c r="K68" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="L68" s="41"/>
@@ -4852,18 +5385,22 @@
       <c r="S68" s="32">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="72">
+      <c r="T68" s="32"/>
+      <c r="U68" s="32"/>
+      <c r="V68" s="32"/>
+      <c r="W68" s="32"/>
+    </row>
+    <row r="69" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="77">
         <v>2</v>
       </c>
-      <c r="B69" s="66" t="s">
+      <c r="B69" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="67"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
       <c r="G69" s="75"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4880,14 +5417,18 @@
       <c r="Q69" s="31"/>
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
-    </row>
-    <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="73"/>
-      <c r="B70" s="69"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
+      <c r="T69" s="31"/>
+      <c r="U69" s="31"/>
+      <c r="V69" s="31"/>
+      <c r="W69" s="31"/>
+    </row>
+    <row r="70" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="78"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
       <c r="G70" s="76"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4904,21 +5445,25 @@
       <c r="Q70" s="32"/>
       <c r="R70" s="32"/>
       <c r="S70" s="32"/>
-    </row>
-    <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="72"/>
-      <c r="B71" s="74" t="s">
+      <c r="T70" s="32"/>
+      <c r="U70" s="32"/>
+      <c r="V70" s="32"/>
+      <c r="W70" s="32"/>
+    </row>
+    <row r="71" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="77"/>
+      <c r="B71" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="66" t="s">
+      <c r="C71" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="68"/>
-      <c r="E71" s="60" t="s">
+      <c r="D71" s="63"/>
+      <c r="E71" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="60"/>
-      <c r="G71" s="62"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="68"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
@@ -4930,7 +5475,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="9">
-        <f t="shared" ref="K71:K76" si="16">SUM(L71:S71)</f>
+        <f t="shared" ref="K71:K76" si="19">SUM(L71:S71)</f>
         <v>2.5</v>
       </c>
       <c r="L71" s="33"/>
@@ -4944,15 +5489,19 @@
       <c r="Q71" s="31"/>
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
-    </row>
-    <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="73"/>
-      <c r="B72" s="63"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="63"/>
+      <c r="T71" s="31"/>
+      <c r="U71" s="31"/>
+      <c r="V71" s="31"/>
+      <c r="W71" s="31"/>
+    </row>
+    <row r="72" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="78"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="61"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -4960,7 +5509,7 @@
       <c r="I72" s="52"/>
       <c r="J72" s="52"/>
       <c r="K72" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3.5</v>
       </c>
       <c r="L72" s="41"/>
@@ -4975,21 +5524,25 @@
       <c r="S72" s="32">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="72"/>
-      <c r="B73" s="74" t="s">
+      <c r="T72" s="32"/>
+      <c r="U72" s="32"/>
+      <c r="V72" s="32"/>
+      <c r="W72" s="32"/>
+    </row>
+    <row r="73" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="77"/>
+      <c r="B73" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="66" t="s">
+      <c r="C73" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="68"/>
-      <c r="E73" s="60" t="s">
+      <c r="D73" s="63"/>
+      <c r="E73" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="60"/>
-      <c r="G73" s="62"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="68"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5001,7 +5554,7 @@
         <v>5</v>
       </c>
       <c r="K73" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="L73" s="33"/>
@@ -5015,15 +5568,19 @@
       <c r="Q73" s="31"/>
       <c r="R73" s="31"/>
       <c r="S73" s="31"/>
-    </row>
-    <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="73"/>
-      <c r="B74" s="63"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="63"/>
+      <c r="T73" s="31"/>
+      <c r="U73" s="31"/>
+      <c r="V73" s="31"/>
+      <c r="W73" s="31"/>
+    </row>
+    <row r="74" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="78"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="61"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5031,7 +5588,7 @@
       <c r="I74" s="52"/>
       <c r="J74" s="52"/>
       <c r="K74" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="L74" s="41"/>
@@ -5046,21 +5603,25 @@
       <c r="S74" s="32">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="72"/>
-      <c r="B75" s="74" t="s">
+      <c r="T74" s="32"/>
+      <c r="U74" s="32"/>
+      <c r="V74" s="32"/>
+      <c r="W74" s="32"/>
+    </row>
+    <row r="75" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="77"/>
+      <c r="B75" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="66" t="s">
+      <c r="C75" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="68"/>
-      <c r="E75" s="60" t="s">
+      <c r="D75" s="63"/>
+      <c r="E75" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F75" s="60"/>
-      <c r="G75" s="62"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="68"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5072,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="L75" s="33"/>
@@ -5086,15 +5647,19 @@
       <c r="Q75" s="31"/>
       <c r="R75" s="31"/>
       <c r="S75" s="31"/>
-    </row>
-    <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="73"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="63"/>
+      <c r="T75" s="31"/>
+      <c r="U75" s="31"/>
+      <c r="V75" s="31"/>
+      <c r="W75" s="31"/>
+    </row>
+    <row r="76" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="78"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="61"/>
       <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5102,8 +5667,8 @@
       <c r="I76" s="52"/>
       <c r="J76" s="52"/>
       <c r="K76" s="10">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.5</v>
       </c>
       <c r="L76" s="43"/>
       <c r="M76" s="44"/>
@@ -5112,18 +5677,24 @@
       <c r="P76" s="44"/>
       <c r="Q76" s="44"/>
       <c r="R76" s="44"/>
-      <c r="S76" s="44"/>
-    </row>
-    <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="79" t="s">
+      <c r="S76" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="T76" s="44"/>
+      <c r="U76" s="44"/>
+      <c r="V76" s="44"/>
+      <c r="W76" s="44"/>
+    </row>
+    <row r="77" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="80"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="125"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="85"/>
       <c r="H77" s="20" t="s">
         <v>19</v>
       </c>
@@ -5134,23 +5705,23 @@
         <v>20</v>
       </c>
       <c r="L77" s="35">
-        <f t="shared" ref="L77:P77" si="17">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
+        <f t="shared" ref="L77:P77" si="20">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
         <v>0</v>
       </c>
       <c r="M77" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N77" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O77" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P77" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="Q77" s="35">
@@ -5158,22 +5729,35 @@
         <v>15</v>
       </c>
       <c r="R77" s="35">
-        <f t="shared" ref="R77:S77" si="18">SUMPRODUCT((MOD(ROW(R$79:R$84),2)=1)*R$79:R$84)</f>
+        <f t="shared" ref="R77:W77" si="21">SUMPRODUCT((MOD(ROW(R$79:R$84),2)=1)*R$79:R$84)</f>
         <v>0</v>
       </c>
       <c r="S77" s="35">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="82"/>
-      <c r="B78" s="83"/>
-      <c r="C78" s="83"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="78"/>
-      <c r="F78" s="78"/>
-      <c r="G78" s="126"/>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="35">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="35">
+        <f>SUMPRODUCT((MOD(ROW(U$79:U$84),2)=1)*U$79:U$84)</f>
+        <v>0</v>
+      </c>
+      <c r="V77" s="35">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="35"/>
+    </row>
+    <row r="78" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="72"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="86"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5181,10 +5765,10 @@
       <c r="J78" s="7"/>
       <c r="K78" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$79:K$84),2)=0)*K$79:K$84)</f>
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="L78" s="36">
-        <f t="shared" ref="L78:S78" si="19">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
+        <f t="shared" ref="L78:W78" si="22">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
         <v>0</v>
       </c>
       <c r="M78" s="36">
@@ -5192,41 +5776,54 @@
         <v>0</v>
       </c>
       <c r="N78" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O78" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P78" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q78" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R78" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S78" s="36">
-        <f t="shared" si="19"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="72">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="T78" s="36">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="U78" s="36">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="V78" s="36">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="W78" s="36"/>
+    </row>
+    <row r="79" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="77">
         <v>1</v>
       </c>
-      <c r="B79" s="66" t="s">
+      <c r="B79" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="67"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="81"/>
+      <c r="F79" s="81"/>
       <c r="G79" s="75"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5243,14 +5840,18 @@
       <c r="Q79" s="31"/>
       <c r="R79" s="31"/>
       <c r="S79" s="31"/>
-    </row>
-    <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="73"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
+      <c r="T79" s="31"/>
+      <c r="U79" s="31"/>
+      <c r="V79" s="31"/>
+      <c r="W79" s="31"/>
+    </row>
+    <row r="80" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="78"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="82"/>
+      <c r="F80" s="82"/>
       <c r="G80" s="76"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5267,21 +5868,25 @@
       <c r="Q80" s="32"/>
       <c r="R80" s="32"/>
       <c r="S80" s="32"/>
-    </row>
-    <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="72"/>
-      <c r="B81" s="74" t="s">
+      <c r="T80" s="32"/>
+      <c r="U80" s="32"/>
+      <c r="V80" s="32"/>
+      <c r="W80" s="32"/>
+    </row>
+    <row r="81" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="77"/>
+      <c r="B81" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C81" s="66" t="s">
+      <c r="C81" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="68"/>
-      <c r="E81" s="60" t="s">
+      <c r="D81" s="63"/>
+      <c r="E81" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="60"/>
-      <c r="G81" s="62"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="68"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5293,7 +5898,7 @@
         <v>5</v>
       </c>
       <c r="K81" s="9">
-        <f t="shared" ref="K81:K84" si="20">SUM(L81:S81)</f>
+        <f t="shared" ref="K81:K84" si="23">SUM(L81:S81)</f>
         <v>15</v>
       </c>
       <c r="L81" s="33"/>
@@ -5310,15 +5915,19 @@
       </c>
       <c r="R81" s="31"/>
       <c r="S81" s="31"/>
-    </row>
-    <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="73"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="63"/>
+      <c r="T81" s="31"/>
+      <c r="U81" s="31"/>
+      <c r="V81" s="31"/>
+      <c r="W81" s="31"/>
+    </row>
+    <row r="82" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="78"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="61"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5326,8 +5935,8 @@
       <c r="I82" s="52"/>
       <c r="J82" s="52"/>
       <c r="K82" s="10">
-        <f t="shared" si="20"/>
-        <v>35</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="L82" s="41"/>
       <c r="M82" s="32"/>
@@ -5337,23 +5946,31 @@
       <c r="Q82" s="32"/>
       <c r="R82" s="32"/>
       <c r="S82" s="32">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="72"/>
-      <c r="B83" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="T82" s="32">
+        <v>15</v>
+      </c>
+      <c r="U82" s="32">
+        <v>12</v>
+      </c>
+      <c r="V82" s="32"/>
+      <c r="W82" s="32"/>
+    </row>
+    <row r="83" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="77"/>
+      <c r="B83" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="66" t="s">
+      <c r="C83" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="68"/>
-      <c r="E83" s="60" t="s">
+      <c r="D83" s="63"/>
+      <c r="E83" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F83" s="60"/>
-      <c r="G83" s="62"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="68"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5365,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="K83" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="L83" s="33"/>
@@ -5379,15 +5996,19 @@
       </c>
       <c r="R83" s="31"/>
       <c r="S83" s="31"/>
-    </row>
-    <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="73"/>
-      <c r="B84" s="63"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="63"/>
+      <c r="T83" s="31"/>
+      <c r="U83" s="31"/>
+      <c r="V83" s="31"/>
+      <c r="W83" s="31"/>
+    </row>
+    <row r="84" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="78"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="61"/>
       <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5395,7 +6016,7 @@
       <c r="I84" s="52"/>
       <c r="J84" s="52"/>
       <c r="K84" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L84" s="41"/>
@@ -5406,120 +6027,152 @@
       <c r="Q84" s="32"/>
       <c r="R84" s="32"/>
       <c r="S84" s="32"/>
-    </row>
-    <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="79" t="s">
+      <c r="T84" s="32"/>
+      <c r="U84" s="32">
+        <v>3</v>
+      </c>
+      <c r="V84" s="32"/>
+      <c r="W84" s="32"/>
+    </row>
+    <row r="85" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="80"/>
-      <c r="C85" s="80"/>
-      <c r="D85" s="81"/>
-      <c r="E85" s="77"/>
-      <c r="F85" s="77"/>
-      <c r="G85" s="125"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="83"/>
+      <c r="F85" s="83"/>
+      <c r="G85" s="85"/>
       <c r="H85" s="20" t="s">
         <v>19</v>
       </c>
       <c r="I85" s="20"/>
       <c r="J85" s="20"/>
       <c r="K85" s="21">
-        <f t="shared" ref="K85:S85" si="21">SUMPRODUCT((MOD(ROW(K$87:K$96),2)=1)*K$87:K$96)</f>
+        <f t="shared" ref="K85:W85" si="24">SUMPRODUCT((MOD(ROW(K$87:K$96),2)=1)*K$87:K$96)</f>
+        <v>6.5</v>
+      </c>
+      <c r="L85" s="35">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="35">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="35">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="35">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="35">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="35">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R85" s="35">
+        <f t="shared" si="24"/>
         <v>5.5</v>
       </c>
-      <c r="L85" s="35">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M85" s="35">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N85" s="35">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O85" s="35">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P85" s="35">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Q85" s="35">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R85" s="35">
-        <f t="shared" si="21"/>
-        <v>5.5</v>
-      </c>
       <c r="S85" s="35">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="82"/>
-      <c r="B86" s="83"/>
-      <c r="C86" s="83"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="126"/>
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="T85" s="35">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U85" s="35">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V85" s="35"/>
+      <c r="W85" s="35"/>
+    </row>
+    <row r="86" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="72"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="84"/>
+      <c r="G86" s="86"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="15">
-        <f t="shared" ref="K86:S86" si="22">SUMPRODUCT((MOD(ROW(K$87:K$96),2)=0)*K$87:K$96)</f>
+        <f t="shared" ref="K86:W86" si="25">SUMPRODUCT((MOD(ROW(K$87:K$96),2)=0)*K$87:K$96)</f>
         <v>0</v>
       </c>
       <c r="L86" s="37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M86" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N86" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O86" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P86" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q86" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R86" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S86" s="36">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="72">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="T86" s="36">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U86" s="36">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V86" s="36">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="W86" s="36">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="77">
         <v>1</v>
       </c>
-      <c r="B87" s="66" t="s">
+      <c r="B87" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C87" s="67"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
       <c r="G87" s="75"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5536,14 +6189,18 @@
       <c r="Q87" s="31"/>
       <c r="R87" s="31"/>
       <c r="S87" s="31"/>
-    </row>
-    <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="73"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="70"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65"/>
+      <c r="T87" s="31"/>
+      <c r="U87" s="31"/>
+      <c r="V87" s="31"/>
+      <c r="W87" s="31"/>
+    </row>
+    <row r="88" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="78"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="82"/>
       <c r="G88" s="76"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5560,21 +6217,25 @@
       <c r="Q88" s="32"/>
       <c r="R88" s="32"/>
       <c r="S88" s="32"/>
-    </row>
-    <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="72"/>
-      <c r="B89" s="74" t="s">
+      <c r="T88" s="32"/>
+      <c r="U88" s="32"/>
+      <c r="V88" s="32"/>
+      <c r="W88" s="32"/>
+    </row>
+    <row r="89" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="77"/>
+      <c r="B89" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="66" t="s">
+      <c r="C89" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="68"/>
-      <c r="E89" s="60" t="s">
+      <c r="D89" s="63"/>
+      <c r="E89" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="60"/>
-      <c r="G89" s="62"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="68"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5587,7 +6248,7 @@
       </c>
       <c r="K89" s="9">
         <f>SUM(L89:S89)</f>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L89" s="33"/>
       <c r="M89" s="31"/>
@@ -5599,16 +6260,22 @@
         <f>0.5*5</f>
         <v>2.5</v>
       </c>
-      <c r="S89" s="31"/>
-    </row>
-    <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="73"/>
-      <c r="B90" s="63"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="63"/>
+      <c r="S89" s="31">
+        <v>1</v>
+      </c>
+      <c r="T89" s="31"/>
+      <c r="U89" s="31"/>
+      <c r="V89" s="31"/>
+      <c r="W89" s="31"/>
+    </row>
+    <row r="90" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="78"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="61"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5627,18 +6294,24 @@
       <c r="Q90" s="32"/>
       <c r="R90" s="32"/>
       <c r="S90" s="32"/>
-    </row>
-    <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="72">
+      <c r="T90" s="32"/>
+      <c r="U90" s="32"/>
+      <c r="V90" s="32">
+        <v>1</v>
+      </c>
+      <c r="W90" s="32"/>
+    </row>
+    <row r="91" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="77">
         <v>2</v>
       </c>
-      <c r="B91" s="66" t="s">
+      <c r="B91" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="67"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="81"/>
+      <c r="F91" s="81"/>
       <c r="G91" s="75"/>
       <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
@@ -5655,14 +6328,18 @@
       <c r="Q91" s="31"/>
       <c r="R91" s="31"/>
       <c r="S91" s="31"/>
-    </row>
-    <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="73"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
+      <c r="T91" s="31"/>
+      <c r="U91" s="31"/>
+      <c r="V91" s="31"/>
+      <c r="W91" s="31"/>
+    </row>
+    <row r="92" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="78"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="80"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="82"/>
+      <c r="F92" s="82"/>
       <c r="G92" s="76"/>
       <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5679,21 +6356,25 @@
       <c r="Q92" s="32"/>
       <c r="R92" s="32"/>
       <c r="S92" s="32"/>
-    </row>
-    <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="72"/>
-      <c r="B93" s="74" t="s">
+      <c r="T92" s="32"/>
+      <c r="U92" s="32"/>
+      <c r="V92" s="32"/>
+      <c r="W92" s="32"/>
+    </row>
+    <row r="93" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="77"/>
+      <c r="B93" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="66" t="s">
+      <c r="C93" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="68"/>
-      <c r="E93" s="60" t="s">
+      <c r="D93" s="63"/>
+      <c r="E93" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="60"/>
-      <c r="G93" s="62"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="68"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -5705,7 +6386,7 @@
         <v>5</v>
       </c>
       <c r="K93" s="9">
-        <f t="shared" ref="K93:K96" si="23">SUM(L93:S93)</f>
+        <f t="shared" ref="K93:K96" si="26">SUM(L93:S93)</f>
         <v>2.5</v>
       </c>
       <c r="L93" s="33"/>
@@ -5719,15 +6400,19 @@
         <v>2.5</v>
       </c>
       <c r="S93" s="31"/>
-    </row>
-    <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="73"/>
-      <c r="B94" s="63"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="61"/>
-      <c r="G94" s="63"/>
+      <c r="T93" s="31"/>
+      <c r="U93" s="31"/>
+      <c r="V93" s="31"/>
+      <c r="W93" s="31"/>
+    </row>
+    <row r="94" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="78"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="61"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -5735,7 +6420,7 @@
       <c r="I94" s="52"/>
       <c r="J94" s="52"/>
       <c r="K94" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L94" s="41"/>
@@ -5746,21 +6431,27 @@
       <c r="Q94" s="32"/>
       <c r="R94" s="32"/>
       <c r="S94" s="32"/>
-    </row>
-    <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="72"/>
-      <c r="B95" s="74" t="s">
+      <c r="T94" s="32"/>
+      <c r="U94" s="32"/>
+      <c r="V94" s="32">
+        <v>1</v>
+      </c>
+      <c r="W94" s="32"/>
+    </row>
+    <row r="95" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="77"/>
+      <c r="B95" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="66" t="s">
+      <c r="C95" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D95" s="68"/>
-      <c r="E95" s="60" t="s">
+      <c r="D95" s="63"/>
+      <c r="E95" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="60"/>
-      <c r="G95" s="62"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="68"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5772,7 +6463,7 @@
         <v>1</v>
       </c>
       <c r="K95" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="L95" s="33"/>
@@ -5785,15 +6476,19 @@
         <v>0.5</v>
       </c>
       <c r="S95" s="31"/>
-    </row>
-    <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="73"/>
-      <c r="B96" s="63"/>
-      <c r="C96" s="69"/>
-      <c r="D96" s="71"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="61"/>
-      <c r="G96" s="63"/>
+      <c r="T95" s="31"/>
+      <c r="U95" s="31"/>
+      <c r="V95" s="31"/>
+      <c r="W95" s="31"/>
+    </row>
+    <row r="96" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="78"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="61"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -5801,7 +6496,7 @@
       <c r="I96" s="52"/>
       <c r="J96" s="52"/>
       <c r="K96" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L96" s="43"/>
@@ -5812,17 +6507,23 @@
       <c r="Q96" s="44"/>
       <c r="R96" s="44"/>
       <c r="S96" s="44"/>
-    </row>
-    <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="79" t="s">
+      <c r="T96" s="44"/>
+      <c r="U96" s="44"/>
+      <c r="V96" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="W96" s="44"/>
+    </row>
+    <row r="97" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="80"/>
-      <c r="C97" s="80"/>
-      <c r="D97" s="81"/>
-      <c r="E97" s="77"/>
-      <c r="F97" s="77"/>
-      <c r="G97" s="125"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="83"/>
+      <c r="G97" s="85"/>
       <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
@@ -5833,46 +6534,59 @@
         <v>7</v>
       </c>
       <c r="L97" s="35">
-        <f t="shared" ref="L97:R97" si="24">SUMPRODUCT((MOD(ROW(L$99:L$110),2)=1)*L$99:L$110)</f>
+        <f t="shared" ref="L97:V97" si="27">SUMPRODUCT((MOD(ROW(L$99:L$110),2)=1)*L$99:L$110)</f>
         <v>0</v>
       </c>
       <c r="M97" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N97" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O97" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P97" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q97" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R97" s="35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="S97" s="35">
         <f>SUMPRODUCT((MOD(ROW(S$99:S$110),2)=1)*S$99:S$110)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="82"/>
-      <c r="B98" s="83"/>
-      <c r="C98" s="83"/>
-      <c r="D98" s="84"/>
-      <c r="E98" s="78"/>
-      <c r="F98" s="78"/>
-      <c r="G98" s="126"/>
+      <c r="T97" s="35">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U97" s="35">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V97" s="35"/>
+      <c r="W97" s="35">
+        <f>SUMPRODUCT((MOD(ROW(W$99:W$110),2)=1)*W$99:W$110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="72"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="73"/>
+      <c r="D98" s="74"/>
+      <c r="E98" s="84"/>
+      <c r="F98" s="84"/>
+      <c r="G98" s="86"/>
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
@@ -5887,45 +6601,61 @@
         <v>0</v>
       </c>
       <c r="M98" s="37">
-        <f t="shared" ref="M98:S98" si="25">SUMPRODUCT((MOD(ROW(M$99:M$110),2)=0)*M$99:M$110)</f>
+        <f t="shared" ref="M98:W98" si="28">SUMPRODUCT((MOD(ROW(M$99:M$110),2)=0)*M$99:M$110)</f>
         <v>0</v>
       </c>
       <c r="N98" s="37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O98" s="37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P98" s="37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q98" s="37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="R98" s="37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S98" s="37">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="72">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="T98" s="37">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U98" s="37">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="V98" s="37">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="W98" s="37">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="77">
         <v>1</v>
       </c>
-      <c r="B99" s="66" t="s">
+      <c r="B99" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C99" s="67"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="64"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="81"/>
+      <c r="F99" s="81"/>
       <c r="G99" s="75"/>
       <c r="H99" s="23" t="str">
         <f>IF(E99="","","予定")</f>
@@ -5942,14 +6672,18 @@
       <c r="Q99" s="31"/>
       <c r="R99" s="31"/>
       <c r="S99" s="31"/>
-    </row>
-    <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="73"/>
-      <c r="B100" s="69"/>
-      <c r="C100" s="70"/>
-      <c r="D100" s="71"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
+      <c r="T99" s="31"/>
+      <c r="U99" s="31"/>
+      <c r="V99" s="31"/>
+      <c r="W99" s="31"/>
+    </row>
+    <row r="100" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="78"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="80"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="82"/>
       <c r="G100" s="76"/>
       <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
@@ -5966,21 +6700,25 @@
       <c r="Q100" s="32"/>
       <c r="R100" s="32"/>
       <c r="S100" s="32"/>
-    </row>
-    <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="72"/>
-      <c r="B101" s="74" t="s">
+      <c r="T100" s="32"/>
+      <c r="U100" s="32"/>
+      <c r="V100" s="32"/>
+      <c r="W100" s="32"/>
+    </row>
+    <row r="101" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="77"/>
+      <c r="B101" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="66" t="s">
+      <c r="C101" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="68"/>
-      <c r="E101" s="60" t="s">
+      <c r="D101" s="63"/>
+      <c r="E101" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="60"/>
-      <c r="G101" s="62"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="68"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -6006,15 +6744,19 @@
         <v>2.5</v>
       </c>
       <c r="S101" s="31"/>
-    </row>
-    <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="73"/>
-      <c r="B102" s="63"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="71"/>
-      <c r="E102" s="61"/>
-      <c r="F102" s="61"/>
-      <c r="G102" s="63"/>
+      <c r="T101" s="31"/>
+      <c r="U101" s="31"/>
+      <c r="V101" s="31"/>
+      <c r="W101" s="31"/>
+    </row>
+    <row r="102" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="78"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="61"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -6033,21 +6775,25 @@
       <c r="Q102" s="32"/>
       <c r="R102" s="32"/>
       <c r="S102" s="32"/>
-    </row>
-    <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="72"/>
-      <c r="B103" s="74" t="s">
+      <c r="T102" s="32"/>
+      <c r="U102" s="32"/>
+      <c r="V102" s="32"/>
+      <c r="W102" s="32"/>
+    </row>
+    <row r="103" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="77"/>
+      <c r="B103" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="66" t="s">
+      <c r="C103" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="68"/>
-      <c r="E103" s="60" t="s">
+      <c r="D103" s="63"/>
+      <c r="E103" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="60"/>
-      <c r="G103" s="62"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="68"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6073,15 +6819,19 @@
         <v>1.5</v>
       </c>
       <c r="S103" s="31"/>
-    </row>
-    <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="73"/>
-      <c r="B104" s="63"/>
-      <c r="C104" s="69"/>
-      <c r="D104" s="71"/>
-      <c r="E104" s="61"/>
-      <c r="F104" s="61"/>
-      <c r="G104" s="63"/>
+      <c r="T103" s="31"/>
+      <c r="U103" s="31"/>
+      <c r="V103" s="31"/>
+      <c r="W103" s="31"/>
+    </row>
+    <row r="104" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="78"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="61"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6100,18 +6850,22 @@
       <c r="Q104" s="32"/>
       <c r="R104" s="32"/>
       <c r="S104" s="32"/>
-    </row>
-    <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="72">
+      <c r="T104" s="32"/>
+      <c r="U104" s="32"/>
+      <c r="V104" s="32"/>
+      <c r="W104" s="32"/>
+    </row>
+    <row r="105" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="77">
         <v>2</v>
       </c>
-      <c r="B105" s="66" t="s">
+      <c r="B105" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="67"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="64"/>
+      <c r="C105" s="79"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="81"/>
+      <c r="F105" s="81"/>
       <c r="G105" s="75"/>
       <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
@@ -6128,14 +6882,18 @@
       <c r="Q105" s="31"/>
       <c r="R105" s="31"/>
       <c r="S105" s="31"/>
-    </row>
-    <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="73"/>
-      <c r="B106" s="69"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="71"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
+      <c r="T105" s="31"/>
+      <c r="U105" s="31"/>
+      <c r="V105" s="31"/>
+      <c r="W105" s="31"/>
+    </row>
+    <row r="106" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="78"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="80"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="82"/>
+      <c r="F106" s="82"/>
       <c r="G106" s="76"/>
       <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
@@ -6152,21 +6910,25 @@
       <c r="Q106" s="32"/>
       <c r="R106" s="32"/>
       <c r="S106" s="32"/>
-    </row>
-    <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="72"/>
-      <c r="B107" s="74" t="s">
+      <c r="T106" s="32"/>
+      <c r="U106" s="32"/>
+      <c r="V106" s="32"/>
+      <c r="W106" s="32"/>
+    </row>
+    <row r="107" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="77"/>
+      <c r="B107" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="66" t="s">
+      <c r="C107" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="68"/>
-      <c r="E107" s="60" t="s">
+      <c r="D107" s="63"/>
+      <c r="E107" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F107" s="60"/>
-      <c r="G107" s="62"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="68"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6178,7 +6940,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="9">
-        <f t="shared" ref="K107:K110" si="26">SUM(L107:S107)</f>
+        <f t="shared" ref="K107:K110" si="29">SUM(L107:S107)</f>
         <v>2.5</v>
       </c>
       <c r="L107" s="33"/>
@@ -6192,15 +6954,19 @@
         <v>2.5</v>
       </c>
       <c r="S107" s="31"/>
-    </row>
-    <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="73"/>
-      <c r="B108" s="63"/>
-      <c r="C108" s="69"/>
-      <c r="D108" s="71"/>
-      <c r="E108" s="61"/>
-      <c r="F108" s="61"/>
-      <c r="G108" s="63"/>
+      <c r="T107" s="31"/>
+      <c r="U107" s="31"/>
+      <c r="V107" s="31"/>
+      <c r="W107" s="31"/>
+    </row>
+    <row r="108" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="78"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="61"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6208,7 +6974,7 @@
       <c r="I108" s="52"/>
       <c r="J108" s="52"/>
       <c r="K108" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L108" s="41"/>
@@ -6219,21 +6985,25 @@
       <c r="Q108" s="32"/>
       <c r="R108" s="32"/>
       <c r="S108" s="32"/>
-    </row>
-    <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="72"/>
-      <c r="B109" s="74" t="s">
+      <c r="T108" s="32"/>
+      <c r="U108" s="32"/>
+      <c r="V108" s="32"/>
+      <c r="W108" s="32"/>
+    </row>
+    <row r="109" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="77"/>
+      <c r="B109" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="66" t="s">
+      <c r="C109" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D109" s="68"/>
-      <c r="E109" s="60" t="s">
+      <c r="D109" s="63"/>
+      <c r="E109" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F109" s="60"/>
-      <c r="G109" s="62"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="68"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6245,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="K109" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.5</v>
       </c>
       <c r="L109" s="33"/>
@@ -6259,15 +7029,19 @@
         <v>0.5</v>
       </c>
       <c r="S109" s="31"/>
-    </row>
-    <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="73"/>
-      <c r="B110" s="63"/>
-      <c r="C110" s="69"/>
-      <c r="D110" s="71"/>
-      <c r="E110" s="61"/>
-      <c r="F110" s="61"/>
-      <c r="G110" s="63"/>
+      <c r="T109" s="31"/>
+      <c r="U109" s="31"/>
+      <c r="V109" s="31"/>
+      <c r="W109" s="31"/>
+    </row>
+    <row r="110" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="78"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="61"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -6275,7 +7049,7 @@
       <c r="I110" s="52"/>
       <c r="J110" s="52"/>
       <c r="K110" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L110" s="41"/>
@@ -6286,8 +7060,12 @@
       <c r="Q110" s="32"/>
       <c r="R110" s="32"/>
       <c r="S110" s="32"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T110" s="32"/>
+      <c r="U110" s="32"/>
+      <c r="V110" s="32"/>
+      <c r="W110" s="32"/>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
       <c r="L111" s="39"/>
       <c r="M111" s="39"/>
       <c r="N111" s="39"/>
@@ -6295,6 +7073,9 @@
       <c r="Q111" s="39"/>
       <c r="R111" s="39"/>
       <c r="S111" s="39"/>
+      <c r="U111" s="39"/>
+      <c r="V111" s="39"/>
+      <c r="W111" s="39"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:K110" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -6302,7 +7083,298 @@
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <mergeCells count="309">
+  <mergeCells count="315">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="A97:D98"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="C73:D74"/>
     <mergeCell ref="E73:E74"/>
@@ -6327,371 +7399,166 @@
     <mergeCell ref="C89:D90"/>
     <mergeCell ref="E89:E90"/>
     <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="A97:D98"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:S18 L99:S110 L25:S26 M29:S29 L30:S36 L87:S96">
-    <cfRule type="expression" dxfId="19" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="49" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="50" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:S58">
-    <cfRule type="expression" dxfId="17" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="47" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="48" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:S20">
-    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="45" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="46" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61:S64 L67:S76">
-    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="43" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L61), L61&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="44" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L61), L61&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L79:S84">
-    <cfRule type="expression" dxfId="11" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="41" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L79), L79&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="42" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L79), L79&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:S22">
-    <cfRule type="expression" dxfId="9" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="37" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L21), L21&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="38" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L21), L21&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:S38 L41:S42">
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L37), L37&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="32" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L37), L37&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:S40">
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L39), L39&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="30" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L39), L39&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65:S66">
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L65), L65&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="28" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L65), L65&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:S28">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L27), L27&gt;0)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L27), L27&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T9:W18 T99:W110 T25:W26 T29:W36 T87:W96">
+    <cfRule type="expression" dxfId="19" priority="19" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T9), T9&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T9), T9&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T45:W58">
+    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T45), T45&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T45), T45&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19:W20">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T19), T19&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T19), T19&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T61:W64 T67:W76">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T61), T61&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T61), T61&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T79:W84">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T79), T79&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T79), T79&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T21:W22">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T21), T21&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T21), T21&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T37:W38 T41:W42">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T37), T37&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T37), T37&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T39:W40">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T39), T39&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T39), T39&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T65:W66">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T65), T65&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T65), T65&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27:W28">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T27), T27&gt;0)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L27), L27&gt;0)</formula>
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T27), T27&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -6726,6 +7593,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6909,12 +7782,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
@@ -6924,6 +7791,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2E3E761-B6CF-4176-A3CC-D1E7FA487AE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6939,13 +7815,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00_management/WBSガントチャート_バナナ11.xlsx
+++ b/00_management/WBSガントチャート_バナナ11.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7B71FE-2434-42C3-84C3-748DF3338695}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC277C88-D9B7-4C3F-BFA0-7BFEF5C94F0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1522,32 +1522,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1567,34 +1612,109 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1623,126 +1743,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2506,10 +2506,10 @@
   <dimension ref="A1:W111"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="M80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="M83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Y93" sqref="Y93"/>
+      <selection pane="bottomRight" activeCell="X107" sqref="X107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2528,144 +2528,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="114" t="s">
+      <c r="A1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="114" t="s">
+      <c r="I1" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="114" t="s">
+      <c r="J1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="127" t="s">
+      <c r="K1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="117">
+      <c r="L1" s="60">
         <v>43984</v>
       </c>
-      <c r="M1" s="118"/>
-      <c r="N1" s="117">
+      <c r="M1" s="61"/>
+      <c r="N1" s="60">
         <v>43985</v>
       </c>
-      <c r="O1" s="118"/>
-      <c r="P1" s="117">
+      <c r="O1" s="61"/>
+      <c r="P1" s="60">
         <v>43986</v>
       </c>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="117">
+      <c r="Q1" s="61"/>
+      <c r="R1" s="60">
         <v>43987</v>
       </c>
-      <c r="S1" s="118"/>
-      <c r="T1" s="117">
+      <c r="S1" s="61"/>
+      <c r="T1" s="60">
         <v>43990</v>
       </c>
-      <c r="U1" s="118"/>
-      <c r="V1" s="117">
+      <c r="U1" s="61"/>
+      <c r="V1" s="60">
         <v>43991</v>
       </c>
-      <c r="W1" s="118"/>
+      <c r="W1" s="61"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="121" t="s">
+      <c r="A2" s="109"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="120"/>
-      <c r="N2" s="119" t="s">
+      <c r="M2" s="63"/>
+      <c r="N2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="119"/>
-      <c r="P2" s="122" t="s">
+      <c r="O2" s="62"/>
+      <c r="P2" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="119" t="s">
+      <c r="Q2" s="63"/>
+      <c r="R2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="120"/>
-      <c r="T2" s="119" t="s">
+      <c r="S2" s="63"/>
+      <c r="T2" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="U2" s="120"/>
-      <c r="V2" s="119" t="s">
+      <c r="U2" s="63"/>
+      <c r="V2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="120"/>
+      <c r="W2" s="63"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="125" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="124"/>
-      <c r="N3" s="123" t="s">
+      <c r="M3" s="93"/>
+      <c r="N3" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="124"/>
-      <c r="P3" s="123" t="s">
+      <c r="O3" s="93"/>
+      <c r="P3" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="126" t="s">
+      <c r="Q3" s="93"/>
+      <c r="R3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126" t="s">
+      <c r="S3" s="64"/>
+      <c r="T3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126" t="s">
+      <c r="U3" s="64"/>
+      <c r="V3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="126"/>
+      <c r="W3" s="64"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="129"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="97"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2704,15 +2704,15 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="130"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="101"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2760,13 +2760,13 @@
       <c r="W5" s="27"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="131"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2778,15 +2778,14 @@
       </c>
       <c r="L6" s="47">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M6" s="47">
-        <f t="shared" si="1"/>
-        <v>37.25</v>
+        <v>14</v>
       </c>
       <c r="N6" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O6" s="47">
         <f t="shared" si="1"/>
@@ -2798,11 +2797,10 @@
       </c>
       <c r="Q6" s="47">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R6" s="47">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="S6" s="47">
         <f t="shared" si="1"/>
@@ -2825,15 +2823,15 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="111"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="122"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2893,13 +2891,13 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="112"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="123"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2962,18 +2960,18 @@
       <c r="A9" s="77">
         <v>1</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="81" t="s">
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="75"/>
+      <c r="G9" s="80"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v>予定</v>
@@ -2996,12 +2994,12 @@
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="78"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="76"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="81"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v>実績</v>
@@ -3024,20 +3022,20 @@
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="77"/>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="66" t="s">
+      <c r="D11" s="73"/>
+      <c r="E11" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="68"/>
+      <c r="G11" s="67"/>
       <c r="H11" s="8">
         <v>0.5</v>
       </c>
@@ -3067,12 +3065,12 @@
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="78"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="61"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="68"/>
       <c r="H12" s="52">
         <v>0.5</v>
       </c>
@@ -3102,20 +3100,20 @@
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="77"/>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="66" t="s">
+      <c r="D13" s="73"/>
+      <c r="E13" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="68"/>
+      <c r="G13" s="67"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -3147,12 +3145,12 @@
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="78"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="61"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="68"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -3186,18 +3184,18 @@
       <c r="A15" s="77">
         <v>2</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="81" t="s">
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="75"/>
+      <c r="G15" s="80"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v>予定</v>
@@ -3220,12 +3218,12 @@
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="78"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="76"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v>実績</v>
@@ -3248,20 +3246,20 @@
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="77"/>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="66" t="s">
+      <c r="D17" s="73"/>
+      <c r="E17" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="68"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3294,12 +3292,12 @@
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="78"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="61"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3331,20 +3329,20 @@
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="77"/>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="66" t="s">
+      <c r="D19" s="73"/>
+      <c r="E19" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="68"/>
+      <c r="G19" s="67"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3376,12 +3374,12 @@
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="78"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="61"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3413,20 +3411,20 @@
     </row>
     <row r="21" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="77"/>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="66" t="s">
+      <c r="D21" s="73"/>
+      <c r="E21" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="68"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3457,12 +3455,12 @@
     </row>
     <row r="22" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="78"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="61"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="68"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3493,17 +3491,17 @@
       <c r="W22" s="32"/>
     </row>
     <row r="23" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="83" t="s">
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="85"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="125"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3563,13 +3561,13 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="72"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="86"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="126"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3577,7 +3575,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="15">
         <f t="shared" ref="K24:W24" si="9">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L24" s="42">
         <f t="shared" si="9"/>
@@ -3585,7 +3583,7 @@
       </c>
       <c r="M24" s="36">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N24" s="36">
         <f t="shared" si="9"/>
@@ -3632,18 +3630,18 @@
       <c r="A25" s="77">
         <v>1</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="81" t="s">
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="81" t="s">
+      <c r="F25" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="75"/>
+      <c r="G25" s="80"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v>予定</v>
@@ -3666,12 +3664,12 @@
     </row>
     <row r="26" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="78"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="76"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="81"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v>実績</v>
@@ -3693,21 +3691,21 @@
       <c r="W26" s="32"/>
     </row>
     <row r="27" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="87"/>
-      <c r="B27" s="89" t="s">
+      <c r="A27" s="127"/>
+      <c r="B27" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="91" t="s">
+      <c r="D27" s="73"/>
+      <c r="E27" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="91" t="s">
+      <c r="F27" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="93"/>
+      <c r="G27" s="133"/>
       <c r="H27" s="53">
         <f>IF(E27="","","予定")</f>
         <v>0</v>
@@ -3737,13 +3735,13 @@
       <c r="W27" s="55"/>
     </row>
     <row r="28" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="88"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="90"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="130"/>
       <c r="H28" s="56">
         <f>IF(E27="","","実績")</f>
         <v>0</v>
@@ -3759,7 +3757,7 @@
       </c>
       <c r="L28" s="57"/>
       <c r="M28" s="58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N28" s="59"/>
       <c r="O28" s="59"/>
@@ -3774,20 +3772,20 @@
     </row>
     <row r="29" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="77"/>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="66" t="s">
+      <c r="D29" s="73"/>
+      <c r="E29" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="68"/>
+      <c r="G29" s="67"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3818,12 +3816,12 @@
     </row>
     <row r="30" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="78"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="61"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="68"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3836,11 +3834,11 @@
       </c>
       <c r="K30" s="10">
         <f t="shared" ref="K30:K33" si="10">SUM(L30:S30)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L30" s="48"/>
       <c r="M30" s="49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N30" s="32"/>
       <c r="O30" s="32"/>
@@ -3855,20 +3853,20 @@
     </row>
     <row r="31" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="77"/>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="66" t="s">
+      <c r="D31" s="73"/>
+      <c r="E31" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="68"/>
+      <c r="G31" s="67"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3900,12 +3898,12 @@
     </row>
     <row r="32" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="78"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="61"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="68"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3936,20 +3934,20 @@
     </row>
     <row r="33" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="77"/>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="66" t="s">
+      <c r="D33" s="73"/>
+      <c r="E33" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="68"/>
+      <c r="G33" s="67"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3981,12 +3979,12 @@
     </row>
     <row r="34" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="78"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="61"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="68"/>
       <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -4020,18 +4018,18 @@
       <c r="A35" s="77">
         <v>2</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="81" t="s">
+      <c r="C35" s="72"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="81" t="s">
+      <c r="F35" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="75"/>
+      <c r="G35" s="80"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
         <v>予定</v>
@@ -4054,12 +4052,12 @@
     </row>
     <row r="36" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="78"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="76"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="81"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
         <v>実績</v>
@@ -4082,20 +4080,20 @@
     </row>
     <row r="37" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="77"/>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="66" t="s">
+      <c r="D37" s="73"/>
+      <c r="E37" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="66" t="s">
+      <c r="F37" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="68"/>
+      <c r="G37" s="67"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -4127,12 +4125,12 @@
     </row>
     <row r="38" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="78"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="61"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="68"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -4162,20 +4160,20 @@
     </row>
     <row r="39" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="77"/>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="66" t="s">
+      <c r="D39" s="73"/>
+      <c r="E39" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="66" t="s">
+      <c r="F39" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="68"/>
+      <c r="G39" s="67"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4207,12 +4205,12 @@
     </row>
     <row r="40" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="78"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="61"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="68"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -4242,20 +4240,20 @@
     </row>
     <row r="41" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="77"/>
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="66" t="s">
+      <c r="D41" s="73"/>
+      <c r="E41" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="68"/>
+      <c r="G41" s="67"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -4287,12 +4285,12 @@
     </row>
     <row r="42" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="78"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="61"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="68"/>
       <c r="H42" s="52" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -4321,15 +4319,15 @@
       <c r="W42" s="32"/>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="85"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="125"/>
       <c r="H43" s="20" t="s">
         <v>19</v>
       </c>
@@ -4389,13 +4387,13 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="72"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="86"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="126"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -4415,11 +4413,11 @@
       </c>
       <c r="N44" s="36">
         <f t="shared" si="13"/>
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="O44" s="36">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P44" s="36">
         <f t="shared" si="13"/>
@@ -4455,16 +4453,16 @@
       <c r="A45" s="77">
         <v>1</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="81" t="s">
+      <c r="C45" s="72"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="81"/>
-      <c r="G45" s="75"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="80"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -4487,12 +4485,12 @@
     </row>
     <row r="46" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="78"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="76"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="81"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
@@ -4515,18 +4513,18 @@
     </row>
     <row r="47" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="77"/>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="66" t="s">
+      <c r="D47" s="73"/>
+      <c r="E47" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="66"/>
-      <c r="G47" s="68"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="67"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4559,12 +4557,12 @@
     </row>
     <row r="48" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="78"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="61"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="68"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4592,18 +4590,18 @@
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="77"/>
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="66" t="s">
+      <c r="D49" s="73"/>
+      <c r="E49" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="66"/>
-      <c r="G49" s="68"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="67"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4639,12 +4637,12 @@
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="78"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="61"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="68"/>
       <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4657,10 +4655,10 @@
       </c>
       <c r="L50" s="41"/>
       <c r="M50" s="32"/>
-      <c r="N50" s="32">
+      <c r="N50" s="32"/>
+      <c r="O50" s="32">
         <v>10</v>
       </c>
-      <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="32"/>
       <c r="R50" s="32"/>
@@ -4674,16 +4672,16 @@
       <c r="A51" s="77">
         <v>2</v>
       </c>
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="81" t="s">
+      <c r="C51" s="72"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="81"/>
-      <c r="G51" s="75"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="80"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4706,12 +4704,12 @@
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="78"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="76"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="81"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4734,18 +4732,18 @@
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="77"/>
-      <c r="B53" s="60" t="s">
+      <c r="B53" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="62" t="s">
+      <c r="C53" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="63"/>
-      <c r="E53" s="66" t="s">
+      <c r="D53" s="73"/>
+      <c r="E53" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="66"/>
-      <c r="G53" s="68"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="67"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4776,12 +4774,12 @@
     </row>
     <row r="54" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="78"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="61"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="68"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4795,9 +4793,11 @@
       <c r="L54" s="41"/>
       <c r="M54" s="32"/>
       <c r="N54" s="32">
-        <v>3</v>
-      </c>
-      <c r="O54" s="32"/>
+        <v>1</v>
+      </c>
+      <c r="O54" s="32">
+        <v>2</v>
+      </c>
       <c r="P54" s="32">
         <v>1</v>
       </c>
@@ -4811,18 +4811,18 @@
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="77"/>
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="66" t="s">
+      <c r="D55" s="73"/>
+      <c r="E55" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="66"/>
-      <c r="G55" s="68"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="67"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4855,12 +4855,12 @@
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="78"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="61"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="68"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4874,9 +4874,11 @@
       <c r="L56" s="41"/>
       <c r="M56" s="32"/>
       <c r="N56" s="32">
-        <v>7.5</v>
-      </c>
-      <c r="O56" s="32"/>
+        <v>3</v>
+      </c>
+      <c r="O56" s="32">
+        <v>4.5</v>
+      </c>
       <c r="P56" s="32">
         <v>1</v>
       </c>
@@ -4890,18 +4892,18 @@
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="77"/>
-      <c r="B57" s="60" t="s">
+      <c r="B57" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="66" t="s">
+      <c r="D57" s="73"/>
+      <c r="E57" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="66"/>
-      <c r="G57" s="68"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="67"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4932,12 +4934,12 @@
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="78"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="61"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="68"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4950,10 +4952,10 @@
       </c>
       <c r="L58" s="43"/>
       <c r="M58" s="44"/>
-      <c r="N58" s="44">
+      <c r="N58" s="44"/>
+      <c r="O58" s="44">
         <v>0.5</v>
       </c>
-      <c r="O58" s="44"/>
       <c r="P58" s="44">
         <v>1</v>
       </c>
@@ -4966,15 +4968,15 @@
       <c r="W58" s="44"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="69" t="s">
+      <c r="A59" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="85"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="125"/>
       <c r="H59" s="20" t="s">
         <v>19</v>
       </c>
@@ -5034,13 +5036,13 @@
       </c>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="72"/>
-      <c r="B60" s="73"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="86"/>
+      <c r="A60" s="87"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="126"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -5048,14 +5050,14 @@
       <c r="J60" s="7"/>
       <c r="K60" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L60" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$61:L$76),2)=0)*L$61:L$76)</f>
         <v>0</v>
       </c>
       <c r="M60" s="36">
-        <f t="shared" ref="M60:W60" si="17">SUMPRODUCT((MOD(ROW(M$61:M$76),2)=0)*M$61:M$76)</f>
+        <f t="shared" ref="M60:U60" si="17">SUMPRODUCT((MOD(ROW(M$61:M$76),2)=0)*M$61:M$76)</f>
         <v>0</v>
       </c>
       <c r="N60" s="36">
@@ -5076,7 +5078,7 @@
       </c>
       <c r="R60" s="36">
         <f t="shared" si="17"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S60" s="36">
         <f t="shared" si="17"/>
@@ -5097,14 +5099,14 @@
       <c r="A61" s="77">
         <v>1</v>
       </c>
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="79"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="75"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="80"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -5127,12 +5129,12 @@
     </row>
     <row r="62" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="78"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="76"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="81"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -5155,18 +5157,18 @@
     </row>
     <row r="63" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="77"/>
-      <c r="B63" s="60" t="s">
+      <c r="B63" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="62" t="s">
+      <c r="C63" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="63"/>
-      <c r="E63" s="66" t="s">
+      <c r="D63" s="73"/>
+      <c r="E63" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="66"/>
-      <c r="G63" s="68"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="67"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -5202,12 +5204,12 @@
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="78"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="61"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="68"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -5237,18 +5239,18 @@
     </row>
     <row r="65" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="77"/>
-      <c r="B65" s="60" t="s">
+      <c r="B65" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="66" t="s">
+      <c r="D65" s="73"/>
+      <c r="E65" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="66"/>
-      <c r="G65" s="68"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="67"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -5280,12 +5282,12 @@
     </row>
     <row r="66" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="78"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="61"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="68"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -5313,18 +5315,18 @@
     </row>
     <row r="67" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="77"/>
-      <c r="B67" s="60" t="s">
+      <c r="B67" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="63"/>
-      <c r="E67" s="66" t="s">
+      <c r="D67" s="73"/>
+      <c r="E67" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="66"/>
-      <c r="G67" s="68"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="67"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -5357,12 +5359,12 @@
     </row>
     <row r="68" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="78"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="61"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="68"/>
       <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -5394,14 +5396,14 @@
       <c r="A69" s="77">
         <v>2</v>
       </c>
-      <c r="B69" s="62" t="s">
+      <c r="B69" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="79"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="75"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="80"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -5424,12 +5426,12 @@
     </row>
     <row r="70" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="78"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="76"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="75"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="81"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -5452,18 +5454,18 @@
     </row>
     <row r="71" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="77"/>
-      <c r="B71" s="60" t="s">
+      <c r="B71" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="62" t="s">
+      <c r="C71" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="63"/>
-      <c r="E71" s="66" t="s">
+      <c r="D71" s="73"/>
+      <c r="E71" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="66"/>
-      <c r="G71" s="68"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="67"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
@@ -5496,12 +5498,12 @@
     </row>
     <row r="72" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="78"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="61"/>
+      <c r="B72" s="68"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="68"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -5531,18 +5533,18 @@
     </row>
     <row r="73" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="77"/>
-      <c r="B73" s="60" t="s">
+      <c r="B73" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="C73" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="66" t="s">
+      <c r="D73" s="73"/>
+      <c r="E73" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="66"/>
-      <c r="G73" s="68"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="67"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5575,12 +5577,12 @@
     </row>
     <row r="74" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="78"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="61"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="76"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="68"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5589,7 +5591,7 @@
       <c r="J74" s="52"/>
       <c r="K74" s="10">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L74" s="41"/>
       <c r="M74" s="32"/>
@@ -5598,7 +5600,7 @@
       <c r="P74" s="32"/>
       <c r="Q74" s="32"/>
       <c r="R74" s="32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S74" s="32">
         <v>4</v>
@@ -5610,18 +5612,18 @@
     </row>
     <row r="75" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="77"/>
-      <c r="B75" s="60" t="s">
+      <c r="B75" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="62" t="s">
+      <c r="C75" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="63"/>
-      <c r="E75" s="66" t="s">
+      <c r="D75" s="73"/>
+      <c r="E75" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F75" s="66"/>
-      <c r="G75" s="68"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="67"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5654,12 +5656,12 @@
     </row>
     <row r="76" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="78"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="61"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="68"/>
       <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5686,15 +5688,15 @@
       <c r="W76" s="44"/>
     </row>
     <row r="77" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="69" t="s">
+      <c r="A77" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="85"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="82"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="125"/>
       <c r="H77" s="20" t="s">
         <v>19</v>
       </c>
@@ -5729,7 +5731,7 @@
         <v>15</v>
       </c>
       <c r="R77" s="35">
-        <f t="shared" ref="R77:W77" si="21">SUMPRODUCT((MOD(ROW(R$79:R$84),2)=1)*R$79:R$84)</f>
+        <f t="shared" ref="R77:V77" si="21">SUMPRODUCT((MOD(ROW(R$79:R$84),2)=1)*R$79:R$84)</f>
         <v>0</v>
       </c>
       <c r="S77" s="35">
@@ -5751,13 +5753,13 @@
       <c r="W77" s="35"/>
     </row>
     <row r="78" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="72"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="73"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="86"/>
+      <c r="A78" s="87"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="126"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5768,7 +5770,7 @@
         <v>5</v>
       </c>
       <c r="L78" s="36">
-        <f t="shared" ref="L78:W78" si="22">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
+        <f t="shared" ref="L78:V78" si="22">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
         <v>0</v>
       </c>
       <c r="M78" s="36">
@@ -5817,14 +5819,14 @@
       <c r="A79" s="77">
         <v>1</v>
       </c>
-      <c r="B79" s="62" t="s">
+      <c r="B79" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="79"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="81"/>
-      <c r="F79" s="81"/>
-      <c r="G79" s="75"/>
+      <c r="C79" s="72"/>
+      <c r="D79" s="73"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="80"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -5847,12 +5849,12 @@
     </row>
     <row r="80" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="78"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="80"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="82"/>
-      <c r="F80" s="82"/>
-      <c r="G80" s="76"/>
+      <c r="B80" s="74"/>
+      <c r="C80" s="75"/>
+      <c r="D80" s="76"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="81"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -5875,18 +5877,18 @@
     </row>
     <row r="81" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="77"/>
-      <c r="B81" s="60" t="s">
+      <c r="B81" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C81" s="62" t="s">
+      <c r="C81" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="63"/>
-      <c r="E81" s="66" t="s">
+      <c r="D81" s="73"/>
+      <c r="E81" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="66"/>
-      <c r="G81" s="68"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="67"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5922,12 +5924,12 @@
     </row>
     <row r="82" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="78"/>
-      <c r="B82" s="61"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="61"/>
+      <c r="B82" s="68"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="68"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5959,18 +5961,18 @@
     </row>
     <row r="83" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="77"/>
-      <c r="B83" s="60" t="s">
+      <c r="B83" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="62" t="s">
+      <c r="C83" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="63"/>
-      <c r="E83" s="66" t="s">
+      <c r="D83" s="73"/>
+      <c r="E83" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F83" s="66"/>
-      <c r="G83" s="68"/>
+      <c r="F83" s="65"/>
+      <c r="G83" s="67"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -6003,12 +6005,12 @@
     </row>
     <row r="84" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="78"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="61"/>
+      <c r="B84" s="68"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="68"/>
       <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -6035,22 +6037,22 @@
       <c r="W84" s="32"/>
     </row>
     <row r="85" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="69" t="s">
+      <c r="A85" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="71"/>
-      <c r="E85" s="83"/>
-      <c r="F85" s="83"/>
-      <c r="G85" s="85"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="86"/>
+      <c r="E85" s="82"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="125"/>
       <c r="H85" s="20" t="s">
         <v>19</v>
       </c>
       <c r="I85" s="20"/>
       <c r="J85" s="20"/>
       <c r="K85" s="21">
-        <f t="shared" ref="K85:W85" si="24">SUMPRODUCT((MOD(ROW(K$87:K$96),2)=1)*K$87:K$96)</f>
+        <f t="shared" ref="K85:U85" si="24">SUMPRODUCT((MOD(ROW(K$87:K$96),2)=1)*K$87:K$96)</f>
         <v>6.5</v>
       </c>
       <c r="L85" s="35">
@@ -6097,13 +6099,13 @@
       <c r="W85" s="35"/>
     </row>
     <row r="86" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="72"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="73"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="86"/>
+      <c r="A86" s="87"/>
+      <c r="B86" s="88"/>
+      <c r="C86" s="88"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="126"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -6155,7 +6157,7 @@
       </c>
       <c r="V86" s="36">
         <f t="shared" si="25"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W86" s="36">
         <f t="shared" si="25"/>
@@ -6166,14 +6168,14 @@
       <c r="A87" s="77">
         <v>1</v>
       </c>
-      <c r="B87" s="62" t="s">
+      <c r="B87" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C87" s="79"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="75"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="69"/>
+      <c r="G87" s="80"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -6196,12 +6198,12 @@
     </row>
     <row r="88" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="78"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="76"/>
+      <c r="B88" s="74"/>
+      <c r="C88" s="75"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="70"/>
+      <c r="G88" s="81"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -6224,18 +6226,18 @@
     </row>
     <row r="89" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="77"/>
-      <c r="B89" s="60" t="s">
+      <c r="B89" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="62" t="s">
+      <c r="C89" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="63"/>
-      <c r="E89" s="66" t="s">
+      <c r="D89" s="73"/>
+      <c r="E89" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="66"/>
-      <c r="G89" s="68"/>
+      <c r="F89" s="65"/>
+      <c r="G89" s="67"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -6270,12 +6272,12 @@
     </row>
     <row r="90" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="78"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="61"/>
+      <c r="B90" s="68"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="68"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -6305,14 +6307,14 @@
       <c r="A91" s="77">
         <v>2</v>
       </c>
-      <c r="B91" s="62" t="s">
+      <c r="B91" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="79"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="81"/>
-      <c r="F91" s="81"/>
-      <c r="G91" s="75"/>
+      <c r="C91" s="72"/>
+      <c r="D91" s="73"/>
+      <c r="E91" s="69"/>
+      <c r="F91" s="69"/>
+      <c r="G91" s="80"/>
       <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -6335,12 +6337,12 @@
     </row>
     <row r="92" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="78"/>
-      <c r="B92" s="64"/>
-      <c r="C92" s="80"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="82"/>
-      <c r="F92" s="82"/>
-      <c r="G92" s="76"/>
+      <c r="B92" s="74"/>
+      <c r="C92" s="75"/>
+      <c r="D92" s="76"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="70"/>
+      <c r="G92" s="81"/>
       <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -6363,18 +6365,18 @@
     </row>
     <row r="93" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="77"/>
-      <c r="B93" s="60" t="s">
+      <c r="B93" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="62" t="s">
+      <c r="C93" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="63"/>
-      <c r="E93" s="66" t="s">
+      <c r="D93" s="73"/>
+      <c r="E93" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="66"/>
-      <c r="G93" s="68"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="67"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -6407,12 +6409,12 @@
     </row>
     <row r="94" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="78"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="61"/>
+      <c r="B94" s="68"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="76"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="68"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -6440,18 +6442,18 @@
     </row>
     <row r="95" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="77"/>
-      <c r="B95" s="60" t="s">
+      <c r="B95" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="62" t="s">
+      <c r="C95" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D95" s="63"/>
-      <c r="E95" s="66" t="s">
+      <c r="D95" s="73"/>
+      <c r="E95" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="66"/>
-      <c r="G95" s="68"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="67"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -6483,12 +6485,12 @@
     </row>
     <row r="96" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="78"/>
-      <c r="B96" s="61"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="61"/>
+      <c r="B96" s="68"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="68"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -6510,20 +6512,20 @@
       <c r="T96" s="44"/>
       <c r="U96" s="44"/>
       <c r="V96" s="44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W96" s="44"/>
     </row>
     <row r="97" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="69" t="s">
+      <c r="A97" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="70"/>
-      <c r="C97" s="70"/>
-      <c r="D97" s="71"/>
-      <c r="E97" s="83"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="85"/>
+      <c r="B97" s="85"/>
+      <c r="C97" s="85"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="82"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="125"/>
       <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
@@ -6534,7 +6536,7 @@
         <v>7</v>
       </c>
       <c r="L97" s="35">
-        <f t="shared" ref="L97:V97" si="27">SUMPRODUCT((MOD(ROW(L$99:L$110),2)=1)*L$99:L$110)</f>
+        <f t="shared" ref="L97:U97" si="27">SUMPRODUCT((MOD(ROW(L$99:L$110),2)=1)*L$99:L$110)</f>
         <v>0</v>
       </c>
       <c r="M97" s="35">
@@ -6580,13 +6582,13 @@
       </c>
     </row>
     <row r="98" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="72"/>
-      <c r="B98" s="73"/>
-      <c r="C98" s="73"/>
-      <c r="D98" s="74"/>
-      <c r="E98" s="84"/>
-      <c r="F98" s="84"/>
-      <c r="G98" s="86"/>
+      <c r="A98" s="87"/>
+      <c r="B98" s="88"/>
+      <c r="C98" s="88"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="83"/>
+      <c r="G98" s="126"/>
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
@@ -6638,7 +6640,7 @@
       </c>
       <c r="V98" s="37">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W98" s="37">
         <f t="shared" si="28"/>
@@ -6649,14 +6651,14 @@
       <c r="A99" s="77">
         <v>1</v>
       </c>
-      <c r="B99" s="62" t="s">
+      <c r="B99" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C99" s="79"/>
-      <c r="D99" s="63"/>
-      <c r="E99" s="81"/>
-      <c r="F99" s="81"/>
-      <c r="G99" s="75"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="73"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="80"/>
       <c r="H99" s="23" t="str">
         <f>IF(E99="","","予定")</f>
         <v/>
@@ -6679,12 +6681,12 @@
     </row>
     <row r="100" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="78"/>
-      <c r="B100" s="64"/>
-      <c r="C100" s="80"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="82"/>
-      <c r="F100" s="82"/>
-      <c r="G100" s="76"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="70"/>
+      <c r="G100" s="81"/>
       <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
         <v/>
@@ -6707,18 +6709,18 @@
     </row>
     <row r="101" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="77"/>
-      <c r="B101" s="60" t="s">
+      <c r="B101" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="62" t="s">
+      <c r="C101" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="63"/>
-      <c r="E101" s="66" t="s">
+      <c r="D101" s="73"/>
+      <c r="E101" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="66"/>
-      <c r="G101" s="68"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="67"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -6751,12 +6753,12 @@
     </row>
     <row r="102" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="78"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="61"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="68"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -6777,23 +6779,25 @@
       <c r="S102" s="32"/>
       <c r="T102" s="32"/>
       <c r="U102" s="32"/>
-      <c r="V102" s="32"/>
+      <c r="V102" s="32">
+        <v>5</v>
+      </c>
       <c r="W102" s="32"/>
     </row>
     <row r="103" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="77"/>
-      <c r="B103" s="60" t="s">
+      <c r="B103" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="62" t="s">
+      <c r="C103" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="63"/>
-      <c r="E103" s="66" t="s">
+      <c r="D103" s="73"/>
+      <c r="E103" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="66"/>
-      <c r="G103" s="68"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="67"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6826,12 +6830,12 @@
     </row>
     <row r="104" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="78"/>
-      <c r="B104" s="61"/>
-      <c r="C104" s="64"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="61"/>
+      <c r="B104" s="68"/>
+      <c r="C104" s="74"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="68"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6852,21 +6856,23 @@
       <c r="S104" s="32"/>
       <c r="T104" s="32"/>
       <c r="U104" s="32"/>
-      <c r="V104" s="32"/>
+      <c r="V104" s="32">
+        <v>0</v>
+      </c>
       <c r="W104" s="32"/>
     </row>
     <row r="105" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="77">
         <v>2</v>
       </c>
-      <c r="B105" s="62" t="s">
+      <c r="B105" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="79"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="81"/>
-      <c r="F105" s="81"/>
-      <c r="G105" s="75"/>
+      <c r="C105" s="72"/>
+      <c r="D105" s="73"/>
+      <c r="E105" s="69"/>
+      <c r="F105" s="69"/>
+      <c r="G105" s="80"/>
       <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -6889,12 +6895,12 @@
     </row>
     <row r="106" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="78"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="80"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="82"/>
-      <c r="F106" s="82"/>
-      <c r="G106" s="76"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="75"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="70"/>
+      <c r="F106" s="70"/>
+      <c r="G106" s="81"/>
       <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -6917,18 +6923,18 @@
     </row>
     <row r="107" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="77"/>
-      <c r="B107" s="60" t="s">
+      <c r="B107" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="62" t="s">
+      <c r="C107" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="63"/>
-      <c r="E107" s="66" t="s">
+      <c r="D107" s="73"/>
+      <c r="E107" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F107" s="66"/>
-      <c r="G107" s="68"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="67"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6961,12 +6967,12 @@
     </row>
     <row r="108" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="78"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="61"/>
+      <c r="B108" s="68"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="66"/>
+      <c r="G108" s="68"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6992,18 +6998,18 @@
     </row>
     <row r="109" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="77"/>
-      <c r="B109" s="60" t="s">
+      <c r="B109" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="62" t="s">
+      <c r="C109" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D109" s="63"/>
-      <c r="E109" s="66" t="s">
+      <c r="D109" s="73"/>
+      <c r="E109" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F109" s="66"/>
-      <c r="G109" s="68"/>
+      <c r="F109" s="65"/>
+      <c r="G109" s="67"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -7036,12 +7042,12 @@
     </row>
     <row r="110" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="78"/>
-      <c r="B110" s="61"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="61"/>
+      <c r="B110" s="68"/>
+      <c r="C110" s="74"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="66"/>
+      <c r="F110" s="66"/>
+      <c r="G110" s="68"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -7084,27 +7090,249 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="G105:G106"/>
@@ -7129,7 +7357,17 @@
     <mergeCell ref="A91:A92"/>
     <mergeCell ref="B91:D92"/>
     <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A55:A56"/>
     <mergeCell ref="A99:A100"/>
     <mergeCell ref="B99:D100"/>
     <mergeCell ref="A81:A82"/>
@@ -7139,266 +7377,34 @@
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:D84"/>
     <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F91:F92"/>
     <mergeCell ref="F83:F84"/>
-    <mergeCell ref="E85:E86"/>
     <mergeCell ref="F85:F86"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="H1:H4"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B45:D46"/>
     <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
     <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="G45:G46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="F47:F48"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F55:F56"/>
     <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:S18 L99:S110 L25:S26 M29:S29 L30:S36 L87:S96">
@@ -7593,12 +7599,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -7782,6 +7782,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
@@ -7791,15 +7797,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2E3E761-B6CF-4176-A3CC-D1E7FA487AE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7815,4 +7812,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>